--- a/sheep_wars_stats.xlsx
+++ b/sheep_wars_stats.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Qrsn" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Pogdude69" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="one4kat" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="aurxraaa" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -266,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -358,6 +359,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,7 +741,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5819,6 +5835,1236 @@
       </c>
       <c r="H169" t="n">
         <v>5.97</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:35</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>4893</v>
+      </c>
+      <c r="D170" t="n">
+        <v>780</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2473</v>
+      </c>
+      <c r="G170" t="n">
+        <v>414</v>
+      </c>
+      <c r="H170" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:39</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>25345</v>
+      </c>
+      <c r="D171" t="n">
+        <v>8444</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>11164</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5928</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:42</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>one4kat</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>4055</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3392</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3723</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1976</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:45</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Chuckegg</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>35842</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9910</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18435</v>
+      </c>
+      <c r="G173" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:47</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Hamster318</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>4752</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2971</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2930</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2324</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:51</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>13956</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4826</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10134</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:53</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>4893</v>
+      </c>
+      <c r="D176" t="n">
+        <v>780</v>
+      </c>
+      <c r="E176" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2473</v>
+      </c>
+      <c r="G176" t="n">
+        <v>414</v>
+      </c>
+      <c r="H176" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:58</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Qrsn</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>16300</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4349</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F177" t="n">
+        <v>7947</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2847</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:30:59</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>25345</v>
+      </c>
+      <c r="D178" t="n">
+        <v>8444</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>11164</v>
+      </c>
+      <c r="G178" t="n">
+        <v>5928</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:31:02</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>one4kat</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>4055</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3392</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3723</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1976</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:31:05</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Chuckegg</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>35842</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9910</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18435</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:31:08</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Hamster318</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>4752</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2971</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2930</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2324</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:31:11</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>13956</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4826</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10134</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:31:14</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Qrsn</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>16300</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4349</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F183" t="n">
+        <v>7947</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2847</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:45:39</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H184" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:21:22</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>4893</v>
+      </c>
+      <c r="D185" t="n">
+        <v>780</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2473</v>
+      </c>
+      <c r="G185" t="n">
+        <v>414</v>
+      </c>
+      <c r="H185" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:21:41</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>25345</v>
+      </c>
+      <c r="D186" t="n">
+        <v>8444</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>11164</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5928</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:23:44</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>25345</v>
+      </c>
+      <c r="D187" t="n">
+        <v>8444</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>11164</v>
+      </c>
+      <c r="G187" t="n">
+        <v>5928</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:24:53</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F188" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H188" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:26:53</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:29:03</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F190" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H190" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:29:35</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H191" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:57:29</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>lxna_</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:57:53</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>25345</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8444</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>11164</v>
+      </c>
+      <c r="G193" t="n">
+        <v>5928</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:00:33</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>aurxraaa</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>5815</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3226</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1285</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:00:54</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>aurxraaa</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>5815</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3226</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1285</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:00:57</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>aurxraaa</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>5815</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3226</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1285</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:01:20</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>aurxraaa</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>5815</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3226</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1285</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:03:30</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>4893</v>
+      </c>
+      <c r="D198" t="n">
+        <v>780</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2473</v>
+      </c>
+      <c r="G198" t="n">
+        <v>414</v>
+      </c>
+      <c r="H198" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:05:48</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:08:24</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>25345</v>
+      </c>
+      <c r="D200" t="n">
+        <v>8444</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11164</v>
+      </c>
+      <c r="G200" t="n">
+        <v>5928</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:12:11</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>lxna_</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D201" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F201" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:15:57</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>lxna_</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F202" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H202" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:18:49</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>lxna_</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:21:30</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>lxna_</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>13959</v>
+      </c>
+      <c r="D204" t="n">
+        <v>4827</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10137</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2633</v>
+      </c>
+      <c r="H204" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:21:48</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>25345</v>
+      </c>
+      <c r="D205" t="n">
+        <v>8444</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>11164</v>
+      </c>
+      <c r="G205" t="n">
+        <v>5928</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:22:07</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>25345</v>
+      </c>
+      <c r="D206" t="n">
+        <v>8444</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>11164</v>
+      </c>
+      <c r="G206" t="n">
+        <v>5928</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:22:28</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Chuckegg</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>35842</v>
+      </c>
+      <c r="D207" t="n">
+        <v>9910</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18435</v>
+      </c>
+      <c r="G207" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:28:08</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>jthalotime</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>923</v>
+      </c>
+      <c r="D208" t="n">
+        <v>783</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F208" t="n">
+        <v>983</v>
+      </c>
+      <c r="G208" t="n">
+        <v>407</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:28:10</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>jthalotime</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>923</v>
+      </c>
+      <c r="D209" t="n">
+        <v>783</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F209" t="n">
+        <v>983</v>
+      </c>
+      <c r="G209" t="n">
+        <v>407</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:28:19</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>jthalotime</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>923</v>
+      </c>
+      <c r="D210" t="n">
+        <v>783</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F210" t="n">
+        <v>983</v>
+      </c>
+      <c r="G210" t="n">
+        <v>407</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.42</v>
       </c>
     </row>
   </sheetData>
@@ -6013,12 +7259,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="19" t="inlineStr">
+      <c r="E11" s="35" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -6031,15 +7277,15 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" s="20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="21" t="n">
-        <v>4793</v>
+      <c r="E12" s="37" t="n">
+        <v>4893</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" s="31">
@@ -6049,15 +7295,15 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="36" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="21" t="n">
-        <v>779</v>
+      <c r="E13" s="37" t="n">
+        <v>780</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" s="31">
@@ -6067,14 +7313,14 @@
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" s="20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="22" t="n">
+      <c r="E14" s="38" t="n">
         <v>6.27</v>
       </c>
     </row>
@@ -6085,15 +7331,15 @@
         </is>
       </c>
       <c r="B15" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" s="20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="21" t="n">
-        <v>2373</v>
+      <c r="E15" s="37" t="n">
+        <v>2473</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="31">
@@ -6105,12 +7351,12 @@
       <c r="B16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="20" t="inlineStr">
+      <c r="D16" s="36" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="21" t="n">
+      <c r="E16" s="37" t="n">
         <v>414</v>
       </c>
     </row>
@@ -6121,14 +7367,14 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D17" s="20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="38" t="n">
         <v>5.97</v>
       </c>
     </row>
@@ -6466,7 +7712,7 @@
         <v>780</v>
       </c>
       <c r="D40" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="31">
@@ -6708,12 +7954,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="19" t="inlineStr">
+      <c r="E11" s="35" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -6728,12 +7974,12 @@
       <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="23" t="inlineStr">
+      <c r="D12" s="34" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="39" t="n">
         <v>4752</v>
       </c>
     </row>
@@ -6746,12 +7992,12 @@
       <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="23" t="inlineStr">
+      <c r="D13" s="34" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="39" t="n">
         <v>2971</v>
       </c>
     </row>
@@ -6764,12 +8010,12 @@
       <c r="B14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="23" t="inlineStr">
+      <c r="D14" s="34" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="39" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -6782,12 +8028,12 @@
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="23" t="inlineStr">
+      <c r="D15" s="34" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="39" t="n">
         <v>2930</v>
       </c>
     </row>
@@ -6800,12 +8046,12 @@
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="23" t="inlineStr">
+      <c r="D16" s="34" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="39" t="n">
         <v>2324</v>
       </c>
     </row>
@@ -6818,12 +8064,12 @@
       <c r="B17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="23" t="inlineStr">
+      <c r="D17" s="34" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="39" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -7147,6 +8393,9 @@
       <c r="B39" s="7" t="n">
         <v>4752</v>
       </c>
+      <c r="D39" t="n">
+        <v>38800</v>
+      </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="31">
       <c r="A40" s="5" t="inlineStr">
@@ -7156,6 +8405,9 @@
       </c>
       <c r="B40" s="7" t="n">
         <v>2971</v>
+      </c>
+      <c r="D40" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="31">
@@ -7397,12 +8649,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="19" t="inlineStr">
+      <c r="E11" s="35" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -7417,12 +8669,12 @@
       <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="23" t="inlineStr">
+      <c r="D12" s="34" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="39" t="n">
         <v>35842</v>
       </c>
     </row>
@@ -7435,12 +8687,12 @@
       <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="23" t="inlineStr">
+      <c r="D13" s="34" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="39" t="n">
         <v>9910</v>
       </c>
     </row>
@@ -7453,12 +8705,12 @@
       <c r="B14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="23" t="inlineStr">
+      <c r="D14" s="34" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="39" t="n">
         <v>3.62</v>
       </c>
     </row>
@@ -7471,12 +8723,12 @@
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="23" t="inlineStr">
+      <c r="D15" s="34" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="39" t="n">
         <v>18435</v>
       </c>
     </row>
@@ -7489,12 +8741,12 @@
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="23" t="inlineStr">
+      <c r="D16" s="34" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="39" t="n">
         <v>6127</v>
       </c>
     </row>
@@ -7507,12 +8759,12 @@
       <c r="B17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="23" t="inlineStr">
+      <c r="D17" s="34" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="39" t="n">
         <v>3.01</v>
       </c>
     </row>
@@ -7836,6 +9088,9 @@
       <c r="B39" s="7" t="n">
         <v>35842</v>
       </c>
+      <c r="D39" t="n">
+        <v>283749</v>
+      </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="31">
       <c r="A40" s="5" t="inlineStr">
@@ -7845,6 +9100,9 @@
       </c>
       <c r="B40" s="7" t="n">
         <v>9910</v>
+      </c>
+      <c r="D40" t="n">
+        <v>510</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="31">
@@ -7957,7 +9215,9 @@
           <t>Kills</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n"/>
+      <c r="B3" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="D3" s="23" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -7973,7 +9233,9 @@
           <t>Deaths</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n"/>
+      <c r="B4" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="D4" s="23" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -7989,7 +9251,9 @@
           <t>K/D</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
+      <c r="B5" s="5" t="n">
+        <v>7.5</v>
+      </c>
       <c r="D5" s="23" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8005,7 +9269,9 @@
           <t>Wins</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
+      <c r="B6" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="D6" s="23" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8021,7 +9287,9 @@
           <t>Losses</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8037,7 +9305,9 @@
           <t>W/L</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
+      <c r="B8" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="D8" s="23" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8071,12 +9341,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="18" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -8089,15 +9359,15 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D12" s="34" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="23" t="n">
-        <v>13944</v>
+      <c r="E12" s="34" t="n">
+        <v>13956</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" s="31">
@@ -8107,15 +9377,15 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="23" t="n">
-        <v>4825</v>
+      <c r="E13" s="34" t="n">
+        <v>4826</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" s="31">
@@ -8125,14 +9395,14 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="23" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D14" s="34" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="34" t="n">
         <v>2.89</v>
       </c>
     </row>
@@ -8143,15 +9413,15 @@
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D15" s="34" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="23" t="n">
-        <v>10131</v>
+      <c r="E15" s="34" t="n">
+        <v>10134</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="31">
@@ -8163,13 +9433,13 @@
       <c r="B16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="23" t="inlineStr">
+      <c r="D16" s="34" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="23" t="n">
-        <v>2632</v>
+      <c r="E16" s="34" t="n">
+        <v>2633</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" s="31">
@@ -8179,14 +9449,14 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D17" s="34" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="23" t="n">
+      <c r="E17" s="34" t="n">
         <v>3.85</v>
       </c>
     </row>
@@ -8232,7 +9502,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D21" s="23" t="inlineStr">
         <is>
@@ -8250,7 +9520,7 @@
         </is>
       </c>
       <c r="B22" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="23" t="inlineStr">
         <is>
@@ -8268,7 +9538,7 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D23" s="23" t="inlineStr">
         <is>
@@ -8286,7 +9556,7 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="23" t="inlineStr">
         <is>
@@ -8304,7 +9574,7 @@
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="23" t="inlineStr">
         <is>
@@ -8322,7 +9592,7 @@
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="23" t="inlineStr">
         <is>
@@ -8375,7 +9645,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D30" s="23" t="inlineStr">
         <is>
@@ -8393,7 +9663,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="23" t="inlineStr">
         <is>
@@ -8411,7 +9681,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D32" s="23" t="inlineStr">
         <is>
@@ -8429,7 +9699,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D33" s="23" t="inlineStr">
         <is>
@@ -8447,7 +9717,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="23" t="inlineStr">
         <is>
@@ -8465,7 +9735,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D35" s="23" t="inlineStr">
         <is>
@@ -8508,7 +9778,10 @@
         </is>
       </c>
       <c r="B39" s="5" t="n">
-        <v>13944</v>
+        <v>13959</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1366770</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="31">
@@ -8518,7 +9791,10 @@
         </is>
       </c>
       <c r="B40" s="5" t="n">
-        <v>4825</v>
+        <v>4827</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1070</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="31">
@@ -8538,7 +9814,7 @@
         </is>
       </c>
       <c r="B42" s="5" t="n">
-        <v>10131</v>
+        <v>10137</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="31">
@@ -8548,7 +9824,7 @@
         </is>
       </c>
       <c r="B43" s="5" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="31">
@@ -8632,7 +9908,9 @@
           <t>Kills</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n"/>
+      <c r="B3" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" s="23" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -8648,7 +9926,9 @@
           <t>Deaths</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n"/>
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" s="23" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -8664,7 +9944,9 @@
           <t>K/D</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n"/>
+      <c r="B5" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" s="23" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8680,7 +9962,9 @@
           <t>Wins</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n"/>
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" s="23" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8696,7 +9980,9 @@
           <t>Losses</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
+      <c r="B7" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8712,7 +9998,9 @@
           <t>W/L</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n"/>
+      <c r="B8" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" s="23" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8746,12 +10034,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="18" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -8766,12 +10054,12 @@
       <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="23" t="inlineStr">
+      <c r="D12" s="34" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="23" t="n">
+      <c r="E12" s="34" t="n">
         <v>16300</v>
       </c>
     </row>
@@ -8784,12 +10072,12 @@
       <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="23" t="inlineStr">
+      <c r="D13" s="34" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="23" t="n">
+      <c r="E13" s="34" t="n">
         <v>4349</v>
       </c>
     </row>
@@ -8802,12 +10090,12 @@
       <c r="B14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="23" t="inlineStr">
+      <c r="D14" s="34" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="34" t="n">
         <v>3.75</v>
       </c>
     </row>
@@ -8820,12 +10108,12 @@
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="23" t="inlineStr">
+      <c r="D15" s="34" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="23" t="n">
+      <c r="E15" s="34" t="n">
         <v>7947</v>
       </c>
     </row>
@@ -8838,12 +10126,12 @@
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="23" t="inlineStr">
+      <c r="D16" s="34" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="23" t="n">
+      <c r="E16" s="34" t="n">
         <v>2847</v>
       </c>
     </row>
@@ -8856,12 +10144,12 @@
       <c r="B17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="23" t="inlineStr">
+      <c r="D17" s="34" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="23" t="n">
+      <c r="E17" s="34" t="n">
         <v>2.79</v>
       </c>
     </row>
@@ -9185,6 +10473,9 @@
       <c r="B39" s="7" t="n">
         <v>16300</v>
       </c>
+      <c r="D39" t="n">
+        <v>68465</v>
+      </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="31">
       <c r="A40" s="5" t="inlineStr">
@@ -9194,6 +10485,9 @@
       </c>
       <c r="B40" s="7" t="n">
         <v>4349</v>
+      </c>
+      <c r="D40" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="31">
@@ -9435,12 +10729,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="19" t="inlineStr">
+      <c r="E11" s="35" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -9455,12 +10749,12 @@
       <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="23" t="inlineStr">
+      <c r="D12" s="34" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="39" t="n">
         <v>25345</v>
       </c>
     </row>
@@ -9473,12 +10767,12 @@
       <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="23" t="inlineStr">
+      <c r="D13" s="34" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="39" t="n">
         <v>8444</v>
       </c>
     </row>
@@ -9491,12 +10785,12 @@
       <c r="B14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="23" t="inlineStr">
+      <c r="D14" s="34" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9509,12 +10803,12 @@
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="23" t="inlineStr">
+      <c r="D15" s="34" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="39" t="n">
         <v>11164</v>
       </c>
     </row>
@@ -9527,12 +10821,12 @@
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="23" t="inlineStr">
+      <c r="D16" s="34" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="39" t="n">
         <v>5928</v>
       </c>
     </row>
@@ -9545,12 +10839,12 @@
       <c r="B17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="23" t="inlineStr">
+      <c r="D17" s="34" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="39" t="n">
         <v>1.88</v>
       </c>
     </row>
@@ -9874,6 +11168,9 @@
       <c r="B39" s="7" t="n">
         <v>25345</v>
       </c>
+      <c r="D39" t="n">
+        <v>148543</v>
+      </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="31">
       <c r="A40" s="5" t="inlineStr">
@@ -9883,6 +11180,9 @@
       </c>
       <c r="B40" s="7" t="n">
         <v>8444</v>
+      </c>
+      <c r="D40" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="31">
@@ -10109,12 +11409,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="18" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -10129,12 +11429,12 @@
       <c r="B12" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="23" t="inlineStr">
+      <c r="D12" s="34" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="23" t="n">
+      <c r="E12" s="34" t="n">
         <v>4055</v>
       </c>
     </row>
@@ -10147,12 +11447,12 @@
       <c r="B13" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="23" t="inlineStr">
+      <c r="D13" s="34" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="23" t="n">
+      <c r="E13" s="34" t="n">
         <v>3392</v>
       </c>
     </row>
@@ -10165,12 +11465,12 @@
       <c r="B14" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="23" t="inlineStr">
+      <c r="D14" s="34" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="34" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -10183,12 +11483,12 @@
       <c r="B15" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="23" t="inlineStr">
+      <c r="D15" s="34" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="23" t="n">
+      <c r="E15" s="34" t="n">
         <v>3723</v>
       </c>
     </row>
@@ -10201,12 +11501,12 @@
       <c r="B16" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="23" t="inlineStr">
+      <c r="D16" s="34" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="23" t="n">
+      <c r="E16" s="34" t="n">
         <v>1976</v>
       </c>
     </row>
@@ -10219,12 +11519,12 @@
       <c r="B17" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="23" t="inlineStr">
+      <c r="D17" s="34" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="23" t="n">
+      <c r="E17" s="34" t="n">
         <v>1.88</v>
       </c>
     </row>
@@ -10530,6 +11830,9 @@
       <c r="B39" s="23" t="n">
         <v>4055</v>
       </c>
+      <c r="D39" t="n">
+        <v>137699</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="inlineStr">
@@ -10540,6 +11843,9 @@
       <c r="B40" s="23" t="n">
         <v>3392</v>
       </c>
+      <c r="D40" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="inlineStr">
@@ -10579,6 +11885,669 @@
       </c>
       <c r="B44" s="23" t="n">
         <v>1.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="31" min="1" max="1"/>
+    <col width="15" customWidth="1" style="31" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="32" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="33" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="33" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="34" t="n">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="34" t="n">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="34" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="34" t="n">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="34" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="34" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="33" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="34" t="n">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="34" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="34" t="n">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="34" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="34" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="32" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="33" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="33" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="34" t="n">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="34" t="n">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="34" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="34" t="n">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="34" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="34" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="32" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="33" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="33" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="34" t="n">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="34" t="n">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="34" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="34" t="n">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="34" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="34" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="32" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="33" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="33" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="34" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="34" t="n">
+        <v>5815</v>
+      </c>
+      <c r="D39" t="n">
+        <v>139841</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="34" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="34" t="n">
+        <v>1961</v>
+      </c>
+      <c r="D40" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="34" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="34" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="34" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="34" t="n">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="34" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="34" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="34" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="34" t="n">
+        <v>2.51</v>
       </c>
     </row>
   </sheetData>

--- a/sheep_wars_stats.xlsx
+++ b/sheep_wars_stats.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7065,6 +7065,96 @@
       </c>
       <c r="H210" t="n">
         <v>2.42</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:37:34</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>one4kat</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>4055</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3392</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3723</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1976</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:37:55</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Hamster318</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>4752</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2971</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2930</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2324</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:38:04</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Qrsn</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>16300</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4349</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7947</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2847</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2.79</v>
       </c>
     </row>
   </sheetData>
@@ -8407,7 +8497,7 @@
         <v>2971</v>
       </c>
       <c r="D40" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="31">
@@ -10487,7 +10577,7 @@
         <v>4349</v>
       </c>
       <c r="D40" t="n">
-        <v>155</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="31">
@@ -11844,7 +11934,7 @@
         <v>3392</v>
       </c>
       <c r="D40" t="n">
-        <v>279</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">

--- a/sheep_wars_stats.xlsx
+++ b/sheep_wars_stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="1" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheep Wars historical data" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Pogdude69" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="one4kat" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="aurxraaa" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="TNTcoins" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -24,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -74,6 +75,17 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
@@ -81,7 +93,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -112,6 +124,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="004472C4"/>
         <bgColor rgb="004472C4"/>
       </patternFill>
@@ -123,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -238,6 +262,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -267,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -340,6 +379,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -355,25 +415,16 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +792,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,13 +800,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="17.81640625" bestFit="1" customWidth="1" style="31" min="1" max="1"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="2" max="2"/>
+    <col width="17.81640625" bestFit="1" customWidth="1" style="38" min="1" max="1"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="2" max="2"/>
     <col width="12.453125" bestFit="1" customWidth="1" style="14" min="3" max="7"/>
     <col width="12.453125" bestFit="1" customWidth="1" style="15" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="31">
+    <row r="1" ht="17.25" customHeight="1" s="38">
       <c r="A1" t="inlineStr">
         <is>
           <t>Date/Time</t>
@@ -797,7 +848,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1" s="31">
+    <row r="2" ht="17.25" customHeight="1" s="38">
       <c r="A2" t="inlineStr">
         <is>
           <t>2025-12-17 15:26:26</t>
@@ -827,7 +878,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="31">
+    <row r="3" ht="17.25" customHeight="1" s="38">
       <c r="A3" t="inlineStr">
         <is>
           <t>2025-12-17 15:40:42</t>
@@ -857,7 +908,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="31">
+    <row r="4" ht="17.25" customHeight="1" s="38">
       <c r="A4" t="inlineStr">
         <is>
           <t>2025-12-17 15:41:53</t>
@@ -887,7 +938,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="31">
+    <row r="5" ht="17.25" customHeight="1" s="38">
       <c r="A5" t="inlineStr">
         <is>
           <t>2025-12-17 15:51:02</t>
@@ -917,7 +968,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="31">
+    <row r="6" ht="17.25" customHeight="1" s="38">
       <c r="A6" t="inlineStr">
         <is>
           <t>2025-12-17 15:57:43</t>
@@ -947,7 +998,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1" s="31">
+    <row r="7" ht="17.25" customHeight="1" s="38">
       <c r="A7" t="inlineStr">
         <is>
           <t>2025-12-17 16:00:30</t>
@@ -977,7 +1028,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="31">
+    <row r="8" ht="17.25" customHeight="1" s="38">
       <c r="A8" t="inlineStr">
         <is>
           <t>2025-12-17 16:01:38</t>
@@ -1007,7 +1058,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="31">
+    <row r="9" ht="17.25" customHeight="1" s="38">
       <c r="A9" t="inlineStr">
         <is>
           <t>2025-12-17 16:03:31</t>
@@ -1037,7 +1088,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="10" ht="17.25" customHeight="1" s="31">
+    <row r="10" ht="17.25" customHeight="1" s="38">
       <c r="A10" t="inlineStr">
         <is>
           <t>2025-12-17 16:05:14</t>
@@ -1067,7 +1118,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="11" ht="17.25" customHeight="1" s="31">
+    <row r="11" ht="17.25" customHeight="1" s="38">
       <c r="A11" t="inlineStr">
         <is>
           <t>2025-12-17 16:17:02</t>
@@ -1097,7 +1148,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1" s="31">
+    <row r="12" ht="17.25" customHeight="1" s="38">
       <c r="A12" t="inlineStr">
         <is>
           <t>2025-12-17 16:29:59</t>
@@ -1127,7 +1178,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1" s="31">
+    <row r="13" ht="17.25" customHeight="1" s="38">
       <c r="A13" t="inlineStr">
         <is>
           <t>2025-12-17 16:32:02</t>
@@ -1157,7 +1208,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="31">
+    <row r="14" ht="17.25" customHeight="1" s="38">
       <c r="A14" t="inlineStr">
         <is>
           <t>2025-12-17 16:33:25</t>
@@ -1187,7 +1238,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1" s="31">
+    <row r="15" ht="17.25" customHeight="1" s="38">
       <c r="A15" t="inlineStr">
         <is>
           <t>2025-12-17 16:35:18</t>
@@ -1217,7 +1268,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" s="31">
+    <row r="16" ht="17.25" customHeight="1" s="38">
       <c r="A16" t="inlineStr">
         <is>
           <t>2025-12-17 16:41:34</t>
@@ -1247,7 +1298,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" s="31">
+    <row r="17" ht="17.25" customHeight="1" s="38">
       <c r="A17" t="inlineStr">
         <is>
           <t>2025-12-17 16:47:03</t>
@@ -1277,7 +1328,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" s="31">
+    <row r="18" ht="17.25" customHeight="1" s="38">
       <c r="A18" t="inlineStr">
         <is>
           <t>2025-12-17 16:47:37</t>
@@ -1307,7 +1358,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="19" ht="17.25" customHeight="1" s="31">
+    <row r="19" ht="17.25" customHeight="1" s="38">
       <c r="A19" t="inlineStr">
         <is>
           <t>2025-12-17 16:48:12</t>
@@ -1337,7 +1388,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="20" ht="17.25" customHeight="1" s="31">
+    <row r="20" ht="17.25" customHeight="1" s="38">
       <c r="A20" t="inlineStr">
         <is>
           <t>2025-12-17 16:48:55</t>
@@ -1367,7 +1418,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="21" ht="17.25" customHeight="1" s="31">
+    <row r="21" ht="17.25" customHeight="1" s="38">
       <c r="A21" t="inlineStr">
         <is>
           <t>2025-12-17 16:49:06</t>
@@ -1397,7 +1448,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="22" ht="17.25" customHeight="1" s="31">
+    <row r="22" ht="17.25" customHeight="1" s="38">
       <c r="A22" t="inlineStr">
         <is>
           <t>2025-12-17 16:50:18</t>
@@ -1427,7 +1478,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1" s="31">
+    <row r="23" ht="17.25" customHeight="1" s="38">
       <c r="A23" t="inlineStr">
         <is>
           <t>2025-12-17 16:52:48</t>
@@ -1457,7 +1508,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1" s="31">
+    <row r="24" ht="17.25" customHeight="1" s="38">
       <c r="A24" t="inlineStr">
         <is>
           <t>2025-12-17 16:56:13</t>
@@ -1487,7 +1538,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="25" ht="17.25" customHeight="1" s="31">
+    <row r="25" ht="17.25" customHeight="1" s="38">
       <c r="A25" t="inlineStr">
         <is>
           <t>2025-12-17 21:59:23</t>
@@ -1517,7 +1568,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="26" ht="17.25" customHeight="1" s="31">
+    <row r="26" ht="17.25" customHeight="1" s="38">
       <c r="A26" t="inlineStr">
         <is>
           <t>2025-12-17 22:16:28</t>
@@ -1547,7 +1598,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="27" ht="17.25" customHeight="1" s="31">
+    <row r="27" ht="17.25" customHeight="1" s="38">
       <c r="A27" t="inlineStr">
         <is>
           <t>2025-12-17 22:19:11</t>
@@ -1577,7 +1628,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="28" ht="17.25" customHeight="1" s="31">
+    <row r="28" ht="17.25" customHeight="1" s="38">
       <c r="A28" t="inlineStr">
         <is>
           <t>2025-12-17 22:20:06</t>
@@ -1607,7 +1658,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="29" ht="17.25" customHeight="1" s="31">
+    <row r="29" ht="17.25" customHeight="1" s="38">
       <c r="A29" t="inlineStr">
         <is>
           <t>2025-12-17 22:26:51</t>
@@ -1637,7 +1688,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="30" ht="17.25" customHeight="1" s="31">
+    <row r="30" ht="17.25" customHeight="1" s="38">
       <c r="A30" t="inlineStr">
         <is>
           <t>2025-12-17 22:33:20</t>
@@ -1667,7 +1718,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="31" ht="17.25" customHeight="1" s="31">
+    <row r="31" ht="17.25" customHeight="1" s="38">
       <c r="A31" t="inlineStr">
         <is>
           <t>2025-12-17 22:35:29</t>
@@ -1697,7 +1748,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="32" ht="17.25" customHeight="1" s="31">
+    <row r="32" ht="17.25" customHeight="1" s="38">
       <c r="A32" t="inlineStr">
         <is>
           <t>2025-12-17 22:36:58</t>
@@ -1727,7 +1778,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1" s="31">
+    <row r="33" ht="17.25" customHeight="1" s="38">
       <c r="A33" t="inlineStr">
         <is>
           <t>2025-12-17 22:38:58</t>
@@ -1757,7 +1808,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="34" ht="17.25" customHeight="1" s="31">
+    <row r="34" ht="17.25" customHeight="1" s="38">
       <c r="A34" t="inlineStr">
         <is>
           <t>2025-12-17 22:42:33</t>
@@ -1787,7 +1838,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1" s="31">
+    <row r="35" ht="17.25" customHeight="1" s="38">
       <c r="A35" t="inlineStr">
         <is>
           <t>2025-12-17 22:46:20</t>
@@ -1817,7 +1868,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="36" ht="17.25" customHeight="1" s="31">
+    <row r="36" ht="17.25" customHeight="1" s="38">
       <c r="A36" t="inlineStr">
         <is>
           <t>2025-12-17 22:49:49</t>
@@ -1847,7 +1898,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="37" ht="17.25" customHeight="1" s="31">
+    <row r="37" ht="17.25" customHeight="1" s="38">
       <c r="A37" t="inlineStr">
         <is>
           <t>2025-12-17 23:07:51</t>
@@ -1877,7 +1928,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="38" ht="17.25" customHeight="1" s="31">
+    <row r="38" ht="17.25" customHeight="1" s="38">
       <c r="A38" t="inlineStr">
         <is>
           <t>2025-12-17 23:10:23</t>
@@ -1907,7 +1958,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="39" ht="17.25" customHeight="1" s="31">
+    <row r="39" ht="17.25" customHeight="1" s="38">
       <c r="A39" t="inlineStr">
         <is>
           <t>2025-12-17 23:12:37</t>
@@ -1937,7 +1988,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="40" ht="17.25" customHeight="1" s="31">
+    <row r="40" ht="17.25" customHeight="1" s="38">
       <c r="A40" t="inlineStr">
         <is>
           <t>2025-12-17 23:31:04</t>
@@ -1967,7 +2018,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="41" ht="17.25" customHeight="1" s="31">
+    <row r="41" ht="17.25" customHeight="1" s="38">
       <c r="A41" t="inlineStr">
         <is>
           <t>2025-12-17 23:31:07</t>
@@ -1997,7 +2048,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="42" ht="17.25" customHeight="1" s="31">
+    <row r="42" ht="17.25" customHeight="1" s="38">
       <c r="A42" t="inlineStr">
         <is>
           <t>2025-12-17 23:32:20</t>
@@ -2027,7 +2078,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="43" ht="17.25" customHeight="1" s="31">
+    <row r="43" ht="17.25" customHeight="1" s="38">
       <c r="A43" t="inlineStr">
         <is>
           <t>2025-12-17 23:34:35</t>
@@ -2057,7 +2108,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="44" ht="17.25" customHeight="1" s="31">
+    <row r="44" ht="17.25" customHeight="1" s="38">
       <c r="A44" t="inlineStr">
         <is>
           <t>2025-12-17 23:35:22</t>
@@ -2087,7 +2138,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="45" ht="17.25" customHeight="1" s="31">
+    <row r="45" ht="17.25" customHeight="1" s="38">
       <c r="A45" t="inlineStr">
         <is>
           <t>2025-12-17 23:36:33</t>
@@ -2117,7 +2168,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="46" ht="17.25" customHeight="1" s="31">
+    <row r="46" ht="17.25" customHeight="1" s="38">
       <c r="A46" t="inlineStr">
         <is>
           <t>2025-12-17 23:38:37</t>
@@ -2147,7 +2198,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="47" ht="17.25" customHeight="1" s="31">
+    <row r="47" ht="17.25" customHeight="1" s="38">
       <c r="A47" t="inlineStr">
         <is>
           <t>2025-12-17 23:49:24</t>
@@ -2177,7 +2228,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="48" ht="17.25" customHeight="1" s="31">
+    <row r="48" ht="17.25" customHeight="1" s="38">
       <c r="A48" t="inlineStr">
         <is>
           <t>2025-12-17 23:49:27</t>
@@ -2207,7 +2258,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="49" ht="17.25" customHeight="1" s="31">
+    <row r="49" ht="17.25" customHeight="1" s="38">
       <c r="A49" t="inlineStr">
         <is>
           <t>2025-12-17 23:49:30</t>
@@ -2237,7 +2288,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="50" ht="17.25" customHeight="1" s="31">
+    <row r="50" ht="17.25" customHeight="1" s="38">
       <c r="A50" t="inlineStr">
         <is>
           <t>2025-12-17 23:56:13</t>
@@ -2267,7 +2318,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="51" ht="17.25" customHeight="1" s="31">
+    <row r="51" ht="17.25" customHeight="1" s="38">
       <c r="A51" t="inlineStr">
         <is>
           <t>2025-12-17 23:56:16</t>
@@ -2297,7 +2348,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="52" ht="17.25" customHeight="1" s="31">
+    <row r="52" ht="17.25" customHeight="1" s="38">
       <c r="A52" t="inlineStr">
         <is>
           <t>2025-12-17 23:56:21</t>
@@ -2327,7 +2378,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="53" ht="17.25" customHeight="1" s="31">
+    <row r="53" ht="17.25" customHeight="1" s="38">
       <c r="A53" t="inlineStr">
         <is>
           <t>2025-12-18 00:03:24</t>
@@ -2357,7 +2408,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="54" ht="17.25" customHeight="1" s="31">
+    <row r="54" ht="17.25" customHeight="1" s="38">
       <c r="A54" t="inlineStr">
         <is>
           <t>2025-12-18 00:03:27</t>
@@ -2387,7 +2438,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="55" ht="17.25" customHeight="1" s="31">
+    <row r="55" ht="17.25" customHeight="1" s="38">
       <c r="A55" t="inlineStr">
         <is>
           <t>2025-12-18 00:03:30</t>
@@ -2417,7 +2468,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="56" ht="17.25" customHeight="1" s="31">
+    <row r="56" ht="17.25" customHeight="1" s="38">
       <c r="A56" t="inlineStr">
         <is>
           <t>2025-12-18 00:05:01</t>
@@ -2447,7 +2498,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="57" ht="17.25" customHeight="1" s="31">
+    <row r="57" ht="17.25" customHeight="1" s="38">
       <c r="A57" t="inlineStr">
         <is>
           <t>2025-12-18 00:10:38</t>
@@ -2477,7 +2528,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="58" ht="17.25" customHeight="1" s="31">
+    <row r="58" ht="17.25" customHeight="1" s="38">
       <c r="A58" t="inlineStr">
         <is>
           <t>2025-12-18 00:52:02</t>
@@ -2507,7 +2558,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="59" ht="17.25" customHeight="1" s="31">
+    <row r="59" ht="17.25" customHeight="1" s="38">
       <c r="A59" t="inlineStr">
         <is>
           <t>2025-12-18 00:54:13</t>
@@ -2537,7 +2588,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="60" ht="17.25" customHeight="1" s="31">
+    <row r="60" ht="17.25" customHeight="1" s="38">
       <c r="A60" t="inlineStr">
         <is>
           <t>2025-12-18 00:55:15</t>
@@ -2567,7 +2618,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="61" ht="17.25" customHeight="1" s="31">
+    <row r="61" ht="17.25" customHeight="1" s="38">
       <c r="A61" t="inlineStr">
         <is>
           <t>2025-12-18 00:55:55</t>
@@ -2597,7 +2648,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="62" ht="17.25" customHeight="1" s="31">
+    <row r="62" ht="17.25" customHeight="1" s="38">
       <c r="A62" t="inlineStr">
         <is>
           <t>2025-12-18 02:16:50</t>
@@ -2627,7 +2678,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="63" ht="17.25" customHeight="1" s="31">
+    <row r="63" ht="17.25" customHeight="1" s="38">
       <c r="A63" t="inlineStr">
         <is>
           <t>2025-12-18 02:17:42</t>
@@ -2657,7 +2708,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="64" ht="17.25" customHeight="1" s="31">
+    <row r="64" ht="17.25" customHeight="1" s="38">
       <c r="A64" t="inlineStr">
         <is>
           <t>2025-12-18 02:18:42</t>
@@ -2687,7 +2738,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="65" ht="17.25" customHeight="1" s="31">
+    <row r="65" ht="17.25" customHeight="1" s="38">
       <c r="A65" t="inlineStr">
         <is>
           <t>2025-12-18 02:24:44</t>
@@ -7157,8 +7208,1601 @@
         <v>2.79</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:03:23</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>48504</v>
+      </c>
+      <c r="D214" t="n">
+        <v>9786</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F214" t="n">
+        <v>26672</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H214" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:26:58</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>48507</v>
+      </c>
+      <c r="D215" t="n">
+        <v>9786</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F215" t="n">
+        <v>26673</v>
+      </c>
+      <c r="G215" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:27:06</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>48507</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9786</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F216" t="n">
+        <v>26673</v>
+      </c>
+      <c r="G216" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H216" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:27:20</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>48507</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9786</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F217" t="n">
+        <v>26673</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H217" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:27:48</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>48508</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9786</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F218" t="n">
+        <v>26674</v>
+      </c>
+      <c r="G218" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H218" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:28:13</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>48508</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9786</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F219" t="n">
+        <v>26674</v>
+      </c>
+      <c r="G219" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H219" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:28:32</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>48508</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9786</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F220" t="n">
+        <v>26674</v>
+      </c>
+      <c r="G220" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H220" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:40:19</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>48514</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F221" t="n">
+        <v>26679</v>
+      </c>
+      <c r="G221" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H221" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:52:35</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>48521</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F222" t="n">
+        <v>26687</v>
+      </c>
+      <c r="G222" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H222" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-12-18 13:59:10</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>48525</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F223" t="n">
+        <v>26690</v>
+      </c>
+      <c r="G223" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H223" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:01:59</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>48526</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F224" t="n">
+        <v>26692</v>
+      </c>
+      <c r="G224" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H224" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:02:02</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>48526</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F225" t="n">
+        <v>26692</v>
+      </c>
+      <c r="G225" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H225" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:02:15</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>48526</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F226" t="n">
+        <v>26692</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H226" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:05:52</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>48526</v>
+      </c>
+      <c r="D227" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26694</v>
+      </c>
+      <c r="G227" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:11:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>48526</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26695</v>
+      </c>
+      <c r="G228" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H228" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:11:12</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>48526</v>
+      </c>
+      <c r="D229" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26695</v>
+      </c>
+      <c r="G229" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H229" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:14:04</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>48528</v>
+      </c>
+      <c r="D230" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26697</v>
+      </c>
+      <c r="G230" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H230" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:14:39</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>jthalotime</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>924</v>
+      </c>
+      <c r="D231" t="n">
+        <v>784</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F231" t="n">
+        <v>984</v>
+      </c>
+      <c r="G231" t="n">
+        <v>408</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:15:14</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>13979</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4836</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F232" t="n">
+        <v>10161</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2637</v>
+      </c>
+      <c r="H232" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:19:08</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>13979</v>
+      </c>
+      <c r="D233" t="n">
+        <v>4837</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F233" t="n">
+        <v>10162</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2638</v>
+      </c>
+      <c r="H233" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:20:52</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>48528</v>
+      </c>
+      <c r="D234" t="n">
+        <v>9789</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F234" t="n">
+        <v>26699</v>
+      </c>
+      <c r="G234" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H234" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:21:08</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>25361</v>
+      </c>
+      <c r="D235" t="n">
+        <v>8448</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>11173</v>
+      </c>
+      <c r="G235" t="n">
+        <v>5931</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:24:47</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>48529</v>
+      </c>
+      <c r="D236" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F236" t="n">
+        <v>26701</v>
+      </c>
+      <c r="G236" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H236" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:25:45</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>qrsn</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>16323</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4354</v>
+      </c>
+      <c r="E237" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7965</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2850</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:28:45</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>25367</v>
+      </c>
+      <c r="D238" t="n">
+        <v>8449</v>
+      </c>
+      <c r="E238" t="n">
+        <v>3</v>
+      </c>
+      <c r="F238" t="n">
+        <v>11175</v>
+      </c>
+      <c r="G238" t="n">
+        <v>5932</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:33:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Chuckegg</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>35842</v>
+      </c>
+      <c r="D239" t="n">
+        <v>9910</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F239" t="n">
+        <v>18435</v>
+      </c>
+      <c r="G239" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H239" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:33:43</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Chuckegg</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>35842</v>
+      </c>
+      <c r="D240" t="n">
+        <v>9910</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F240" t="n">
+        <v>18435</v>
+      </c>
+      <c r="G240" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H240" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:34:12</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>13982</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4838</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F241" t="n">
+        <v>10167</v>
+      </c>
+      <c r="G241" t="n">
+        <v>2639</v>
+      </c>
+      <c r="H241" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:34:14</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>lxna_</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>13982</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4838</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F242" t="n">
+        <v>10167</v>
+      </c>
+      <c r="G242" t="n">
+        <v>2639</v>
+      </c>
+      <c r="H242" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:34:42</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>13982</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4838</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F243" t="n">
+        <v>10167</v>
+      </c>
+      <c r="G243" t="n">
+        <v>2639</v>
+      </c>
+      <c r="H243" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-12-18 14:37:19</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>25371</v>
+      </c>
+      <c r="D244" t="n">
+        <v>8449</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3</v>
+      </c>
+      <c r="F244" t="n">
+        <v>11177</v>
+      </c>
+      <c r="G244" t="n">
+        <v>5932</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>48526</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>9787</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>26692</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>48526</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>9787</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>26692</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>48526</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>9787</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>26692</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>48526</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>9787</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>26692</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>48529</v>
+      </c>
+      <c r="D39" t="n">
+        <v>193728</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>9790</v>
+      </c>
+      <c r="D40" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>26701</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7170,7 +8814,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -7178,24 +8822,24 @@
   <cols>
     <col width="15" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
     <col width="15" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="3" max="4"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="3" max="4"/>
     <col width="12.453125" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="6" max="6"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="31">
-      <c r="A1" s="26" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="38">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Session Stats</t>
         </is>
       </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="27" t="n"/>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="28" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="31">
+      <c r="B1" s="34" t="n"/>
+      <c r="C1" s="34" t="n"/>
+      <c r="D1" s="34" t="n"/>
+      <c r="E1" s="34" t="n"/>
+      <c r="F1" s="35" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="38">
       <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -7217,7 +8861,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="31">
+    <row r="3" ht="17.25" customHeight="1" s="38">
       <c r="A3" s="11" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -7235,7 +8879,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="31">
+    <row r="4" ht="17.25" customHeight="1" s="38">
       <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -7253,7 +8897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="31">
+    <row r="5" ht="17.25" customHeight="1" s="38">
       <c r="A5" s="11" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -7271,7 +8915,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="31">
+    <row r="6" ht="17.25" customHeight="1" s="38">
       <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -7289,7 +8933,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1" s="31">
+    <row r="7" ht="17.25" customHeight="1" s="38">
       <c r="A7" s="11" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -7307,7 +8951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="31">
+    <row r="8" ht="17.25" customHeight="1" s="38">
       <c r="A8" s="11" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -7325,20 +8969,20 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="31"/>
-    <row r="10" ht="17.25" customHeight="1" s="31">
-      <c r="A10" s="26" t="inlineStr">
+    <row r="9" ht="17.25" customHeight="1" s="38"/>
+    <row r="10" ht="17.25" customHeight="1" s="38">
+      <c r="A10" s="33" t="inlineStr">
         <is>
           <t>Daily Stats</t>
         </is>
       </c>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" s="31">
+      <c r="B10" s="34" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="34" t="n"/>
+      <c r="F10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" s="38">
       <c r="A11" s="9" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -7349,18 +8993,18 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E11" s="28" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1" s="31">
+    <row r="12" ht="17.25" customHeight="1" s="38">
       <c r="A12" s="11" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -7369,16 +9013,16 @@
       <c r="B12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="36" t="inlineStr">
+      <c r="D12" s="29" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="37" t="n">
+      <c r="E12" s="30" t="n">
         <v>4893</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1" s="31">
+    <row r="13" ht="17.25" customHeight="1" s="38">
       <c r="A13" s="11" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -7387,16 +9031,16 @@
       <c r="B13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="36" t="inlineStr">
+      <c r="D13" s="29" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="37" t="n">
+      <c r="E13" s="30" t="n">
         <v>780</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="31">
+    <row r="14" ht="17.25" customHeight="1" s="38">
       <c r="A14" s="11" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -7405,16 +9049,16 @@
       <c r="B14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="inlineStr">
+      <c r="D14" s="29" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="38" t="n">
+      <c r="E14" s="31" t="n">
         <v>6.27</v>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1" s="31">
+    <row r="15" ht="17.25" customHeight="1" s="38">
       <c r="A15" s="11" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -7423,16 +9067,16 @@
       <c r="B15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="36" t="inlineStr">
+      <c r="D15" s="29" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="37" t="n">
+      <c r="E15" s="30" t="n">
         <v>2473</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" s="31">
+    <row r="16" ht="17.25" customHeight="1" s="38">
       <c r="A16" s="11" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -7441,16 +9085,16 @@
       <c r="B16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="36" t="inlineStr">
+      <c r="D16" s="29" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="37" t="n">
+      <c r="E16" s="30" t="n">
         <v>414</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" s="31">
+    <row r="17" ht="17.25" customHeight="1" s="38">
       <c r="A17" s="11" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -7459,29 +9103,29 @@
       <c r="B17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="36" t="inlineStr">
+      <c r="D17" s="29" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="38" t="n">
+      <c r="E17" s="31" t="n">
         <v>5.97</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" s="31"/>
-    <row r="19" ht="17.25" customHeight="1" s="31">
-      <c r="A19" s="26" t="inlineStr">
+    <row r="18" ht="17.25" customHeight="1" s="38"/>
+    <row r="19" ht="17.25" customHeight="1" s="38">
+      <c r="A19" s="33" t="inlineStr">
         <is>
           <t>Weekly Stats</t>
         </is>
       </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="28" t="n"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" s="31">
+      <c r="B19" s="34" t="n"/>
+      <c r="C19" s="34" t="n"/>
+      <c r="D19" s="34" t="n"/>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="35" t="n"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" s="38">
       <c r="A20" s="9" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -7503,7 +9147,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="17.25" customHeight="1" s="31">
+    <row r="21" ht="17.25" customHeight="1" s="38">
       <c r="A21" s="11" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -7521,7 +9165,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="22" ht="17.25" customHeight="1" s="31">
+    <row r="22" ht="17.25" customHeight="1" s="38">
       <c r="A22" s="11" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -7539,7 +9183,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1" s="31">
+    <row r="23" ht="17.25" customHeight="1" s="38">
       <c r="A23" s="11" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -7557,7 +9201,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1" s="31">
+    <row r="24" ht="17.25" customHeight="1" s="38">
       <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -7575,7 +9219,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="25" ht="17.25" customHeight="1" s="31">
+    <row r="25" ht="17.25" customHeight="1" s="38">
       <c r="A25" s="11" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -7593,7 +9237,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" ht="17.25" customHeight="1" s="31">
+    <row r="26" ht="17.25" customHeight="1" s="38">
       <c r="A26" s="11" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -7611,20 +9255,20 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="27" ht="17.25" customHeight="1" s="31"/>
-    <row r="28" ht="17.25" customHeight="1" s="31">
-      <c r="A28" s="26" t="inlineStr">
+    <row r="27" ht="17.25" customHeight="1" s="38"/>
+    <row r="28" ht="17.25" customHeight="1" s="38">
+      <c r="A28" s="33" t="inlineStr">
         <is>
           <t>Monthly Stats</t>
         </is>
       </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1" s="31">
+      <c r="B28" s="34" t="n"/>
+      <c r="C28" s="34" t="n"/>
+      <c r="D28" s="34" t="n"/>
+      <c r="E28" s="34" t="n"/>
+      <c r="F28" s="35" t="n"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1" s="38">
       <c r="A29" s="9" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -7646,7 +9290,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="17.25" customHeight="1" s="31">
+    <row r="30" ht="17.25" customHeight="1" s="38">
       <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -7664,7 +9308,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="31" ht="17.25" customHeight="1" s="31">
+    <row r="31" ht="17.25" customHeight="1" s="38">
       <c r="A31" s="11" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -7682,7 +9326,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="32" ht="17.25" customHeight="1" s="31">
+    <row r="32" ht="17.25" customHeight="1" s="38">
       <c r="A32" s="11" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -7700,7 +9344,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1" s="31">
+    <row r="33" ht="17.25" customHeight="1" s="38">
       <c r="A33" s="11" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -7718,7 +9362,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="34" ht="17.25" customHeight="1" s="31">
+    <row r="34" ht="17.25" customHeight="1" s="38">
       <c r="A34" s="11" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -7736,7 +9380,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1" s="31">
+    <row r="35" ht="17.25" customHeight="1" s="38">
       <c r="A35" s="11" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -7754,20 +9398,20 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="36" ht="17.25" customHeight="1" s="31"/>
-    <row r="37" ht="17.25" customHeight="1" s="31">
-      <c r="A37" s="26" t="inlineStr">
+    <row r="36" ht="17.25" customHeight="1" s="38"/>
+    <row r="37" ht="17.25" customHeight="1" s="38">
+      <c r="A37" s="33" t="inlineStr">
         <is>
           <t>All-time Stats</t>
         </is>
       </c>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="28" t="n"/>
-    </row>
-    <row r="38" ht="17.25" customHeight="1" s="31">
+      <c r="B37" s="34" t="n"/>
+      <c r="C37" s="34" t="n"/>
+      <c r="D37" s="34" t="n"/>
+      <c r="E37" s="34" t="n"/>
+      <c r="F37" s="35" t="n"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1" s="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -7779,7 +9423,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="17.25" customHeight="1" s="31">
+    <row r="39" ht="17.25" customHeight="1" s="38">
       <c r="A39" s="11" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -7792,7 +9436,7 @@
         <v>48940</v>
       </c>
     </row>
-    <row r="40" ht="17.25" customHeight="1" s="31">
+    <row r="40" ht="17.25" customHeight="1" s="38">
       <c r="A40" s="11" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -7805,7 +9449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" ht="17.25" customHeight="1" s="31">
+    <row r="41" ht="17.25" customHeight="1" s="38">
       <c r="A41" s="11" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -7815,7 +9459,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="42" ht="17.25" customHeight="1" s="31">
+    <row r="42" ht="17.25" customHeight="1" s="38">
       <c r="A42" s="11" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -7825,7 +9469,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="43" ht="17.25" customHeight="1" s="31">
+    <row r="43" ht="17.25" customHeight="1" s="38">
       <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -7835,7 +9479,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="44" ht="17.25" customHeight="1" s="31">
+    <row r="44" ht="17.25" customHeight="1" s="38">
       <c r="A44" s="11" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -7873,24 +9517,24 @@
   <cols>
     <col width="15" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
     <col width="15" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="3" max="4"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="3" max="4"/>
     <col width="12.453125" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="6" max="6"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="31">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="38">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>Session Stats</t>
         </is>
       </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="27" t="n"/>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="28" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="31">
+      <c r="B1" s="34" t="n"/>
+      <c r="C1" s="34" t="n"/>
+      <c r="D1" s="34" t="n"/>
+      <c r="E1" s="34" t="n"/>
+      <c r="F1" s="35" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="38">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -7912,7 +9556,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="31">
+    <row r="3" ht="17.25" customHeight="1" s="38">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -7930,7 +9574,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="31">
+    <row r="4" ht="17.25" customHeight="1" s="38">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -7948,7 +9592,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="31">
+    <row r="5" ht="17.25" customHeight="1" s="38">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -7966,7 +9610,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="31">
+    <row r="6" ht="17.25" customHeight="1" s="38">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -7984,7 +9628,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1" s="31">
+    <row r="7" ht="17.25" customHeight="1" s="38">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8002,7 +9646,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="31">
+    <row r="8" ht="17.25" customHeight="1" s="38">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8020,20 +9664,20 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="31"/>
-    <row r="10" ht="17.25" customHeight="1" s="31">
-      <c r="A10" s="29" t="inlineStr">
+    <row r="9" ht="17.25" customHeight="1" s="38"/>
+    <row r="10" ht="17.25" customHeight="1" s="38">
+      <c r="A10" s="36" t="inlineStr">
         <is>
           <t>Daily Stats</t>
         </is>
       </c>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" s="31">
+      <c r="B10" s="34" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="34" t="n"/>
+      <c r="F10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" s="38">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -8044,18 +9688,18 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E11" s="28" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1" s="31">
+    <row r="12" ht="17.25" customHeight="1" s="38">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -8064,16 +9708,16 @@
       <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="34" t="inlineStr">
+      <c r="D12" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="39" t="n">
+      <c r="E12" s="32" t="n">
         <v>4752</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1" s="31">
+    <row r="13" ht="17.25" customHeight="1" s="38">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -8082,16 +9726,16 @@
       <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="34" t="inlineStr">
+      <c r="D13" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="39" t="n">
+      <c r="E13" s="32" t="n">
         <v>2971</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="31">
+    <row r="14" ht="17.25" customHeight="1" s="38">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8100,16 +9744,16 @@
       <c r="B14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="34" t="inlineStr">
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="39" t="n">
+      <c r="E14" s="32" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1" s="31">
+    <row r="15" ht="17.25" customHeight="1" s="38">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8118,16 +9762,16 @@
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="34" t="inlineStr">
+      <c r="D15" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="39" t="n">
+      <c r="E15" s="32" t="n">
         <v>2930</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" s="31">
+    <row r="16" ht="17.25" customHeight="1" s="38">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8136,16 +9780,16 @@
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="34" t="inlineStr">
+      <c r="D16" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="32" t="n">
         <v>2324</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" s="31">
+    <row r="17" ht="17.25" customHeight="1" s="38">
       <c r="A17" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8154,29 +9798,29 @@
       <c r="B17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="34" t="inlineStr">
+      <c r="D17" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="E17" s="32" t="n">
         <v>1.26</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" s="31"/>
-    <row r="19" ht="17.25" customHeight="1" s="31">
-      <c r="A19" s="29" t="inlineStr">
+    <row r="18" ht="17.25" customHeight="1" s="38"/>
+    <row r="19" ht="17.25" customHeight="1" s="38">
+      <c r="A19" s="36" t="inlineStr">
         <is>
           <t>Weekly Stats</t>
         </is>
       </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="28" t="n"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" s="31">
+      <c r="B19" s="34" t="n"/>
+      <c r="C19" s="34" t="n"/>
+      <c r="D19" s="34" t="n"/>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="35" t="n"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" s="38">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -8198,7 +9842,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="17.25" customHeight="1" s="31">
+    <row r="21" ht="17.25" customHeight="1" s="38">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -8216,7 +9860,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="22" ht="17.25" customHeight="1" s="31">
+    <row r="22" ht="17.25" customHeight="1" s="38">
       <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -8234,7 +9878,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1" s="31">
+    <row r="23" ht="17.25" customHeight="1" s="38">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8252,7 +9896,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1" s="31">
+    <row r="24" ht="17.25" customHeight="1" s="38">
       <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8270,7 +9914,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="25" ht="17.25" customHeight="1" s="31">
+    <row r="25" ht="17.25" customHeight="1" s="38">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8288,7 +9932,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="26" ht="17.25" customHeight="1" s="31">
+    <row r="26" ht="17.25" customHeight="1" s="38">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8306,20 +9950,20 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="27" ht="17.25" customHeight="1" s="31"/>
-    <row r="28" ht="17.25" customHeight="1" s="31">
-      <c r="A28" s="29" t="inlineStr">
+    <row r="27" ht="17.25" customHeight="1" s="38"/>
+    <row r="28" ht="17.25" customHeight="1" s="38">
+      <c r="A28" s="36" t="inlineStr">
         <is>
           <t>Monthly Stats</t>
         </is>
       </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1" s="31">
+      <c r="B28" s="34" t="n"/>
+      <c r="C28" s="34" t="n"/>
+      <c r="D28" s="34" t="n"/>
+      <c r="E28" s="34" t="n"/>
+      <c r="F28" s="35" t="n"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1" s="38">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -8341,7 +9985,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="17.25" customHeight="1" s="31">
+    <row r="30" ht="17.25" customHeight="1" s="38">
       <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -8359,7 +10003,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="31" ht="17.25" customHeight="1" s="31">
+    <row r="31" ht="17.25" customHeight="1" s="38">
       <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -8377,7 +10021,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="32" ht="17.25" customHeight="1" s="31">
+    <row r="32" ht="17.25" customHeight="1" s="38">
       <c r="A32" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8395,7 +10039,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1" s="31">
+    <row r="33" ht="17.25" customHeight="1" s="38">
       <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8413,7 +10057,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="34" ht="17.25" customHeight="1" s="31">
+    <row r="34" ht="17.25" customHeight="1" s="38">
       <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8431,7 +10075,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1" s="31">
+    <row r="35" ht="17.25" customHeight="1" s="38">
       <c r="A35" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8449,20 +10093,20 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="36" ht="17.25" customHeight="1" s="31"/>
-    <row r="37" ht="17.25" customHeight="1" s="31">
-      <c r="A37" s="29" t="inlineStr">
+    <row r="36" ht="17.25" customHeight="1" s="38"/>
+    <row r="37" ht="17.25" customHeight="1" s="38">
+      <c r="A37" s="36" t="inlineStr">
         <is>
           <t>All-time Stats</t>
         </is>
       </c>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="28" t="n"/>
-    </row>
-    <row r="38" ht="17.25" customHeight="1" s="31">
+      <c r="B37" s="34" t="n"/>
+      <c r="C37" s="34" t="n"/>
+      <c r="D37" s="34" t="n"/>
+      <c r="E37" s="34" t="n"/>
+      <c r="F37" s="35" t="n"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1" s="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -8474,7 +10118,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="17.25" customHeight="1" s="31">
+    <row r="39" ht="17.25" customHeight="1" s="38">
       <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -8487,7 +10131,7 @@
         <v>38800</v>
       </c>
     </row>
-    <row r="40" ht="17.25" customHeight="1" s="31">
+    <row r="40" ht="17.25" customHeight="1" s="38">
       <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -8500,7 +10144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" ht="17.25" customHeight="1" s="31">
+    <row r="41" ht="17.25" customHeight="1" s="38">
       <c r="A41" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8510,7 +10154,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="42" ht="17.25" customHeight="1" s="31">
+    <row r="42" ht="17.25" customHeight="1" s="38">
       <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8520,7 +10164,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="43" ht="17.25" customHeight="1" s="31">
+    <row r="43" ht="17.25" customHeight="1" s="38">
       <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8530,7 +10174,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="44" ht="17.25" customHeight="1" s="31">
+    <row r="44" ht="17.25" customHeight="1" s="38">
       <c r="A44" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8568,24 +10212,24 @@
   <cols>
     <col width="15" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
     <col width="15" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="3" max="4"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="3" max="4"/>
     <col width="12.453125" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="6" max="6"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="31">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="38">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>Session Stats</t>
         </is>
       </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="27" t="n"/>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="28" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="31">
+      <c r="B1" s="34" t="n"/>
+      <c r="C1" s="34" t="n"/>
+      <c r="D1" s="34" t="n"/>
+      <c r="E1" s="34" t="n"/>
+      <c r="F1" s="35" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="38">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -8607,7 +10251,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="31">
+    <row r="3" ht="17.25" customHeight="1" s="38">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -8625,7 +10269,7 @@
         <v>35842</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="31">
+    <row r="4" ht="17.25" customHeight="1" s="38">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -8643,7 +10287,7 @@
         <v>9910</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="31">
+    <row r="5" ht="17.25" customHeight="1" s="38">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8661,7 +10305,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="31">
+    <row r="6" ht="17.25" customHeight="1" s="38">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8679,7 +10323,7 @@
         <v>18435</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1" s="31">
+    <row r="7" ht="17.25" customHeight="1" s="38">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8697,7 +10341,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="31">
+    <row r="8" ht="17.25" customHeight="1" s="38">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8715,20 +10359,20 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="31"/>
-    <row r="10" ht="17.25" customHeight="1" s="31">
-      <c r="A10" s="29" t="inlineStr">
+    <row r="9" ht="17.25" customHeight="1" s="38"/>
+    <row r="10" ht="17.25" customHeight="1" s="38">
+      <c r="A10" s="36" t="inlineStr">
         <is>
           <t>Daily Stats</t>
         </is>
       </c>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" s="31">
+      <c r="B10" s="34" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="34" t="n"/>
+      <c r="F10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" s="38">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -8739,18 +10383,18 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E11" s="28" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1" s="31">
+    <row r="12" ht="17.25" customHeight="1" s="38">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -8759,16 +10403,16 @@
       <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="34" t="inlineStr">
+      <c r="D12" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="39" t="n">
+      <c r="E12" s="32" t="n">
         <v>35842</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1" s="31">
+    <row r="13" ht="17.25" customHeight="1" s="38">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -8777,16 +10421,16 @@
       <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="34" t="inlineStr">
+      <c r="D13" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="39" t="n">
+      <c r="E13" s="32" t="n">
         <v>9910</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="31">
+    <row r="14" ht="17.25" customHeight="1" s="38">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8795,16 +10439,16 @@
       <c r="B14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="34" t="inlineStr">
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="39" t="n">
+      <c r="E14" s="32" t="n">
         <v>3.62</v>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1" s="31">
+    <row r="15" ht="17.25" customHeight="1" s="38">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8813,16 +10457,16 @@
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="34" t="inlineStr">
+      <c r="D15" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="39" t="n">
+      <c r="E15" s="32" t="n">
         <v>18435</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" s="31">
+    <row r="16" ht="17.25" customHeight="1" s="38">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8831,16 +10475,16 @@
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="34" t="inlineStr">
+      <c r="D16" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="32" t="n">
         <v>6127</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" s="31">
+    <row r="17" ht="17.25" customHeight="1" s="38">
       <c r="A17" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -8849,29 +10493,29 @@
       <c r="B17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="34" t="inlineStr">
+      <c r="D17" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="E17" s="32" t="n">
         <v>3.01</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" s="31"/>
-    <row r="19" ht="17.25" customHeight="1" s="31">
-      <c r="A19" s="29" t="inlineStr">
+    <row r="18" ht="17.25" customHeight="1" s="38"/>
+    <row r="19" ht="17.25" customHeight="1" s="38">
+      <c r="A19" s="36" t="inlineStr">
         <is>
           <t>Weekly Stats</t>
         </is>
       </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="28" t="n"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" s="31">
+      <c r="B19" s="34" t="n"/>
+      <c r="C19" s="34" t="n"/>
+      <c r="D19" s="34" t="n"/>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="35" t="n"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" s="38">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -8893,7 +10537,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="17.25" customHeight="1" s="31">
+    <row r="21" ht="17.25" customHeight="1" s="38">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -8911,7 +10555,7 @@
         <v>35842</v>
       </c>
     </row>
-    <row r="22" ht="17.25" customHeight="1" s="31">
+    <row r="22" ht="17.25" customHeight="1" s="38">
       <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -8929,7 +10573,7 @@
         <v>9910</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1" s="31">
+    <row r="23" ht="17.25" customHeight="1" s="38">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -8947,7 +10591,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1" s="31">
+    <row r="24" ht="17.25" customHeight="1" s="38">
       <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -8965,7 +10609,7 @@
         <v>18435</v>
       </c>
     </row>
-    <row r="25" ht="17.25" customHeight="1" s="31">
+    <row r="25" ht="17.25" customHeight="1" s="38">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -8983,7 +10627,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="26" ht="17.25" customHeight="1" s="31">
+    <row r="26" ht="17.25" customHeight="1" s="38">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -9001,20 +10645,20 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="27" ht="17.25" customHeight="1" s="31"/>
-    <row r="28" ht="17.25" customHeight="1" s="31">
-      <c r="A28" s="29" t="inlineStr">
+    <row r="27" ht="17.25" customHeight="1" s="38"/>
+    <row r="28" ht="17.25" customHeight="1" s="38">
+      <c r="A28" s="36" t="inlineStr">
         <is>
           <t>Monthly Stats</t>
         </is>
       </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1" s="31">
+      <c r="B28" s="34" t="n"/>
+      <c r="C28" s="34" t="n"/>
+      <c r="D28" s="34" t="n"/>
+      <c r="E28" s="34" t="n"/>
+      <c r="F28" s="35" t="n"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1" s="38">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -9036,7 +10680,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="17.25" customHeight="1" s="31">
+    <row r="30" ht="17.25" customHeight="1" s="38">
       <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -9054,7 +10698,7 @@
         <v>35842</v>
       </c>
     </row>
-    <row r="31" ht="17.25" customHeight="1" s="31">
+    <row r="31" ht="17.25" customHeight="1" s="38">
       <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -9072,7 +10716,7 @@
         <v>9910</v>
       </c>
     </row>
-    <row r="32" ht="17.25" customHeight="1" s="31">
+    <row r="32" ht="17.25" customHeight="1" s="38">
       <c r="A32" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -9090,7 +10734,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1" s="31">
+    <row r="33" ht="17.25" customHeight="1" s="38">
       <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -9108,7 +10752,7 @@
         <v>18435</v>
       </c>
     </row>
-    <row r="34" ht="17.25" customHeight="1" s="31">
+    <row r="34" ht="17.25" customHeight="1" s="38">
       <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -9126,7 +10770,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1" s="31">
+    <row r="35" ht="17.25" customHeight="1" s="38">
       <c r="A35" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -9144,20 +10788,20 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="36" ht="17.25" customHeight="1" s="31"/>
-    <row r="37" ht="17.25" customHeight="1" s="31">
-      <c r="A37" s="29" t="inlineStr">
+    <row r="36" ht="17.25" customHeight="1" s="38"/>
+    <row r="37" ht="17.25" customHeight="1" s="38">
+      <c r="A37" s="36" t="inlineStr">
         <is>
           <t>All-time Stats</t>
         </is>
       </c>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="28" t="n"/>
-    </row>
-    <row r="38" ht="17.25" customHeight="1" s="31">
+      <c r="B37" s="34" t="n"/>
+      <c r="C37" s="34" t="n"/>
+      <c r="D37" s="34" t="n"/>
+      <c r="E37" s="34" t="n"/>
+      <c r="F37" s="35" t="n"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1" s="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -9169,7 +10813,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="17.25" customHeight="1" s="31">
+    <row r="39" ht="17.25" customHeight="1" s="38">
       <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -9182,7 +10826,7 @@
         <v>283749</v>
       </c>
     </row>
-    <row r="40" ht="17.25" customHeight="1" s="31">
+    <row r="40" ht="17.25" customHeight="1" s="38">
       <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -9195,7 +10839,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="41" ht="17.25" customHeight="1" s="31">
+    <row r="41" ht="17.25" customHeight="1" s="38">
       <c r="A41" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -9205,7 +10849,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="42" ht="17.25" customHeight="1" s="31">
+    <row r="42" ht="17.25" customHeight="1" s="38">
       <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -9215,7 +10859,7 @@
         <v>18435</v>
       </c>
     </row>
-    <row r="43" ht="17.25" customHeight="1" s="31">
+    <row r="43" ht="17.25" customHeight="1" s="38">
       <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -9225,7 +10869,7 @@
         <v>6127</v>
       </c>
     </row>
-    <row r="44" ht="17.25" customHeight="1" s="31">
+    <row r="44" ht="17.25" customHeight="1" s="38">
       <c r="A44" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -9262,22 +10906,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="15" bestFit="1" customWidth="1" style="8" min="1" max="2"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="3" max="6"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="3" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="31">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="38">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>Session Stats</t>
         </is>
       </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="27" t="n"/>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="28" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="31">
+      <c r="B1" s="34" t="n"/>
+      <c r="C1" s="34" t="n"/>
+      <c r="D1" s="34" t="n"/>
+      <c r="E1" s="34" t="n"/>
+      <c r="F1" s="35" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="38">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -9299,14 +10943,14 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="31">
+    <row r="3" ht="17.25" customHeight="1" s="38">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D3" s="23" t="inlineStr">
         <is>
@@ -9317,14 +10961,14 @@
         <v>13944</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="31">
+    <row r="4" ht="17.25" customHeight="1" s="38">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4" s="23" t="inlineStr">
         <is>
@@ -9335,14 +10979,14 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="31">
+    <row r="5" ht="17.25" customHeight="1" s="38">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>7.5</v>
+        <v>2.92</v>
       </c>
       <c r="D5" s="23" t="inlineStr">
         <is>
@@ -9353,14 +10997,14 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="31">
+    <row r="6" ht="17.25" customHeight="1" s="38">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D6" s="23" t="inlineStr">
         <is>
@@ -9371,14 +11015,14 @@
         <v>10131</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1" s="31">
+    <row r="7" ht="17.25" customHeight="1" s="38">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
@@ -9389,14 +11033,14 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="31">
+    <row r="8" ht="17.25" customHeight="1" s="38">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>6</v>
+        <v>5.14</v>
       </c>
       <c r="D8" s="23" t="inlineStr">
         <is>
@@ -9407,20 +11051,20 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="31"/>
-    <row r="10" ht="17.25" customHeight="1" s="31">
-      <c r="A10" s="29" t="inlineStr">
+    <row r="9" ht="17.25" customHeight="1" s="38"/>
+    <row r="10" ht="17.25" customHeight="1" s="38">
+      <c r="A10" s="36" t="inlineStr">
         <is>
           <t>Daily Stats</t>
         </is>
       </c>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" s="31">
+      <c r="B10" s="34" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="34" t="n"/>
+      <c r="F10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" s="38">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -9431,139 +11075,139 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1" s="31">
+    <row r="12" ht="17.25" customHeight="1" s="38">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="34" t="inlineStr">
+        <v>26</v>
+      </c>
+      <c r="D12" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="27" t="n">
         <v>13956</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1" s="31">
+    <row r="13" ht="17.25" customHeight="1" s="38">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="34" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="D13" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="27" t="n">
         <v>4826</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="31">
+    <row r="14" ht="17.25" customHeight="1" s="38">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="34" t="inlineStr">
+        <v>2.17</v>
+      </c>
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="27" t="n">
         <v>2.89</v>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1" s="31">
+    <row r="15" ht="17.25" customHeight="1" s="38">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="34" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="D15" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="27" t="n">
         <v>10134</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" s="31">
+    <row r="16" ht="17.25" customHeight="1" s="38">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D16" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="34" t="n">
+      <c r="E16" s="27" t="n">
         <v>2633</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" s="31">
+    <row r="17" ht="17.25" customHeight="1" s="38">
       <c r="A17" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="34" t="inlineStr">
+        <v>5.5</v>
+      </c>
+      <c r="D17" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="27" t="n">
         <v>3.85</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" s="31"/>
-    <row r="19" ht="17.25" customHeight="1" s="31">
-      <c r="A19" s="29" t="inlineStr">
+    <row r="18" ht="17.25" customHeight="1" s="38"/>
+    <row r="19" ht="17.25" customHeight="1" s="38">
+      <c r="A19" s="36" t="inlineStr">
         <is>
           <t>Weekly Stats</t>
         </is>
       </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="28" t="n"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" s="31">
+      <c r="B19" s="34" t="n"/>
+      <c r="C19" s="34" t="n"/>
+      <c r="D19" s="34" t="n"/>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="35" t="n"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" s="38">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -9585,14 +11229,14 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="17.25" customHeight="1" s="31">
+    <row r="21" ht="17.25" customHeight="1" s="38">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D21" s="23" t="inlineStr">
         <is>
@@ -9603,14 +11247,14 @@
         <v>13944</v>
       </c>
     </row>
-    <row r="22" ht="17.25" customHeight="1" s="31">
+    <row r="22" ht="17.25" customHeight="1" s="38">
       <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B22" s="5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D22" s="23" t="inlineStr">
         <is>
@@ -9621,14 +11265,14 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1" s="31">
+    <row r="23" ht="17.25" customHeight="1" s="38">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>7.5</v>
+        <v>2.92</v>
       </c>
       <c r="D23" s="23" t="inlineStr">
         <is>
@@ -9639,14 +11283,14 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1" s="31">
+    <row r="24" ht="17.25" customHeight="1" s="38">
       <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D24" s="23" t="inlineStr">
         <is>
@@ -9657,14 +11301,14 @@
         <v>10131</v>
       </c>
     </row>
-    <row r="25" ht="17.25" customHeight="1" s="31">
+    <row r="25" ht="17.25" customHeight="1" s="38">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25" s="23" t="inlineStr">
         <is>
@@ -9675,14 +11319,14 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="26" ht="17.25" customHeight="1" s="31">
+    <row r="26" ht="17.25" customHeight="1" s="38">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>6</v>
+        <v>5.14</v>
       </c>
       <c r="D26" s="23" t="inlineStr">
         <is>
@@ -9693,20 +11337,20 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="27" ht="17.25" customHeight="1" s="31"/>
-    <row r="28" ht="17.25" customHeight="1" s="31">
-      <c r="A28" s="29" t="inlineStr">
+    <row r="27" ht="17.25" customHeight="1" s="38"/>
+    <row r="28" ht="17.25" customHeight="1" s="38">
+      <c r="A28" s="36" t="inlineStr">
         <is>
           <t>Monthly Stats</t>
         </is>
       </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1" s="31">
+      <c r="B28" s="34" t="n"/>
+      <c r="C28" s="34" t="n"/>
+      <c r="D28" s="34" t="n"/>
+      <c r="E28" s="34" t="n"/>
+      <c r="F28" s="35" t="n"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1" s="38">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -9728,14 +11372,14 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="17.25" customHeight="1" s="31">
+    <row r="30" ht="17.25" customHeight="1" s="38">
       <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D30" s="23" t="inlineStr">
         <is>
@@ -9746,14 +11390,14 @@
         <v>13944</v>
       </c>
     </row>
-    <row r="31" ht="17.25" customHeight="1" s="31">
+    <row r="31" ht="17.25" customHeight="1" s="38">
       <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D31" s="23" t="inlineStr">
         <is>
@@ -9764,14 +11408,14 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="32" ht="17.25" customHeight="1" s="31">
+    <row r="32" ht="17.25" customHeight="1" s="38">
       <c r="A32" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>7.5</v>
+        <v>2.92</v>
       </c>
       <c r="D32" s="23" t="inlineStr">
         <is>
@@ -9782,14 +11426,14 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1" s="31">
+    <row r="33" ht="17.25" customHeight="1" s="38">
       <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D33" s="23" t="inlineStr">
         <is>
@@ -9800,14 +11444,14 @@
         <v>10131</v>
       </c>
     </row>
-    <row r="34" ht="17.25" customHeight="1" s="31">
+    <row r="34" ht="17.25" customHeight="1" s="38">
       <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34" s="23" t="inlineStr">
         <is>
@@ -9818,14 +11462,14 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1" s="31">
+    <row r="35" ht="17.25" customHeight="1" s="38">
       <c r="A35" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>6</v>
+        <v>5.14</v>
       </c>
       <c r="D35" s="23" t="inlineStr">
         <is>
@@ -9836,20 +11480,20 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="36" ht="17.25" customHeight="1" s="31"/>
-    <row r="37" ht="17.25" customHeight="1" s="31">
-      <c r="A37" s="29" t="inlineStr">
+    <row r="36" ht="17.25" customHeight="1" s="38"/>
+    <row r="37" ht="17.25" customHeight="1" s="38">
+      <c r="A37" s="36" t="inlineStr">
         <is>
           <t>All-time Stats</t>
         </is>
       </c>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="28" t="n"/>
-    </row>
-    <row r="38" ht="17.25" customHeight="1" s="31">
+      <c r="B37" s="34" t="n"/>
+      <c r="C37" s="34" t="n"/>
+      <c r="D37" s="34" t="n"/>
+      <c r="E37" s="34" t="n"/>
+      <c r="F37" s="35" t="n"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1" s="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -9861,33 +11505,33 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="17.25" customHeight="1" s="31">
+    <row r="39" ht="17.25" customHeight="1" s="38">
       <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B39" s="5" t="n">
-        <v>13959</v>
+        <v>13982</v>
       </c>
       <c r="D39" t="n">
-        <v>1366770</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" customHeight="1" s="31">
+        <v>1367270</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" customHeight="1" s="38">
       <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B40" s="5" t="n">
-        <v>4827</v>
+        <v>4838</v>
       </c>
       <c r="D40" t="n">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="41" ht="17.25" customHeight="1" s="31">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" customHeight="1" s="38">
       <c r="A41" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -9897,27 +11541,27 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="42" ht="17.25" customHeight="1" s="31">
+    <row r="42" ht="17.25" customHeight="1" s="38">
       <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B42" s="5" t="n">
-        <v>10137</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" customHeight="1" s="31">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" customHeight="1" s="38">
       <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B43" s="5" t="n">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" customHeight="1" s="31">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" customHeight="1" s="38">
       <c r="A44" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -9955,22 +11599,22 @@
   <cols>
     <col width="15" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
     <col width="15" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="3" max="6"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="3" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="31">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="38">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>Session Stats</t>
         </is>
       </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="27" t="n"/>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="28" t="n"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="31">
+      <c r="B1" s="34" t="n"/>
+      <c r="C1" s="34" t="n"/>
+      <c r="D1" s="34" t="n"/>
+      <c r="E1" s="34" t="n"/>
+      <c r="F1" s="35" t="n"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="38">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -9992,14 +11636,14 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="31">
+    <row r="3" ht="17.25" customHeight="1" s="38">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D3" s="23" t="inlineStr">
         <is>
@@ -10010,14 +11654,14 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="31">
+    <row r="4" ht="17.25" customHeight="1" s="38">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="23" t="inlineStr">
         <is>
@@ -10028,14 +11672,14 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="31">
+    <row r="5" ht="17.25" customHeight="1" s="38">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="D5" s="23" t="inlineStr">
         <is>
@@ -10046,14 +11690,14 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="31">
+    <row r="6" ht="17.25" customHeight="1" s="38">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D6" s="23" t="inlineStr">
         <is>
@@ -10064,14 +11708,14 @@
         <v>7947</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1" s="31">
+    <row r="7" ht="17.25" customHeight="1" s="38">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="23" t="inlineStr">
         <is>
@@ -10082,14 +11726,14 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="31">
+    <row r="8" ht="17.25" customHeight="1" s="38">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="23" t="inlineStr">
         <is>
@@ -10100,20 +11744,20 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="31"/>
-    <row r="10" ht="17.25" customHeight="1" s="31">
-      <c r="A10" s="29" t="inlineStr">
+    <row r="9" ht="17.25" customHeight="1" s="38"/>
+    <row r="10" ht="17.25" customHeight="1" s="38">
+      <c r="A10" s="36" t="inlineStr">
         <is>
           <t>Daily Stats</t>
         </is>
       </c>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" s="31">
+      <c r="B10" s="34" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="34" t="n"/>
+      <c r="F10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" s="38">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -10124,18 +11768,18 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1" s="31">
+    <row r="12" ht="17.25" customHeight="1" s="38">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -10144,16 +11788,16 @@
       <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="34" t="inlineStr">
+      <c r="D12" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="27" t="n">
         <v>16300</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1" s="31">
+    <row r="13" ht="17.25" customHeight="1" s="38">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -10162,16 +11806,16 @@
       <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="34" t="inlineStr">
+      <c r="D13" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="27" t="n">
         <v>4349</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="31">
+    <row r="14" ht="17.25" customHeight="1" s="38">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -10180,16 +11824,16 @@
       <c r="B14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="34" t="inlineStr">
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="27" t="n">
         <v>3.75</v>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1" s="31">
+    <row r="15" ht="17.25" customHeight="1" s="38">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -10198,16 +11842,16 @@
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="34" t="inlineStr">
+      <c r="D15" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="27" t="n">
         <v>7947</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" s="31">
+    <row r="16" ht="17.25" customHeight="1" s="38">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -10216,16 +11860,16 @@
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="34" t="inlineStr">
+      <c r="D16" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="34" t="n">
+      <c r="E16" s="27" t="n">
         <v>2847</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" s="31">
+    <row r="17" ht="17.25" customHeight="1" s="38">
       <c r="A17" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -10234,29 +11878,29 @@
       <c r="B17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="34" t="inlineStr">
+      <c r="D17" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="27" t="n">
         <v>2.79</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" s="31"/>
-    <row r="19" ht="17.25" customHeight="1" s="31">
-      <c r="A19" s="29" t="inlineStr">
+    <row r="18" ht="17.25" customHeight="1" s="38"/>
+    <row r="19" ht="17.25" customHeight="1" s="38">
+      <c r="A19" s="36" t="inlineStr">
         <is>
           <t>Weekly Stats</t>
         </is>
       </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="28" t="n"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" s="31">
+      <c r="B19" s="34" t="n"/>
+      <c r="C19" s="34" t="n"/>
+      <c r="D19" s="34" t="n"/>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="35" t="n"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" s="38">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -10278,7 +11922,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="17.25" customHeight="1" s="31">
+    <row r="21" ht="17.25" customHeight="1" s="38">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -10296,7 +11940,7 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="22" ht="17.25" customHeight="1" s="31">
+    <row r="22" ht="17.25" customHeight="1" s="38">
       <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -10314,7 +11958,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1" s="31">
+    <row r="23" ht="17.25" customHeight="1" s="38">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -10332,7 +11976,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1" s="31">
+    <row r="24" ht="17.25" customHeight="1" s="38">
       <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -10350,7 +11994,7 @@
         <v>7947</v>
       </c>
     </row>
-    <row r="25" ht="17.25" customHeight="1" s="31">
+    <row r="25" ht="17.25" customHeight="1" s="38">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -10368,7 +12012,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="26" ht="17.25" customHeight="1" s="31">
+    <row r="26" ht="17.25" customHeight="1" s="38">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -10386,20 +12030,20 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="27" ht="17.25" customHeight="1" s="31"/>
-    <row r="28" ht="17.25" customHeight="1" s="31">
-      <c r="A28" s="29" t="inlineStr">
+    <row r="27" ht="17.25" customHeight="1" s="38"/>
+    <row r="28" ht="17.25" customHeight="1" s="38">
+      <c r="A28" s="36" t="inlineStr">
         <is>
           <t>Monthly Stats</t>
         </is>
       </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1" s="31">
+      <c r="B28" s="34" t="n"/>
+      <c r="C28" s="34" t="n"/>
+      <c r="D28" s="34" t="n"/>
+      <c r="E28" s="34" t="n"/>
+      <c r="F28" s="35" t="n"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1" s="38">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -10421,7 +12065,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="17.25" customHeight="1" s="31">
+    <row r="30" ht="17.25" customHeight="1" s="38">
       <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
@@ -10439,7 +12083,7 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="31" ht="17.25" customHeight="1" s="31">
+    <row r="31" ht="17.25" customHeight="1" s="38">
       <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
@@ -10457,7 +12101,7 @@
         <v>4349</v>
       </c>
     </row>
-    <row r="32" ht="17.25" customHeight="1" s="31">
+    <row r="32" ht="17.25" customHeight="1" s="38">
       <c r="A32" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -10475,7 +12119,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1" s="31">
+    <row r="33" ht="17.25" customHeight="1" s="38">
       <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
@@ -10493,7 +12137,7 @@
         <v>7947</v>
       </c>
     </row>
-    <row r="34" ht="17.25" customHeight="1" s="31">
+    <row r="34" ht="17.25" customHeight="1" s="38">
       <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
@@ -10511,7 +12155,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1" s="31">
+    <row r="35" ht="17.25" customHeight="1" s="38">
       <c r="A35" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -10529,20 +12173,20 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="36" ht="17.25" customHeight="1" s="31"/>
-    <row r="37" ht="17.25" customHeight="1" s="31">
-      <c r="A37" s="29" t="inlineStr">
+    <row r="36" ht="17.25" customHeight="1" s="38"/>
+    <row r="37" ht="17.25" customHeight="1" s="38">
+      <c r="A37" s="36" t="inlineStr">
         <is>
           <t>All-time Stats</t>
         </is>
       </c>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="28" t="n"/>
-    </row>
-    <row r="38" ht="17.25" customHeight="1" s="31">
+      <c r="B37" s="34" t="n"/>
+      <c r="C37" s="34" t="n"/>
+      <c r="D37" s="34" t="n"/>
+      <c r="E37" s="34" t="n"/>
+      <c r="F37" s="35" t="n"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1" s="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -10554,33 +12198,33 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="17.25" customHeight="1" s="31">
+    <row r="39" ht="17.25" customHeight="1" s="38">
       <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B39" s="7" t="n">
-        <v>16300</v>
+        <v>16323</v>
       </c>
       <c r="D39" t="n">
-        <v>68465</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" customHeight="1" s="31">
+        <v>69147</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" customHeight="1" s="38">
       <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B40" s="7" t="n">
-        <v>4349</v>
+        <v>4354</v>
       </c>
       <c r="D40" t="n">
         <v>251</v>
       </c>
     </row>
-    <row r="41" ht="17.25" customHeight="1" s="31">
+    <row r="41" ht="17.25" customHeight="1" s="38">
       <c r="A41" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -10590,27 +12234,27 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="42" ht="17.25" customHeight="1" s="31">
+    <row r="42" ht="17.25" customHeight="1" s="38">
       <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B42" s="7" t="n">
-        <v>7947</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" customHeight="1" s="31">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" customHeight="1" s="38">
       <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B43" s="7" t="n">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" customHeight="1" s="31">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" customHeight="1" s="38">
       <c r="A44" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -10648,24 +12292,24 @@
   <cols>
     <col width="15" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
     <col width="15" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="3" max="4"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="3" max="4"/>
     <col width="12.453125" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="12.453125" bestFit="1" customWidth="1" style="31" min="6" max="6"/>
+    <col width="12.453125" bestFit="1" customWidth="1" style="38" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="31">
-      <c r="A1" s="29" t="inlineStr">
+    <row r="1" ht="18" customHeight="1" s="38">
+      <c r="A1" s="36" t="inlineStr">
         <is>
           <t>Session Stats</t>
         </is>
       </c>
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="27" t="n"/>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="28" t="n"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" s="31">
+      <c r="B1" s="34" t="n"/>
+      <c r="C1" s="34" t="n"/>
+      <c r="D1" s="34" t="n"/>
+      <c r="E1" s="34" t="n"/>
+      <c r="F1" s="35" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" s="38">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -10687,14 +12331,14 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="31">
+    <row r="3" ht="17.25" customHeight="1" s="38">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
@@ -10705,14 +12349,14 @@
         <v>24970</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="31">
+    <row r="4" ht="17.25" customHeight="1" s="38">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
@@ -10723,14 +12367,14 @@
         <v>8409</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="31">
+    <row r="5" ht="17.25" customHeight="1" s="38">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>10.71</v>
+        <v>10.03</v>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
@@ -10741,14 +12385,14 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="31">
+    <row r="6" ht="17.25" customHeight="1" s="38">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
@@ -10759,14 +12403,14 @@
         <v>10927</v>
       </c>
     </row>
-    <row r="7" ht="17.25" customHeight="1" s="31">
+    <row r="7" ht="17.25" customHeight="1" s="38">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
@@ -10777,14 +12421,14 @@
         <v>5913</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" s="31">
+    <row r="8" ht="18" customHeight="1" s="38">
       <c r="A8" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>15.8</v>
+        <v>13.16</v>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
@@ -10795,20 +12439,20 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="31"/>
-    <row r="10" ht="18" customHeight="1" s="31">
-      <c r="A10" s="29" t="inlineStr">
+    <row r="9" ht="17.25" customHeight="1" s="38"/>
+    <row r="10" ht="18" customHeight="1" s="38">
+      <c r="A10" s="36" t="inlineStr">
         <is>
           <t>Daily Stats</t>
         </is>
       </c>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="31">
+      <c r="B10" s="34" t="n"/>
+      <c r="C10" s="34" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="34" t="n"/>
+      <c r="F10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="38">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -10819,139 +12463,139 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="35" t="inlineStr">
+      <c r="E11" s="28" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="17.25" customHeight="1" s="31">
+    <row r="12" ht="17.25" customHeight="1" s="38">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34" t="inlineStr">
+        <v>26</v>
+      </c>
+      <c r="D12" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="39" t="n">
+      <c r="E12" s="32" t="n">
         <v>25345</v>
       </c>
     </row>
-    <row r="13" ht="17.25" customHeight="1" s="31">
+    <row r="13" ht="17.25" customHeight="1" s="38">
       <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="34" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="39" t="n">
+      <c r="E13" s="32" t="n">
         <v>8444</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="31">
+    <row r="14" ht="17.25" customHeight="1" s="38">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34" t="inlineStr">
+        <v>5.2</v>
+      </c>
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="39" t="n">
+      <c r="E14" s="32" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="17.25" customHeight="1" s="31">
+    <row r="15" ht="17.25" customHeight="1" s="38">
       <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34" t="inlineStr">
+        <v>13</v>
+      </c>
+      <c r="D15" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="39" t="n">
+      <c r="E15" s="32" t="n">
         <v>11164</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" s="31">
+    <row r="16" ht="17.25" customHeight="1" s="38">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D16" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="32" t="n">
         <v>5928</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" s="31">
+    <row r="17" ht="17.25" customHeight="1" s="38">
       <c r="A17" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34" t="inlineStr">
+        <v>3.25</v>
+      </c>
+      <c r="D17" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="E17" s="32" t="n">
         <v>1.88</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" s="31"/>
-    <row r="19" ht="17.25" customHeight="1" s="31">
-      <c r="A19" s="29" t="inlineStr">
+    <row r="18" ht="17.25" customHeight="1" s="38"/>
+    <row r="19" ht="17.25" customHeight="1" s="38">
+      <c r="A19" s="36" t="inlineStr">
         <is>
           <t>Weekly Stats</t>
         </is>
       </c>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="28" t="n"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" s="31">
+      <c r="B19" s="34" t="n"/>
+      <c r="C19" s="34" t="n"/>
+      <c r="D19" s="34" t="n"/>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="35" t="n"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" s="38">
       <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -10973,14 +12617,14 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="17.25" customHeight="1" s="31">
+    <row r="21" ht="17.25" customHeight="1" s="38">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D21" s="23" t="inlineStr">
         <is>
@@ -10991,14 +12635,14 @@
         <v>25345</v>
       </c>
     </row>
-    <row r="22" ht="17.25" customHeight="1" s="31">
+    <row r="22" ht="17.25" customHeight="1" s="38">
       <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="23" t="inlineStr">
         <is>
@@ -11009,14 +12653,14 @@
         <v>8444</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1" s="31">
+    <row r="23" ht="17.25" customHeight="1" s="38">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="D23" s="23" t="inlineStr">
         <is>
@@ -11027,14 +12671,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1" s="31">
+    <row r="24" ht="17.25" customHeight="1" s="38">
       <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D24" s="23" t="inlineStr">
         <is>
@@ -11045,14 +12689,14 @@
         <v>11164</v>
       </c>
     </row>
-    <row r="25" ht="17.25" customHeight="1" s="31">
+    <row r="25" ht="17.25" customHeight="1" s="38">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="23" t="inlineStr">
         <is>
@@ -11063,14 +12707,14 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="26" ht="17.25" customHeight="1" s="31">
+    <row r="26" ht="17.25" customHeight="1" s="38">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="D26" s="23" t="inlineStr">
         <is>
@@ -11081,20 +12725,20 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="27" ht="17.25" customHeight="1" s="31"/>
-    <row r="28" ht="17.25" customHeight="1" s="31">
-      <c r="A28" s="29" t="inlineStr">
+    <row r="27" ht="17.25" customHeight="1" s="38"/>
+    <row r="28" ht="17.25" customHeight="1" s="38">
+      <c r="A28" s="36" t="inlineStr">
         <is>
           <t>Monthly Stats</t>
         </is>
       </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1" s="31">
+      <c r="B28" s="34" t="n"/>
+      <c r="C28" s="34" t="n"/>
+      <c r="D28" s="34" t="n"/>
+      <c r="E28" s="34" t="n"/>
+      <c r="F28" s="35" t="n"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1" s="38">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -11116,14 +12760,14 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="17.25" customHeight="1" s="31">
+    <row r="30" ht="17.25" customHeight="1" s="38">
       <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D30" s="23" t="inlineStr">
         <is>
@@ -11134,14 +12778,14 @@
         <v>25345</v>
       </c>
     </row>
-    <row r="31" ht="17.25" customHeight="1" s="31">
+    <row r="31" ht="17.25" customHeight="1" s="38">
       <c r="A31" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="23" t="inlineStr">
         <is>
@@ -11152,14 +12796,14 @@
         <v>8444</v>
       </c>
     </row>
-    <row r="32" ht="17.25" customHeight="1" s="31">
+    <row r="32" ht="17.25" customHeight="1" s="38">
       <c r="A32" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="D32" s="23" t="inlineStr">
         <is>
@@ -11170,14 +12814,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" ht="17.25" customHeight="1" s="31">
+    <row r="33" ht="17.25" customHeight="1" s="38">
       <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D33" s="23" t="inlineStr">
         <is>
@@ -11188,14 +12832,14 @@
         <v>11164</v>
       </c>
     </row>
-    <row r="34" ht="17.25" customHeight="1" s="31">
+    <row r="34" ht="17.25" customHeight="1" s="38">
       <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34" s="23" t="inlineStr">
         <is>
@@ -11206,14 +12850,14 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="35" ht="17.25" customHeight="1" s="31">
+    <row r="35" ht="17.25" customHeight="1" s="38">
       <c r="A35" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="D35" s="23" t="inlineStr">
         <is>
@@ -11224,20 +12868,20 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="36" ht="17.25" customHeight="1" s="31"/>
-    <row r="37" ht="17.25" customHeight="1" s="31">
-      <c r="A37" s="29" t="inlineStr">
+    <row r="36" ht="17.25" customHeight="1" s="38"/>
+    <row r="37" ht="17.25" customHeight="1" s="38">
+      <c r="A37" s="36" t="inlineStr">
         <is>
           <t>All-time Stats</t>
         </is>
       </c>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="28" t="n"/>
-    </row>
-    <row r="38" ht="17.25" customHeight="1" s="31">
+      <c r="B37" s="34" t="n"/>
+      <c r="C37" s="34" t="n"/>
+      <c r="D37" s="34" t="n"/>
+      <c r="E37" s="34" t="n"/>
+      <c r="F37" s="35" t="n"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1" s="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -11249,33 +12893,33 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="17.25" customHeight="1" s="31">
+    <row r="39" ht="17.25" customHeight="1" s="38">
       <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
       <c r="B39" s="7" t="n">
-        <v>25345</v>
+        <v>25371</v>
       </c>
       <c r="D39" t="n">
-        <v>148543</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" customHeight="1" s="31">
+        <v>148973</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" customHeight="1" s="38">
       <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
       <c r="B40" s="7" t="n">
-        <v>8444</v>
+        <v>8449</v>
       </c>
       <c r="D40" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="41" ht="17.25" customHeight="1" s="31">
+    <row r="41" ht="17.25" customHeight="1" s="38">
       <c r="A41" s="5" t="inlineStr">
         <is>
           <t>K/D</t>
@@ -11285,27 +12929,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" ht="17.25" customHeight="1" s="31">
+    <row r="42" ht="17.25" customHeight="1" s="38">
       <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
       <c r="B42" s="7" t="n">
-        <v>11164</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" customHeight="1" s="31">
+        <v>11177</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" customHeight="1" s="38">
       <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
       <c r="B43" s="7" t="n">
-        <v>5928</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" customHeight="1" s="31">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" customHeight="1" s="38">
       <c r="A44" s="5" t="inlineStr">
         <is>
           <t>W/L</t>
@@ -11341,11 +12985,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="15" customWidth="1" style="31" min="1" max="2"/>
+    <col width="15" customWidth="1" style="38" min="1" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="37" t="inlineStr">
         <is>
           <t>Session Stats</t>
         </is>
@@ -11482,7 +13126,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30" t="inlineStr">
+      <c r="A10" s="37" t="inlineStr">
         <is>
           <t>Daily Stats</t>
         </is>
@@ -11499,12 +13143,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -11519,12 +13163,12 @@
       <c r="B12" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="34" t="inlineStr">
+      <c r="D12" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="27" t="n">
         <v>4055</v>
       </c>
     </row>
@@ -11537,12 +13181,12 @@
       <c r="B13" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="34" t="inlineStr">
+      <c r="D13" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="27" t="n">
         <v>3392</v>
       </c>
     </row>
@@ -11555,12 +13199,12 @@
       <c r="B14" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="34" t="inlineStr">
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="27" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -11573,12 +13217,12 @@
       <c r="B15" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="34" t="inlineStr">
+      <c r="D15" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="27" t="n">
         <v>3723</v>
       </c>
     </row>
@@ -11591,12 +13235,12 @@
       <c r="B16" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="34" t="inlineStr">
+      <c r="D16" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="34" t="n">
+      <c r="E16" s="27" t="n">
         <v>1976</v>
       </c>
     </row>
@@ -11609,17 +13253,17 @@
       <c r="B17" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="34" t="inlineStr">
+      <c r="D17" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="27" t="n">
         <v>1.88</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30" t="inlineStr">
+      <c r="A19" s="37" t="inlineStr">
         <is>
           <t>Weekly Stats</t>
         </is>
@@ -11756,7 +13400,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30" t="inlineStr">
+      <c r="A28" s="37" t="inlineStr">
         <is>
           <t>Monthly Stats</t>
         </is>
@@ -11893,7 +13537,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="30" t="inlineStr">
+      <c r="A37" s="37" t="inlineStr">
         <is>
           <t>All-time Stats</t>
         </is>
@@ -11998,589 +13642,588 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="15" customWidth="1" style="31" min="1" max="1"/>
-    <col width="15" customWidth="1" style="31" min="2" max="2"/>
+    <col width="15" customWidth="1" style="38" min="1" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="40" t="inlineStr">
         <is>
           <t>Session Stats</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33" t="inlineStr">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Stat</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D2" s="33" t="inlineStr">
+      <c r="D2" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E2" s="33" t="inlineStr">
+      <c r="E2" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="B3" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34" t="inlineStr">
+      <c r="B3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E3" s="34" t="n">
+      <c r="E3" s="27" t="n">
         <v>5815</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="inlineStr">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="B4" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34" t="inlineStr">
+      <c r="B4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E4" s="34" t="n">
+      <c r="E4" s="27" t="n">
         <v>1961</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="inlineStr">
+      <c r="A5" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="B5" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34" t="inlineStr">
+      <c r="B5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="27" t="n">
         <v>2.97</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="34" t="inlineStr">
+      <c r="A6" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="B6" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="inlineStr">
+      <c r="B6" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E6" s="34" t="n">
+      <c r="E6" s="27" t="n">
         <v>3226</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="34" t="inlineStr">
+      <c r="A7" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="B7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34" t="inlineStr">
+      <c r="B7" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E7" s="34" t="n">
+      <c r="E7" s="27" t="n">
         <v>1285</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="34" t="inlineStr">
+      <c r="A8" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="B8" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="inlineStr">
+      <c r="B8" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E8" s="34" t="n">
+      <c r="E8" s="27" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="inlineStr">
+      <c r="A10" s="40" t="inlineStr">
         <is>
           <t>Daily Stats</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="33" t="inlineStr">
+      <c r="A11" s="26" t="inlineStr">
         <is>
           <t>Stat</t>
         </is>
       </c>
-      <c r="B11" s="33" t="inlineStr">
+      <c r="B11" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="inlineStr">
+      <c r="A12" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="B12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34" t="inlineStr">
+      <c r="B12" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="27" t="n">
         <v>5815</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="34" t="inlineStr">
+      <c r="A13" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="B13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="34" t="inlineStr">
+      <c r="B13" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="27" t="n">
         <v>1961</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="34" t="inlineStr">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="B14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34" t="inlineStr">
+      <c r="B14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="34" t="n">
+      <c r="E14" s="27" t="n">
         <v>2.97</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="34" t="inlineStr">
+      <c r="A15" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="B15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34" t="inlineStr">
+      <c r="B15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="27" t="n">
         <v>3226</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="34" t="inlineStr">
+      <c r="A16" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="B16" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34" t="inlineStr">
+      <c r="B16" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="34" t="n">
+      <c r="E16" s="27" t="n">
         <v>1285</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="34" t="inlineStr">
+      <c r="A17" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="B17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34" t="inlineStr">
+      <c r="B17" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="27" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="32" t="inlineStr">
+      <c r="A19" s="40" t="inlineStr">
         <is>
           <t>Weekly Stats</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="33" t="inlineStr">
+      <c r="A20" s="26" t="inlineStr">
         <is>
           <t>Stat</t>
         </is>
       </c>
-      <c r="B20" s="33" t="inlineStr">
+      <c r="B20" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D20" s="33" t="inlineStr">
+      <c r="D20" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E20" s="33" t="inlineStr">
+      <c r="E20" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="34" t="inlineStr">
+      <c r="A21" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="B21" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="34" t="inlineStr">
+      <c r="B21" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E21" s="34" t="n">
+      <c r="E21" s="27" t="n">
         <v>5815</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="34" t="inlineStr">
+      <c r="A22" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="B22" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="34" t="inlineStr">
+      <c r="B22" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E22" s="34" t="n">
+      <c r="E22" s="27" t="n">
         <v>1961</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="34" t="inlineStr">
+      <c r="A23" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="B23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="34" t="inlineStr">
+      <c r="B23" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E23" s="34" t="n">
+      <c r="E23" s="27" t="n">
         <v>2.97</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="34" t="inlineStr">
+      <c r="A24" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="B24" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34" t="inlineStr">
+      <c r="B24" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E24" s="34" t="n">
+      <c r="E24" s="27" t="n">
         <v>3226</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="34" t="inlineStr">
+      <c r="A25" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="B25" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="34" t="inlineStr">
+      <c r="B25" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E25" s="34" t="n">
+      <c r="E25" s="27" t="n">
         <v>1285</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="34" t="inlineStr">
+      <c r="A26" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="B26" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="34" t="inlineStr">
+      <c r="B26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E26" s="34" t="n">
+      <c r="E26" s="27" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="32" t="inlineStr">
+      <c r="A28" s="40" t="inlineStr">
         <is>
           <t>Monthly Stats</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="33" t="inlineStr">
+      <c r="A29" s="26" t="inlineStr">
         <is>
           <t>Stat</t>
         </is>
       </c>
-      <c r="B29" s="33" t="inlineStr">
+      <c r="B29" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D29" s="33" t="inlineStr">
+      <c r="D29" s="26" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E29" s="33" t="inlineStr">
+      <c r="E29" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="34" t="inlineStr">
+      <c r="A30" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="B30" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="34" t="inlineStr">
+      <c r="B30" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E30" s="34" t="n">
+      <c r="E30" s="27" t="n">
         <v>5815</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="34" t="inlineStr">
+      <c r="A31" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="B31" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="34" t="inlineStr">
+      <c r="B31" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E31" s="34" t="n">
+      <c r="E31" s="27" t="n">
         <v>1961</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="34" t="inlineStr">
+      <c r="A32" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="B32" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="34" t="inlineStr">
+      <c r="B32" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E32" s="34" t="n">
+      <c r="E32" s="27" t="n">
         <v>2.97</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="34" t="inlineStr">
+      <c r="A33" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="B33" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="34" t="inlineStr">
+      <c r="B33" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E33" s="34" t="n">
+      <c r="E33" s="27" t="n">
         <v>3226</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="34" t="inlineStr">
+      <c r="A34" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="B34" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="34" t="inlineStr">
+      <c r="B34" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E34" s="34" t="n">
+      <c r="E34" s="27" t="n">
         <v>1285</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="34" t="inlineStr">
+      <c r="A35" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="B35" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="34" t="inlineStr">
+      <c r="B35" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E35" s="34" t="n">
+      <c r="E35" s="27" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="32" t="inlineStr">
+      <c r="A37" s="40" t="inlineStr">
         <is>
           <t>All-time Stats</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="33" t="inlineStr">
+      <c r="A38" s="26" t="inlineStr">
         <is>
           <t>Stat</t>
         </is>
       </c>
-      <c r="B38" s="33" t="inlineStr">
+      <c r="B38" s="26" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="34" t="inlineStr">
+      <c r="A39" s="27" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="B39" s="34" t="n">
+      <c r="B39" s="27" t="n">
         <v>5815</v>
       </c>
       <c r="D39" t="n">
@@ -12588,12 +14231,12 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="34" t="inlineStr">
+      <c r="A40" s="27" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="B40" s="34" t="n">
+      <c r="B40" s="27" t="n">
         <v>1961</v>
       </c>
       <c r="D40" t="n">
@@ -12601,42 +14244,42 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="34" t="inlineStr">
+      <c r="A41" s="27" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="B41" s="34" t="n">
+      <c r="B41" s="27" t="n">
         <v>2.97</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="34" t="inlineStr">
+      <c r="A42" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="B42" s="34" t="n">
+      <c r="B42" s="27" t="n">
         <v>3226</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="34" t="inlineStr">
+      <c r="A43" s="27" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="B43" s="34" t="n">
+      <c r="B43" s="27" t="n">
         <v>1285</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="34" t="inlineStr">
+      <c r="A44" s="27" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="B44" s="34" t="n">
+      <c r="B44" s="27" t="n">
         <v>2.51</v>
       </c>
     </row>

--- a/sheep_wars_stats.xlsx
+++ b/sheep_wars_stats.xlsx
@@ -16,6 +16,15 @@
     <sheet name="one4kat" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="aurxraaa" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="TNTcoins" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="isabelle_u" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="luckybooger" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="niccotucks" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="emiskittles" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="meowiis" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="__Feared" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Dejectin" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="BrokenArrow101" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="iSc0re" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -792,7 +801,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8136,6 +8145,1536 @@
       </c>
       <c r="H244" t="n">
         <v>1.88</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-12-18 15:20:05</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>25391</v>
+      </c>
+      <c r="D245" t="n">
+        <v>8451</v>
+      </c>
+      <c r="E245" t="n">
+        <v>3</v>
+      </c>
+      <c r="F245" t="n">
+        <v>11187</v>
+      </c>
+      <c r="G245" t="n">
+        <v>5933</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-12-18 15:20:35</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>48553</v>
+      </c>
+      <c r="D246" t="n">
+        <v>9796</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F246" t="n">
+        <v>26723</v>
+      </c>
+      <c r="G246" t="n">
+        <v>5941</v>
+      </c>
+      <c r="H246" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-12-18 15:59:34</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>pogdude69</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>25422</v>
+      </c>
+      <c r="D247" t="n">
+        <v>8452</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F247" t="n">
+        <v>11198</v>
+      </c>
+      <c r="G247" t="n">
+        <v>5934</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-12-18 16:03:15</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>imeowinvc</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>4908</v>
+      </c>
+      <c r="D248" t="n">
+        <v>785</v>
+      </c>
+      <c r="E248" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2483</v>
+      </c>
+      <c r="G248" t="n">
+        <v>416</v>
+      </c>
+      <c r="H248" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-12-18 16:16:32</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>25433</v>
+      </c>
+      <c r="D249" t="n">
+        <v>8456</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F249" t="n">
+        <v>11202</v>
+      </c>
+      <c r="G249" t="n">
+        <v>5937</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-12-18 16:42:24</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>imeowinvc</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>4948</v>
+      </c>
+      <c r="D250" t="n">
+        <v>788</v>
+      </c>
+      <c r="E250" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2495</v>
+      </c>
+      <c r="G250" t="n">
+        <v>419</v>
+      </c>
+      <c r="H250" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-12-18 16:44:52</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>25450</v>
+      </c>
+      <c r="D251" t="n">
+        <v>8459</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F251" t="n">
+        <v>11212</v>
+      </c>
+      <c r="G251" t="n">
+        <v>5938</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-12-18 16:57:29</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>25459</v>
+      </c>
+      <c r="D252" t="n">
+        <v>8460</v>
+      </c>
+      <c r="E252" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F252" t="n">
+        <v>11216</v>
+      </c>
+      <c r="G252" t="n">
+        <v>5939</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-12-18 17:16:47</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>25470</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8461</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F253" t="n">
+        <v>11224</v>
+      </c>
+      <c r="G253" t="n">
+        <v>5939</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-12-18 17:24:34</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>4979</v>
+      </c>
+      <c r="D254" t="n">
+        <v>791</v>
+      </c>
+      <c r="E254" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2511</v>
+      </c>
+      <c r="G254" t="n">
+        <v>421</v>
+      </c>
+      <c r="H254" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-12-18 17:34:17</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>25475</v>
+      </c>
+      <c r="D255" t="n">
+        <v>8463</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F255" t="n">
+        <v>11231</v>
+      </c>
+      <c r="G255" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-12-18 17:54:18</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>25486</v>
+      </c>
+      <c r="D256" t="n">
+        <v>8464</v>
+      </c>
+      <c r="E256" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F256" t="n">
+        <v>11238</v>
+      </c>
+      <c r="G256" t="n">
+        <v>5941</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-12-18 18:08:48</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>25496</v>
+      </c>
+      <c r="D257" t="n">
+        <v>8464</v>
+      </c>
+      <c r="E257" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F257" t="n">
+        <v>11243</v>
+      </c>
+      <c r="G257" t="n">
+        <v>5941</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-12-18 18:42:03</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>5030</v>
+      </c>
+      <c r="D258" t="n">
+        <v>795</v>
+      </c>
+      <c r="E258" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2535</v>
+      </c>
+      <c r="G258" t="n">
+        <v>425</v>
+      </c>
+      <c r="H258" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-12-18 18:43:40</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>25517</v>
+      </c>
+      <c r="D259" t="n">
+        <v>8467</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F259" t="n">
+        <v>11252</v>
+      </c>
+      <c r="G259" t="n">
+        <v>5944</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-12-18 18:47:32</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>qrsn</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>16327</v>
+      </c>
+      <c r="D260" t="n">
+        <v>4354</v>
+      </c>
+      <c r="E260" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F260" t="n">
+        <v>7966</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2850</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-12-18 18:59:52</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>25527</v>
+      </c>
+      <c r="D261" t="n">
+        <v>8471</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F261" t="n">
+        <v>11256</v>
+      </c>
+      <c r="G261" t="n">
+        <v>5948</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-12-18 19:06:33</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>25529</v>
+      </c>
+      <c r="D262" t="n">
+        <v>8474</v>
+      </c>
+      <c r="E262" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F262" t="n">
+        <v>11256</v>
+      </c>
+      <c r="G262" t="n">
+        <v>5951</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-12-18 22:29:54</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Hamster318</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>4765</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2977</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2934</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2328</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-12-18 22:31:56</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>5152</v>
+      </c>
+      <c r="D264" t="n">
+        <v>812</v>
+      </c>
+      <c r="E264" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2581</v>
+      </c>
+      <c r="G264" t="n">
+        <v>438</v>
+      </c>
+      <c r="H264" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-12-18 22:38:47</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>tntcoins</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>48556</v>
+      </c>
+      <c r="D265" t="n">
+        <v>9796</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F265" t="n">
+        <v>26728</v>
+      </c>
+      <c r="G265" t="n">
+        <v>5941</v>
+      </c>
+      <c r="H265" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-12-19 00:15:38</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>isabelle_u</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>2278</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1557</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1390</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-12-19 00:15:40</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>isabelle_u</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2278</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1557</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1390</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-12-19 00:17:53</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>isabelle_u</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2278</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1558</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1390</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-12-19 00:17:59</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>isabelle_u</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>2278</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1558</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1390</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-12-19 00:39:51</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>5192</v>
+      </c>
+      <c r="D270" t="n">
+        <v>815</v>
+      </c>
+      <c r="E270" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2598</v>
+      </c>
+      <c r="G270" t="n">
+        <v>440</v>
+      </c>
+      <c r="H270" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-12-19 00:42:00</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>luckybooger</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>26715</v>
+      </c>
+      <c r="D271" t="n">
+        <v>9079</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F271" t="n">
+        <v>15742</v>
+      </c>
+      <c r="G271" t="n">
+        <v>5937</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-12-19 00:42:03</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>luckybooger</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>26715</v>
+      </c>
+      <c r="D272" t="n">
+        <v>9079</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F272" t="n">
+        <v>15742</v>
+      </c>
+      <c r="G272" t="n">
+        <v>5937</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-12-19 00:42:29</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>luckybooger</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>26715</v>
+      </c>
+      <c r="D273" t="n">
+        <v>9079</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F273" t="n">
+        <v>15742</v>
+      </c>
+      <c r="G273" t="n">
+        <v>5937</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:04:38</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>niccotucks</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>2477</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1219</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G274" t="n">
+        <v>731</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:04:40</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>niccotucks</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>2477</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1219</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G275" t="n">
+        <v>731</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:04:44</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>niccotucks</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2477</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1219</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1869</v>
+      </c>
+      <c r="G276" t="n">
+        <v>731</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:04:57</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>emiskittles</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>7973</v>
+      </c>
+      <c r="D277" t="n">
+        <v>4031</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F277" t="n">
+        <v>6659</v>
+      </c>
+      <c r="G277" t="n">
+        <v>2606</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:04:59</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>emiskittles</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>7973</v>
+      </c>
+      <c r="D278" t="n">
+        <v>4031</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F278" t="n">
+        <v>6659</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2606</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:05:55</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>emiskittles</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>7973</v>
+      </c>
+      <c r="D279" t="n">
+        <v>4031</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F279" t="n">
+        <v>6659</v>
+      </c>
+      <c r="G279" t="n">
+        <v>2606</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:07:47</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>isabelle_u</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>2293</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1572</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1392</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:25:40</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>meowiis</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>16418</v>
+      </c>
+      <c r="D281" t="n">
+        <v>6706</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F281" t="n">
+        <v>12965</v>
+      </c>
+      <c r="G281" t="n">
+        <v>4072</v>
+      </c>
+      <c r="H281" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:25:43</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>meowiis</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>16418</v>
+      </c>
+      <c r="D282" t="n">
+        <v>6706</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F282" t="n">
+        <v>12965</v>
+      </c>
+      <c r="G282" t="n">
+        <v>4072</v>
+      </c>
+      <c r="H282" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:25:54</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>meowiis</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>16418</v>
+      </c>
+      <c r="D283" t="n">
+        <v>6706</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F283" t="n">
+        <v>12965</v>
+      </c>
+      <c r="G283" t="n">
+        <v>4072</v>
+      </c>
+      <c r="H283" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:38:38</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>__Feared</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D284" t="n">
+        <v>609</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F284" t="n">
+        <v>775</v>
+      </c>
+      <c r="G284" t="n">
+        <v>475</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:38:41</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>__Feared</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D285" t="n">
+        <v>609</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F285" t="n">
+        <v>775</v>
+      </c>
+      <c r="G285" t="n">
+        <v>475</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:38:59</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>__Feared</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D286" t="n">
+        <v>609</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F286" t="n">
+        <v>775</v>
+      </c>
+      <c r="G286" t="n">
+        <v>475</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:46:42</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Dejectin</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>52948</v>
+      </c>
+      <c r="D287" t="n">
+        <v>3466</v>
+      </c>
+      <c r="E287" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F287" t="n">
+        <v>23155</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2030</v>
+      </c>
+      <c r="H287" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:46:45</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Dejectin</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>52948</v>
+      </c>
+      <c r="D288" t="n">
+        <v>3466</v>
+      </c>
+      <c r="E288" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F288" t="n">
+        <v>23155</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2030</v>
+      </c>
+      <c r="H288" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:46:49</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Dejectin</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>52948</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3466</v>
+      </c>
+      <c r="E289" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F289" t="n">
+        <v>23155</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2030</v>
+      </c>
+      <c r="H289" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:47:26</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>BrokenArrow101</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>38998</v>
+      </c>
+      <c r="D290" t="n">
+        <v>6090</v>
+      </c>
+      <c r="E290" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F290" t="n">
+        <v>14705</v>
+      </c>
+      <c r="G290" t="n">
+        <v>3122</v>
+      </c>
+      <c r="H290" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:47:29</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>BrokenArrow101</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>38998</v>
+      </c>
+      <c r="D291" t="n">
+        <v>6090</v>
+      </c>
+      <c r="E291" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F291" t="n">
+        <v>14705</v>
+      </c>
+      <c r="G291" t="n">
+        <v>3122</v>
+      </c>
+      <c r="H291" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:47:38</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>BrokenArrow101</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>38998</v>
+      </c>
+      <c r="D292" t="n">
+        <v>6090</v>
+      </c>
+      <c r="E292" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F292" t="n">
+        <v>14705</v>
+      </c>
+      <c r="G292" t="n">
+        <v>3122</v>
+      </c>
+      <c r="H292" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:52:37</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>iSc0re</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>8547</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2373</v>
+      </c>
+      <c r="E293" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F293" t="n">
+        <v>6141</v>
+      </c>
+      <c r="G293" t="n">
+        <v>941</v>
+      </c>
+      <c r="H293" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:52:40</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>iSc0re</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>8547</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2373</v>
+      </c>
+      <c r="E294" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F294" t="n">
+        <v>6141</v>
+      </c>
+      <c r="G294" t="n">
+        <v>941</v>
+      </c>
+      <c r="H294" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-12-19 01:52:57</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>isc0re</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>8547</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2373</v>
+      </c>
+      <c r="E295" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6141</v>
+      </c>
+      <c r="G295" t="n">
+        <v>941</v>
+      </c>
+      <c r="H295" t="n">
+        <v>6.53</v>
       </c>
     </row>
   </sheetData>
@@ -8197,7 +9736,7 @@
         </is>
       </c>
       <c r="B3" s="43" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3" s="43" t="inlineStr">
         <is>
@@ -8215,7 +9754,7 @@
         </is>
       </c>
       <c r="B4" s="43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" s="43" t="inlineStr">
         <is>
@@ -8233,7 +9772,7 @@
         </is>
       </c>
       <c r="B5" s="43" t="n">
-        <v>1</v>
+        <v>3.33</v>
       </c>
       <c r="D5" s="43" t="inlineStr">
         <is>
@@ -8251,7 +9790,7 @@
         </is>
       </c>
       <c r="B6" s="43" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D6" s="43" t="inlineStr">
         <is>
@@ -8269,7 +9808,7 @@
         </is>
       </c>
       <c r="B7" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="43" t="inlineStr">
         <is>
@@ -8287,7 +9826,7 @@
         </is>
       </c>
       <c r="B8" s="43" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D8" s="43" t="inlineStr">
         <is>
@@ -8334,7 +9873,7 @@
         </is>
       </c>
       <c r="B12" s="43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D12" s="43" t="inlineStr">
         <is>
@@ -8352,7 +9891,7 @@
         </is>
       </c>
       <c r="B13" s="43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" s="43" t="inlineStr">
         <is>
@@ -8370,7 +9909,7 @@
         </is>
       </c>
       <c r="B14" s="43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="43" t="inlineStr">
         <is>
@@ -8388,7 +9927,7 @@
         </is>
       </c>
       <c r="B15" s="43" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D15" s="43" t="inlineStr">
         <is>
@@ -8406,7 +9945,7 @@
         </is>
       </c>
       <c r="B16" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="43" t="inlineStr">
         <is>
@@ -8424,7 +9963,7 @@
         </is>
       </c>
       <c r="B17" s="43" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D17" s="43" t="inlineStr">
         <is>
@@ -8471,7 +10010,7 @@
         </is>
       </c>
       <c r="B21" s="43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D21" s="43" t="inlineStr">
         <is>
@@ -8489,7 +10028,7 @@
         </is>
       </c>
       <c r="B22" s="43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D22" s="43" t="inlineStr">
         <is>
@@ -8507,7 +10046,7 @@
         </is>
       </c>
       <c r="B23" s="43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="43" t="inlineStr">
         <is>
@@ -8525,7 +10064,7 @@
         </is>
       </c>
       <c r="B24" s="43" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D24" s="43" t="inlineStr">
         <is>
@@ -8543,7 +10082,7 @@
         </is>
       </c>
       <c r="B25" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="43" t="inlineStr">
         <is>
@@ -8561,7 +10100,7 @@
         </is>
       </c>
       <c r="B26" s="43" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D26" s="43" t="inlineStr">
         <is>
@@ -8608,7 +10147,7 @@
         </is>
       </c>
       <c r="B30" s="43" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D30" s="43" t="inlineStr">
         <is>
@@ -8626,7 +10165,7 @@
         </is>
       </c>
       <c r="B31" s="43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D31" s="43" t="inlineStr">
         <is>
@@ -8644,7 +10183,7 @@
         </is>
       </c>
       <c r="B32" s="43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="43" t="inlineStr">
         <is>
@@ -8662,7 +10201,7 @@
         </is>
       </c>
       <c r="B33" s="43" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D33" s="43" t="inlineStr">
         <is>
@@ -8680,7 +10219,7 @@
         </is>
       </c>
       <c r="B34" s="43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="43" t="inlineStr">
         <is>
@@ -8698,7 +10237,7 @@
         </is>
       </c>
       <c r="B35" s="43" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D35" s="43" t="inlineStr">
         <is>
@@ -8735,10 +10274,10 @@
         </is>
       </c>
       <c r="B39" s="43" t="n">
-        <v>48529</v>
+        <v>48556</v>
       </c>
       <c r="D39" t="n">
-        <v>193728</v>
+        <v>194160</v>
       </c>
     </row>
     <row r="40">
@@ -8748,7 +10287,7 @@
         </is>
       </c>
       <c r="B40" s="43" t="n">
-        <v>9790</v>
+        <v>9796</v>
       </c>
       <c r="D40" t="n">
         <v>626</v>
@@ -8771,7 +10310,7 @@
         </is>
       </c>
       <c r="B42" s="43" t="n">
-        <v>26701</v>
+        <v>26728</v>
       </c>
     </row>
     <row r="43">
@@ -8781,7 +10320,7 @@
         </is>
       </c>
       <c r="B43" s="43" t="n">
-        <v>5940</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="44">
@@ -8792,6 +10331,5973 @@
       </c>
       <c r="B44" s="43" t="n">
         <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>2293</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D40" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>26715</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>9079</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>15742</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>26715</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>9079</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>15742</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>26715</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>9079</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>15742</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>26715</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>9079</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>15742</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>26715</v>
+      </c>
+      <c r="D39" t="n">
+        <v>70684</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>9079</v>
+      </c>
+      <c r="D40" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>15742</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>2477</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1285920</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D40" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>7973</v>
+      </c>
+      <c r="D39" t="n">
+        <v>72721</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>4031</v>
+      </c>
+      <c r="D40" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>16418</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>16418</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>16418</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>16418</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>16418</v>
+      </c>
+      <c r="D39" t="n">
+        <v>61269</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>6706</v>
+      </c>
+      <c r="D40" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>609</v>
+      </c>
+      <c r="D40" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>52948</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>23155</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>52948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>23155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>52948</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>23155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>52948</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>23155</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>52948</v>
+      </c>
+      <c r="D39" t="n">
+        <v>319709</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>3466</v>
+      </c>
+      <c r="D40" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>23155</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>11.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>38998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>14705</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>38998</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>14705</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>38998</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>14705</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>38998</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>14705</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>38998</v>
+      </c>
+      <c r="D39" t="n">
+        <v>675808</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>6090</v>
+      </c>
+      <c r="D40" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>14705</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="38" min="1" max="1"/>
+    <col width="15" customWidth="1" style="38" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Session Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E2" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B3" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B4" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B8" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="inlineStr">
+        <is>
+          <t>Daily Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D11" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B14" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B17" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>Weekly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D20" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E20" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B21" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B22" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B24" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E24" s="43" t="n">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E26" s="43" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="41" t="inlineStr">
+        <is>
+          <t>Monthly Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D29" s="42" t="inlineStr">
+        <is>
+          <t>Snapshot</t>
+        </is>
+      </c>
+      <c r="E29" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="E30" s="43" t="n">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B31" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="E31" s="43" t="n">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B32" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="E32" s="43" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B33" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="E33" s="43" t="n">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B34" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="E34" s="43" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B35" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="41" t="inlineStr">
+        <is>
+          <t>All-time Stats</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="42" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43" t="inlineStr">
+        <is>
+          <t>Kills</t>
+        </is>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>8547</v>
+      </c>
+      <c r="D39" t="n">
+        <v>87049</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="43" t="inlineStr">
+        <is>
+          <t>Deaths</t>
+        </is>
+      </c>
+      <c r="B40" s="43" t="n">
+        <v>2373</v>
+      </c>
+      <c r="D40" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="43" t="inlineStr">
+        <is>
+          <t>K/D</t>
+        </is>
+      </c>
+      <c r="B41" s="43" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="43" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="B42" s="43" t="n">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="inlineStr">
+        <is>
+          <t>W/L</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>6.53</v>
       </c>
     </row>
   </sheetData>
@@ -8868,7 +16374,7 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>4237</v>
+        <v>4536</v>
       </c>
       <c r="D3" s="20" t="inlineStr">
         <is>
@@ -8886,7 +16392,7 @@
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="D4" s="20" t="inlineStr">
         <is>
@@ -8904,7 +16410,7 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>6.27</v>
+        <v>6.38</v>
       </c>
       <c r="D5" s="20" t="inlineStr">
         <is>
@@ -8922,7 +16428,7 @@
         </is>
       </c>
       <c r="B6" s="12" t="n">
-        <v>2178</v>
+        <v>2303</v>
       </c>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -8940,7 +16446,7 @@
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="D7" s="20" t="inlineStr">
         <is>
@@ -8958,7 +16464,7 @@
         </is>
       </c>
       <c r="B8" s="12" t="n">
-        <v>6.31</v>
+        <v>6.21</v>
       </c>
       <c r="D8" s="20" t="inlineStr">
         <is>
@@ -9011,7 +16517,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="D12" s="29" t="inlineStr">
         <is>
@@ -9029,7 +16535,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D13" s="29" t="inlineStr">
         <is>
@@ -9047,7 +16553,7 @@
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>0</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D14" s="29" t="inlineStr">
         <is>
@@ -9065,7 +16571,7 @@
         </is>
       </c>
       <c r="B15" s="13" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D15" s="29" t="inlineStr">
         <is>
@@ -9083,7 +16589,7 @@
         </is>
       </c>
       <c r="B16" s="13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D16" s="29" t="inlineStr">
         <is>
@@ -9101,7 +16607,7 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>0</v>
+        <v>4.81</v>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
@@ -9154,7 +16660,7 @@
         </is>
       </c>
       <c r="B21" s="13" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="D21" s="20" t="inlineStr">
         <is>
@@ -9172,7 +16678,7 @@
         </is>
       </c>
       <c r="B22" s="13" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D22" s="20" t="inlineStr">
         <is>
@@ -9190,7 +16696,7 @@
         </is>
       </c>
       <c r="B23" s="13" t="n">
-        <v>0</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D23" s="20" t="inlineStr">
         <is>
@@ -9208,7 +16714,7 @@
         </is>
       </c>
       <c r="B24" s="13" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D24" s="20" t="inlineStr">
         <is>
@@ -9226,7 +16732,7 @@
         </is>
       </c>
       <c r="B25" s="13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D25" s="20" t="inlineStr">
         <is>
@@ -9244,7 +16750,7 @@
         </is>
       </c>
       <c r="B26" s="13" t="n">
-        <v>0</v>
+        <v>4.81</v>
       </c>
       <c r="D26" s="20" t="inlineStr">
         <is>
@@ -9297,7 +16803,7 @@
         </is>
       </c>
       <c r="B30" s="12" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="D30" s="23" t="inlineStr">
         <is>
@@ -9315,7 +16821,7 @@
         </is>
       </c>
       <c r="B31" s="12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D31" s="23" t="inlineStr">
         <is>
@@ -9333,7 +16839,7 @@
         </is>
       </c>
       <c r="B32" s="12" t="n">
-        <v>0</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D32" s="23" t="inlineStr">
         <is>
@@ -9351,7 +16857,7 @@
         </is>
       </c>
       <c r="B33" s="12" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D33" s="23" t="inlineStr">
         <is>
@@ -9369,7 +16875,7 @@
         </is>
       </c>
       <c r="B34" s="12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D34" s="23" t="inlineStr">
         <is>
@@ -9387,7 +16893,7 @@
         </is>
       </c>
       <c r="B35" s="12" t="n">
-        <v>0</v>
+        <v>4.81</v>
       </c>
       <c r="D35" s="23" t="inlineStr">
         <is>
@@ -9430,10 +16936,10 @@
         </is>
       </c>
       <c r="B39" s="13" t="n">
-        <v>4893</v>
+        <v>5192</v>
       </c>
       <c r="D39" t="n">
-        <v>48940</v>
+        <v>50050</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="38">
@@ -9443,10 +16949,10 @@
         </is>
       </c>
       <c r="B40" s="13" t="n">
-        <v>780</v>
+        <v>815</v>
       </c>
       <c r="D40" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="38">
@@ -9456,7 +16962,7 @@
         </is>
       </c>
       <c r="B41" s="12" t="n">
-        <v>6.27</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" s="38">
@@ -9466,7 +16972,7 @@
         </is>
       </c>
       <c r="B42" s="13" t="n">
-        <v>2473</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="38">
@@ -9476,7 +16982,7 @@
         </is>
       </c>
       <c r="B43" s="13" t="n">
-        <v>414</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="38">
@@ -9486,7 +16992,7 @@
         </is>
       </c>
       <c r="B44" s="12" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>
@@ -9563,7 +17069,7 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
@@ -9581,7 +17087,7 @@
         </is>
       </c>
       <c r="B4" s="7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
@@ -9599,7 +17105,7 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
@@ -9617,7 +17123,7 @@
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
@@ -9635,7 +17141,7 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
@@ -9653,7 +17159,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
@@ -9706,7 +17212,7 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D12" s="27" t="inlineStr">
         <is>
@@ -9724,7 +17230,7 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="27" t="inlineStr">
         <is>
@@ -9742,7 +17248,7 @@
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="D14" s="27" t="inlineStr">
         <is>
@@ -9760,7 +17266,7 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="27" t="inlineStr">
         <is>
@@ -9778,7 +17284,7 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="27" t="inlineStr">
         <is>
@@ -9796,7 +17302,7 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="27" t="inlineStr">
         <is>
@@ -9849,7 +17355,7 @@
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D21" s="23" t="inlineStr">
         <is>
@@ -9867,7 +17373,7 @@
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D22" s="23" t="inlineStr">
         <is>
@@ -9885,7 +17391,7 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="D23" s="23" t="inlineStr">
         <is>
@@ -9903,7 +17409,7 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="23" t="inlineStr">
         <is>
@@ -9921,7 +17427,7 @@
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" s="23" t="inlineStr">
         <is>
@@ -9939,7 +17445,7 @@
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="23" t="inlineStr">
         <is>
@@ -9992,7 +17498,7 @@
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D30" s="23" t="inlineStr">
         <is>
@@ -10010,7 +17516,7 @@
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D31" s="23" t="inlineStr">
         <is>
@@ -10028,7 +17534,7 @@
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="D32" s="23" t="inlineStr">
         <is>
@@ -10046,7 +17552,7 @@
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33" s="23" t="inlineStr">
         <is>
@@ -10064,7 +17570,7 @@
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34" s="23" t="inlineStr">
         <is>
@@ -10082,7 +17588,7 @@
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="23" t="inlineStr">
         <is>
@@ -10125,10 +17631,10 @@
         </is>
       </c>
       <c r="B39" s="7" t="n">
-        <v>4752</v>
+        <v>4765</v>
       </c>
       <c r="D39" t="n">
-        <v>38800</v>
+        <v>38830</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="38">
@@ -10138,7 +17644,7 @@
         </is>
       </c>
       <c r="B40" s="7" t="n">
-        <v>2971</v>
+        <v>2977</v>
       </c>
       <c r="D40" t="n">
         <v>91</v>
@@ -10161,7 +17667,7 @@
         </is>
       </c>
       <c r="B42" s="7" t="n">
-        <v>2930</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="38">
@@ -10171,7 +17677,7 @@
         </is>
       </c>
       <c r="B43" s="7" t="n">
-        <v>2324</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="38">
@@ -11643,7 +19149,7 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" s="23" t="inlineStr">
         <is>
@@ -11679,7 +19185,7 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="D5" s="23" t="inlineStr">
         <is>
@@ -11697,7 +19203,7 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="23" t="inlineStr">
         <is>
@@ -11733,7 +19239,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>6</v>
+        <v>6.33</v>
       </c>
       <c r="D8" s="23" t="inlineStr">
         <is>
@@ -12205,10 +19711,10 @@
         </is>
       </c>
       <c r="B39" s="7" t="n">
-        <v>16323</v>
+        <v>16327</v>
       </c>
       <c r="D39" t="n">
-        <v>69147</v>
+        <v>69171</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="38">
@@ -12241,7 +19747,7 @@
         </is>
       </c>
       <c r="B42" s="7" t="n">
-        <v>7965</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="38">
@@ -12261,7 +19767,7 @@
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -12338,7 +19844,7 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>401</v>
+        <v>559</v>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
@@ -12356,7 +19862,7 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
@@ -12374,7 +19880,7 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>10.03</v>
+        <v>8.6</v>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
@@ -12392,7 +19898,7 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
@@ -12410,7 +19916,7 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
@@ -12428,7 +19934,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>13.16</v>
+        <v>8.66</v>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
@@ -12481,7 +19987,7 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="D12" s="27" t="inlineStr">
         <is>
@@ -12499,7 +20005,7 @@
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D13" s="27" t="inlineStr">
         <is>
@@ -12517,7 +20023,7 @@
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>5.2</v>
+        <v>6.13</v>
       </c>
       <c r="D14" s="27" t="inlineStr">
         <is>
@@ -12535,7 +20041,7 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D15" s="27" t="inlineStr">
         <is>
@@ -12553,7 +20059,7 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D16" s="27" t="inlineStr">
         <is>
@@ -12571,7 +20077,7 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="D17" s="27" t="inlineStr">
         <is>
@@ -12624,7 +20130,7 @@
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="D21" s="23" t="inlineStr">
         <is>
@@ -12642,7 +20148,7 @@
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D22" s="23" t="inlineStr">
         <is>
@@ -12660,7 +20166,7 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>5.2</v>
+        <v>6.13</v>
       </c>
       <c r="D23" s="23" t="inlineStr">
         <is>
@@ -12678,7 +20184,7 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D24" s="23" t="inlineStr">
         <is>
@@ -12696,7 +20202,7 @@
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D25" s="23" t="inlineStr">
         <is>
@@ -12714,7 +20220,7 @@
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="D26" s="23" t="inlineStr">
         <is>
@@ -12767,7 +20273,7 @@
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="D30" s="23" t="inlineStr">
         <is>
@@ -12785,7 +20291,7 @@
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D31" s="23" t="inlineStr">
         <is>
@@ -12803,7 +20309,7 @@
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>5.2</v>
+        <v>6.13</v>
       </c>
       <c r="D32" s="23" t="inlineStr">
         <is>
@@ -12821,7 +20327,7 @@
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D33" s="23" t="inlineStr">
         <is>
@@ -12839,7 +20345,7 @@
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D34" s="23" t="inlineStr">
         <is>
@@ -12857,7 +20363,7 @@
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="D35" s="23" t="inlineStr">
         <is>
@@ -12900,7 +20406,7 @@
         </is>
       </c>
       <c r="B39" s="7" t="n">
-        <v>25371</v>
+        <v>25529</v>
       </c>
       <c r="D39" t="n">
         <v>148973</v>
@@ -12913,10 +20419,10 @@
         </is>
       </c>
       <c r="B40" s="7" t="n">
-        <v>8449</v>
+        <v>8474</v>
       </c>
       <c r="D40" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="38">
@@ -12926,7 +20432,7 @@
         </is>
       </c>
       <c r="B41" s="7" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" s="38">
@@ -12936,7 +20442,7 @@
         </is>
       </c>
       <c r="B42" s="7" t="n">
-        <v>11177</v>
+        <v>11256</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="38">
@@ -12946,7 +20452,7 @@
         </is>
       </c>
       <c r="B43" s="7" t="n">
-        <v>5932</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="38">
@@ -12956,7 +20462,7 @@
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/sheep_wars_stats.xlsx
+++ b/sheep_wars_stats.xlsx
@@ -35,7 +35,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -95,8 +95,11 @@
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -115,8 +118,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,6 +214,12 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -216,7 +231,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -365,6 +380,21 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H412"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C243" activeCellId="1" sqref="F12:K18 C243"/>
@@ -13087,33 +13117,1983 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
+      <c r="A412" s="25" t="inlineStr">
         <is>
           <t>2025-12-19 19:47:07</t>
         </is>
       </c>
-      <c r="B412" t="inlineStr">
+      <c r="B412" s="25" t="inlineStr">
         <is>
           <t>Qrsn</t>
         </is>
       </c>
-      <c r="C412" t="n">
+      <c r="C412" s="25" t="n">
         <v>16400</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412" s="25" t="n">
         <v>4362</v>
       </c>
-      <c r="E412" t="n">
+      <c r="E412" s="25" t="n">
         <v>3.76</v>
       </c>
-      <c r="F412" t="n">
+      <c r="F412" s="25" t="n">
         <v>8021</v>
       </c>
-      <c r="G412" t="n">
+      <c r="G412" s="25" t="n">
         <v>2852</v>
       </c>
-      <c r="H412" t="n">
+      <c r="H412" s="25" t="n">
         <v>2.81</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:38:18</t>
+        </is>
+      </c>
+      <c r="B413" s="25" t="inlineStr">
+        <is>
+          <t>one4kat</t>
+        </is>
+      </c>
+      <c r="C413" s="25" t="n">
+        <v>4216</v>
+      </c>
+      <c r="D413" s="25" t="n">
+        <v>3534</v>
+      </c>
+      <c r="E413" s="25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F413" s="25" t="n">
+        <v>3910</v>
+      </c>
+      <c r="G413" s="25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H413" s="25" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:38:38</t>
+        </is>
+      </c>
+      <c r="B414" s="25" t="inlineStr">
+        <is>
+          <t>Hamster318</t>
+        </is>
+      </c>
+      <c r="C414" s="25" t="n">
+        <v>5005</v>
+      </c>
+      <c r="D414" s="25" t="n">
+        <v>3106</v>
+      </c>
+      <c r="E414" s="25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F414" s="25" t="n">
+        <v>3099</v>
+      </c>
+      <c r="G414" s="25" t="n">
+        <v>2427</v>
+      </c>
+      <c r="H414" s="25" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:38:49</t>
+        </is>
+      </c>
+      <c r="B415" s="25" t="inlineStr">
+        <is>
+          <t>lxna_</t>
+        </is>
+      </c>
+      <c r="C415" s="25" t="n">
+        <v>14396</v>
+      </c>
+      <c r="D415" s="25" t="n">
+        <v>4959</v>
+      </c>
+      <c r="E415" s="25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F415" s="25" t="n">
+        <v>10660</v>
+      </c>
+      <c r="G415" s="25" t="n">
+        <v>2681</v>
+      </c>
+      <c r="H415" s="25" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:21</t>
+        </is>
+      </c>
+      <c r="B416" s="25" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C416" s="25" t="n">
+        <v>7037</v>
+      </c>
+      <c r="D416" s="25" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E416" s="25" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F416" s="25" t="n">
+        <v>3591</v>
+      </c>
+      <c r="G416" s="25" t="n">
+        <v>543</v>
+      </c>
+      <c r="H416" s="25" t="n">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:24</t>
+        </is>
+      </c>
+      <c r="B417" s="25" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C417" s="25" t="n">
+        <v>27624</v>
+      </c>
+      <c r="D417" s="25" t="n">
+        <v>8759</v>
+      </c>
+      <c r="E417" s="25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F417" s="25" t="n">
+        <v>12351</v>
+      </c>
+      <c r="G417" s="25" t="n">
+        <v>6117</v>
+      </c>
+      <c r="H417" s="25" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:27</t>
+        </is>
+      </c>
+      <c r="B418" s="25" t="inlineStr">
+        <is>
+          <t>one4kat</t>
+        </is>
+      </c>
+      <c r="C418" s="25" t="n">
+        <v>4216</v>
+      </c>
+      <c r="D418" s="25" t="n">
+        <v>3534</v>
+      </c>
+      <c r="E418" s="25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F418" s="25" t="n">
+        <v>3910</v>
+      </c>
+      <c r="G418" s="25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H418" s="25" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:30</t>
+        </is>
+      </c>
+      <c r="B419" s="25" t="inlineStr">
+        <is>
+          <t>Chuckegg</t>
+        </is>
+      </c>
+      <c r="C419" s="25" t="n">
+        <v>35842</v>
+      </c>
+      <c r="D419" s="25" t="n">
+        <v>9910</v>
+      </c>
+      <c r="E419" s="25" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F419" s="25" t="n">
+        <v>18435</v>
+      </c>
+      <c r="G419" s="25" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H419" s="25" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:33</t>
+        </is>
+      </c>
+      <c r="B420" s="25" t="inlineStr">
+        <is>
+          <t>IMeowInVC</t>
+        </is>
+      </c>
+      <c r="C420" s="25" t="n">
+        <v>7037</v>
+      </c>
+      <c r="D420" s="25" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E420" s="25" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F420" s="25" t="n">
+        <v>3591</v>
+      </c>
+      <c r="G420" s="25" t="n">
+        <v>543</v>
+      </c>
+      <c r="H420" s="25" t="n">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:36</t>
+        </is>
+      </c>
+      <c r="B421" s="25" t="inlineStr">
+        <is>
+          <t>plataipus</t>
+        </is>
+      </c>
+      <c r="C421" s="25" t="n">
+        <v>17599</v>
+      </c>
+      <c r="D421" s="25" t="n">
+        <v>3238</v>
+      </c>
+      <c r="E421" s="25" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F421" s="25" t="n">
+        <v>7012</v>
+      </c>
+      <c r="G421" s="25" t="n">
+        <v>2472</v>
+      </c>
+      <c r="H421" s="25" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:39</t>
+        </is>
+      </c>
+      <c r="B422" s="25" t="inlineStr">
+        <is>
+          <t>Hamster318</t>
+        </is>
+      </c>
+      <c r="C422" s="25" t="n">
+        <v>5005</v>
+      </c>
+      <c r="D422" s="25" t="n">
+        <v>3106</v>
+      </c>
+      <c r="E422" s="25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F422" s="25" t="n">
+        <v>3099</v>
+      </c>
+      <c r="G422" s="25" t="n">
+        <v>2427</v>
+      </c>
+      <c r="H422" s="25" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:42</t>
+        </is>
+      </c>
+      <c r="B423" s="25" t="inlineStr">
+        <is>
+          <t>__Feared</t>
+        </is>
+      </c>
+      <c r="C423" s="25" t="n">
+        <v>2309</v>
+      </c>
+      <c r="D423" s="25" t="n">
+        <v>826</v>
+      </c>
+      <c r="E423" s="25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F423" s="25" t="n">
+        <v>1095</v>
+      </c>
+      <c r="G423" s="25" t="n">
+        <v>640</v>
+      </c>
+      <c r="H423" s="25" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:45</t>
+        </is>
+      </c>
+      <c r="B424" s="25" t="inlineStr">
+        <is>
+          <t>Lxna_</t>
+        </is>
+      </c>
+      <c r="C424" s="25" t="n">
+        <v>14396</v>
+      </c>
+      <c r="D424" s="25" t="n">
+        <v>4959</v>
+      </c>
+      <c r="E424" s="25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F424" s="25" t="n">
+        <v>10660</v>
+      </c>
+      <c r="G424" s="25" t="n">
+        <v>2681</v>
+      </c>
+      <c r="H424" s="25" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:48</t>
+        </is>
+      </c>
+      <c r="B425" s="25" t="inlineStr">
+        <is>
+          <t>Qrsn</t>
+        </is>
+      </c>
+      <c r="C425" s="25" t="n">
+        <v>17002</v>
+      </c>
+      <c r="D425" s="25" t="n">
+        <v>4428</v>
+      </c>
+      <c r="E425" s="25" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F425" s="25" t="n">
+        <v>8342</v>
+      </c>
+      <c r="G425" s="25" t="n">
+        <v>2890</v>
+      </c>
+      <c r="H425" s="25" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:51</t>
+        </is>
+      </c>
+      <c r="B426" s="25" t="inlineStr">
+        <is>
+          <t>aurxraaa</t>
+        </is>
+      </c>
+      <c r="C426" s="25" t="n">
+        <v>5953</v>
+      </c>
+      <c r="D426" s="25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E426" s="25" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F426" s="25" t="n">
+        <v>3311</v>
+      </c>
+      <c r="G426" s="25" t="n">
+        <v>1302</v>
+      </c>
+      <c r="H426" s="25" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:54</t>
+        </is>
+      </c>
+      <c r="B427" s="25" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C427" s="25" t="n">
+        <v>49475</v>
+      </c>
+      <c r="D427" s="25" t="n">
+        <v>9943</v>
+      </c>
+      <c r="E427" s="25" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="F427" s="25" t="n">
+        <v>27371</v>
+      </c>
+      <c r="G427" s="25" t="n">
+        <v>6005</v>
+      </c>
+      <c r="H427" s="25" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:39:57</t>
+        </is>
+      </c>
+      <c r="B428" s="25" t="inlineStr">
+        <is>
+          <t>BrokenArrow101</t>
+        </is>
+      </c>
+      <c r="C428" s="25" t="n">
+        <v>40327</v>
+      </c>
+      <c r="D428" s="25" t="n">
+        <v>6213</v>
+      </c>
+      <c r="E428" s="25" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F428" s="25" t="n">
+        <v>15279</v>
+      </c>
+      <c r="G428" s="25" t="n">
+        <v>3169</v>
+      </c>
+      <c r="H428" s="25" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:00</t>
+        </is>
+      </c>
+      <c r="B429" s="25" t="inlineStr">
+        <is>
+          <t>isabelle_u</t>
+        </is>
+      </c>
+      <c r="C429" s="25" t="n">
+        <v>2530</v>
+      </c>
+      <c r="D429" s="25" t="n">
+        <v>1802</v>
+      </c>
+      <c r="E429" s="25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F429" s="25" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G429" s="25" t="n">
+        <v>1450</v>
+      </c>
+      <c r="H429" s="25" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:03</t>
+        </is>
+      </c>
+      <c r="B430" s="25" t="inlineStr">
+        <is>
+          <t>luckybooger</t>
+        </is>
+      </c>
+      <c r="C430" s="25" t="n">
+        <v>27158</v>
+      </c>
+      <c r="D430" s="25" t="n">
+        <v>9294</v>
+      </c>
+      <c r="E430" s="25" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F430" s="25" t="n">
+        <v>16099</v>
+      </c>
+      <c r="G430" s="25" t="n">
+        <v>6053</v>
+      </c>
+      <c r="H430" s="25" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:07</t>
+        </is>
+      </c>
+      <c r="B431" s="25" t="inlineStr">
+        <is>
+          <t>niccotucks</t>
+        </is>
+      </c>
+      <c r="C431" s="25" t="n">
+        <v>2703</v>
+      </c>
+      <c r="D431" s="25" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E431" s="25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F431" s="25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G431" s="25" t="n">
+        <v>827</v>
+      </c>
+      <c r="H431" s="25" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:10</t>
+        </is>
+      </c>
+      <c r="B432" s="25" t="inlineStr">
+        <is>
+          <t>Dejectin</t>
+        </is>
+      </c>
+      <c r="C432" s="25" t="n">
+        <v>53227</v>
+      </c>
+      <c r="D432" s="25" t="n">
+        <v>3477</v>
+      </c>
+      <c r="E432" s="25" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="F432" s="25" t="n">
+        <v>23280</v>
+      </c>
+      <c r="G432" s="25" t="n">
+        <v>2038</v>
+      </c>
+      <c r="H432" s="25" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:13</t>
+        </is>
+      </c>
+      <c r="B433" s="25" t="inlineStr">
+        <is>
+          <t>emiskittles</t>
+        </is>
+      </c>
+      <c r="C433" s="25" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D433" s="25" t="n">
+        <v>4240</v>
+      </c>
+      <c r="E433" s="25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F433" s="25" t="n">
+        <v>6999</v>
+      </c>
+      <c r="G433" s="25" t="n">
+        <v>2716</v>
+      </c>
+      <c r="H433" s="25" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:16</t>
+        </is>
+      </c>
+      <c r="B434" s="25" t="inlineStr">
+        <is>
+          <t>meowiis</t>
+        </is>
+      </c>
+      <c r="C434" s="25" t="n">
+        <v>16794</v>
+      </c>
+      <c r="D434" s="25" t="n">
+        <v>6904</v>
+      </c>
+      <c r="E434" s="25" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F434" s="25" t="n">
+        <v>13331</v>
+      </c>
+      <c r="G434" s="25" t="n">
+        <v>4160</v>
+      </c>
+      <c r="H434" s="25" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:18</t>
+        </is>
+      </c>
+      <c r="B435" s="25" t="inlineStr">
+        <is>
+          <t>__Feared</t>
+        </is>
+      </c>
+      <c r="C435" s="25" t="n">
+        <v>2309</v>
+      </c>
+      <c r="D435" s="25" t="n">
+        <v>826</v>
+      </c>
+      <c r="E435" s="25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F435" s="25" t="n">
+        <v>1095</v>
+      </c>
+      <c r="G435" s="25" t="n">
+        <v>640</v>
+      </c>
+      <c r="H435" s="25" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:22</t>
+        </is>
+      </c>
+      <c r="B436" s="25" t="inlineStr">
+        <is>
+          <t>Dejectin</t>
+        </is>
+      </c>
+      <c r="C436" s="25" t="n">
+        <v>53227</v>
+      </c>
+      <c r="D436" s="25" t="n">
+        <v>3477</v>
+      </c>
+      <c r="E436" s="25" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="F436" s="25" t="n">
+        <v>23280</v>
+      </c>
+      <c r="G436" s="25" t="n">
+        <v>2038</v>
+      </c>
+      <c r="H436" s="25" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:25</t>
+        </is>
+      </c>
+      <c r="B437" s="25" t="inlineStr">
+        <is>
+          <t>BrokenArrow101</t>
+        </is>
+      </c>
+      <c r="C437" s="25" t="n">
+        <v>40327</v>
+      </c>
+      <c r="D437" s="25" t="n">
+        <v>6213</v>
+      </c>
+      <c r="E437" s="25" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F437" s="25" t="n">
+        <v>15279</v>
+      </c>
+      <c r="G437" s="25" t="n">
+        <v>3169</v>
+      </c>
+      <c r="H437" s="25" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:28</t>
+        </is>
+      </c>
+      <c r="B438" s="25" t="inlineStr">
+        <is>
+          <t>iSc0re</t>
+        </is>
+      </c>
+      <c r="C438" s="25" t="n">
+        <v>9394</v>
+      </c>
+      <c r="D438" s="25" t="n">
+        <v>2551</v>
+      </c>
+      <c r="E438" s="25" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F438" s="25" t="n">
+        <v>6741</v>
+      </c>
+      <c r="G438" s="25" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H438" s="25" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:31</t>
+        </is>
+      </c>
+      <c r="B439" s="25" t="inlineStr">
+        <is>
+          <t>BrookeBlayde</t>
+        </is>
+      </c>
+      <c r="C439" s="25" t="n">
+        <v>15844</v>
+      </c>
+      <c r="D439" s="25" t="n">
+        <v>3230</v>
+      </c>
+      <c r="E439" s="25" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F439" s="25" t="n">
+        <v>6859</v>
+      </c>
+      <c r="G439" s="25" t="n">
+        <v>2671</v>
+      </c>
+      <c r="H439" s="25" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:34</t>
+        </is>
+      </c>
+      <c r="B440" s="25" t="inlineStr">
+        <is>
+          <t>Rickrollium</t>
+        </is>
+      </c>
+      <c r="C440" s="25" t="n">
+        <v>6963</v>
+      </c>
+      <c r="D440" s="25" t="n">
+        <v>4017</v>
+      </c>
+      <c r="E440" s="25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F440" s="25" t="n">
+        <v>4078</v>
+      </c>
+      <c r="G440" s="25" t="n">
+        <v>2806</v>
+      </c>
+      <c r="H440" s="25" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:37</t>
+        </is>
+      </c>
+      <c r="B441" s="25" t="inlineStr">
+        <is>
+          <t>zkenly</t>
+        </is>
+      </c>
+      <c r="C441" s="25" t="n">
+        <v>314</v>
+      </c>
+      <c r="D441" s="25" t="n">
+        <v>159</v>
+      </c>
+      <c r="E441" s="25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F441" s="25" t="n">
+        <v>225</v>
+      </c>
+      <c r="G441" s="25" t="n">
+        <v>113</v>
+      </c>
+      <c r="H441" s="25" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:40</t>
+        </is>
+      </c>
+      <c r="B442" s="25" t="inlineStr">
+        <is>
+          <t>skepticAB</t>
+        </is>
+      </c>
+      <c r="C442" s="25" t="n">
+        <v>221</v>
+      </c>
+      <c r="D442" s="25" t="n">
+        <v>437</v>
+      </c>
+      <c r="E442" s="25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F442" s="25" t="n">
+        <v>259</v>
+      </c>
+      <c r="G442" s="25" t="n">
+        <v>286</v>
+      </c>
+      <c r="H442" s="25" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:43</t>
+        </is>
+      </c>
+      <c r="B443" s="25" t="inlineStr">
+        <is>
+          <t>xplod3d</t>
+        </is>
+      </c>
+      <c r="C443" s="25" t="n">
+        <v>26131</v>
+      </c>
+      <c r="D443" s="25" t="n">
+        <v>9186</v>
+      </c>
+      <c r="E443" s="25" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F443" s="25" t="n">
+        <v>15756</v>
+      </c>
+      <c r="G443" s="25" t="n">
+        <v>6791</v>
+      </c>
+      <c r="H443" s="25" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:47</t>
+        </is>
+      </c>
+      <c r="B444" s="25" t="inlineStr">
+        <is>
+          <t>Hiiiii</t>
+        </is>
+      </c>
+      <c r="C444" s="25" t="n">
+        <v>2073</v>
+      </c>
+      <c r="D444" s="25" t="n">
+        <v>586</v>
+      </c>
+      <c r="E444" s="25" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F444" s="25" t="n">
+        <v>1974</v>
+      </c>
+      <c r="G444" s="25" t="n">
+        <v>325</v>
+      </c>
+      <c r="H444" s="25" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:49</t>
+        </is>
+      </c>
+      <c r="B445" s="25" t="inlineStr">
+        <is>
+          <t>KabutoKat</t>
+        </is>
+      </c>
+      <c r="C445" s="25" t="n">
+        <v>10426</v>
+      </c>
+      <c r="D445" s="25" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E445" s="25" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F445" s="25" t="n">
+        <v>7455</v>
+      </c>
+      <c r="G445" s="25" t="n">
+        <v>2138</v>
+      </c>
+      <c r="H445" s="25" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:52</t>
+        </is>
+      </c>
+      <c r="B446" s="25" t="inlineStr">
+        <is>
+          <t>flakitoo23</t>
+        </is>
+      </c>
+      <c r="C446" s="25" t="n">
+        <v>9045</v>
+      </c>
+      <c r="D446" s="25" t="n">
+        <v>5096</v>
+      </c>
+      <c r="E446" s="25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F446" s="25" t="n">
+        <v>6371</v>
+      </c>
+      <c r="G446" s="25" t="n">
+        <v>2918</v>
+      </c>
+      <c r="H446" s="25" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:55</t>
+        </is>
+      </c>
+      <c r="B447" s="25" t="inlineStr">
+        <is>
+          <t>plataipus</t>
+        </is>
+      </c>
+      <c r="C447" s="25" t="n">
+        <v>17599</v>
+      </c>
+      <c r="D447" s="25" t="n">
+        <v>3238</v>
+      </c>
+      <c r="E447" s="25" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F447" s="25" t="n">
+        <v>7012</v>
+      </c>
+      <c r="G447" s="25" t="n">
+        <v>2472</v>
+      </c>
+      <c r="H447" s="25" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:40:58</t>
+        </is>
+      </c>
+      <c r="B448" s="25" t="inlineStr">
+        <is>
+          <t>YANNlC</t>
+        </is>
+      </c>
+      <c r="C448" s="25" t="n">
+        <v>6309</v>
+      </c>
+      <c r="D448" s="25" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E448" s="25" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F448" s="25" t="n">
+        <v>3953</v>
+      </c>
+      <c r="G448" s="25" t="n">
+        <v>1091</v>
+      </c>
+      <c r="H448" s="25" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:41:01</t>
+        </is>
+      </c>
+      <c r="B449" s="25" t="inlineStr">
+        <is>
+          <t>Acentrion</t>
+        </is>
+      </c>
+      <c r="C449" s="25" t="n">
+        <v>3275</v>
+      </c>
+      <c r="D449" s="25" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E449" s="25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F449" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="G449" s="25" t="n">
+        <v>1307</v>
+      </c>
+      <c r="H449" s="25" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:41:04</t>
+        </is>
+      </c>
+      <c r="B450" s="25" t="inlineStr">
+        <is>
+          <t>KabutoKat</t>
+        </is>
+      </c>
+      <c r="C450" s="25" t="n">
+        <v>10426</v>
+      </c>
+      <c r="D450" s="25" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E450" s="25" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F450" s="25" t="n">
+        <v>7455</v>
+      </c>
+      <c r="G450" s="25" t="n">
+        <v>2138</v>
+      </c>
+      <c r="H450" s="25" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:41:20</t>
+        </is>
+      </c>
+      <c r="B451" s="25" t="inlineStr">
+        <is>
+          <t>Rickrollium</t>
+        </is>
+      </c>
+      <c r="C451" s="25" t="n">
+        <v>6963</v>
+      </c>
+      <c r="D451" s="25" t="n">
+        <v>4017</v>
+      </c>
+      <c r="E451" s="25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F451" s="25" t="n">
+        <v>4078</v>
+      </c>
+      <c r="G451" s="25" t="n">
+        <v>2806</v>
+      </c>
+      <c r="H451" s="25" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:41:43</t>
+        </is>
+      </c>
+      <c r="B452" s="25" t="inlineStr">
+        <is>
+          <t>iSc0re</t>
+        </is>
+      </c>
+      <c r="C452" s="25" t="n">
+        <v>9394</v>
+      </c>
+      <c r="D452" s="25" t="n">
+        <v>2551</v>
+      </c>
+      <c r="E452" s="25" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F452" s="25" t="n">
+        <v>6741</v>
+      </c>
+      <c r="G452" s="25" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H452" s="25" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:41:58</t>
+        </is>
+      </c>
+      <c r="B453" s="25" t="inlineStr">
+        <is>
+          <t>luckybooger</t>
+        </is>
+      </c>
+      <c r="C453" s="25" t="n">
+        <v>27158</v>
+      </c>
+      <c r="D453" s="25" t="n">
+        <v>9294</v>
+      </c>
+      <c r="E453" s="25" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F453" s="25" t="n">
+        <v>16099</v>
+      </c>
+      <c r="G453" s="25" t="n">
+        <v>6053</v>
+      </c>
+      <c r="H453" s="25" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:42:21</t>
+        </is>
+      </c>
+      <c r="B454" s="25" t="inlineStr">
+        <is>
+          <t>skepticAB</t>
+        </is>
+      </c>
+      <c r="C454" s="25" t="n">
+        <v>221</v>
+      </c>
+      <c r="D454" s="25" t="n">
+        <v>437</v>
+      </c>
+      <c r="E454" s="25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F454" s="25" t="n">
+        <v>259</v>
+      </c>
+      <c r="G454" s="25" t="n">
+        <v>286</v>
+      </c>
+      <c r="H454" s="25" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:42:25</t>
+        </is>
+      </c>
+      <c r="B455" s="25" t="inlineStr">
+        <is>
+          <t>YANNlC</t>
+        </is>
+      </c>
+      <c r="C455" s="25" t="n">
+        <v>6309</v>
+      </c>
+      <c r="D455" s="25" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E455" s="25" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F455" s="25" t="n">
+        <v>3953</v>
+      </c>
+      <c r="G455" s="25" t="n">
+        <v>1091</v>
+      </c>
+      <c r="H455" s="25" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:42:50</t>
+        </is>
+      </c>
+      <c r="B456" s="25" t="inlineStr">
+        <is>
+          <t>BrookeBlayde</t>
+        </is>
+      </c>
+      <c r="C456" s="25" t="n">
+        <v>15844</v>
+      </c>
+      <c r="D456" s="25" t="n">
+        <v>3230</v>
+      </c>
+      <c r="E456" s="25" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F456" s="25" t="n">
+        <v>6859</v>
+      </c>
+      <c r="G456" s="25" t="n">
+        <v>2671</v>
+      </c>
+      <c r="H456" s="25" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:43:11</t>
+        </is>
+      </c>
+      <c r="B457" s="25" t="inlineStr">
+        <is>
+          <t>meowiis</t>
+        </is>
+      </c>
+      <c r="C457" s="25" t="n">
+        <v>16794</v>
+      </c>
+      <c r="D457" s="25" t="n">
+        <v>6904</v>
+      </c>
+      <c r="E457" s="25" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F457" s="25" t="n">
+        <v>13331</v>
+      </c>
+      <c r="G457" s="25" t="n">
+        <v>4160</v>
+      </c>
+      <c r="H457" s="25" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:43:24</t>
+        </is>
+      </c>
+      <c r="B458" s="25" t="inlineStr">
+        <is>
+          <t>__Feared</t>
+        </is>
+      </c>
+      <c r="C458" s="25" t="n">
+        <v>2309</v>
+      </c>
+      <c r="D458" s="25" t="n">
+        <v>826</v>
+      </c>
+      <c r="E458" s="25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F458" s="25" t="n">
+        <v>1095</v>
+      </c>
+      <c r="G458" s="25" t="n">
+        <v>640</v>
+      </c>
+      <c r="H458" s="25" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:43:28</t>
+        </is>
+      </c>
+      <c r="B459" s="25" t="inlineStr">
+        <is>
+          <t>Pogdude69</t>
+        </is>
+      </c>
+      <c r="C459" s="25" t="n">
+        <v>27624</v>
+      </c>
+      <c r="D459" s="25" t="n">
+        <v>8759</v>
+      </c>
+      <c r="E459" s="25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F459" s="25" t="n">
+        <v>12351</v>
+      </c>
+      <c r="G459" s="25" t="n">
+        <v>6117</v>
+      </c>
+      <c r="H459" s="25" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:43:33</t>
+        </is>
+      </c>
+      <c r="B460" s="25" t="inlineStr">
+        <is>
+          <t>Dejectin</t>
+        </is>
+      </c>
+      <c r="C460" s="25" t="n">
+        <v>53227</v>
+      </c>
+      <c r="D460" s="25" t="n">
+        <v>3477</v>
+      </c>
+      <c r="E460" s="25" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="F460" s="25" t="n">
+        <v>23280</v>
+      </c>
+      <c r="G460" s="25" t="n">
+        <v>2038</v>
+      </c>
+      <c r="H460" s="25" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:44:07</t>
+        </is>
+      </c>
+      <c r="B461" s="25" t="inlineStr">
+        <is>
+          <t>one4kat</t>
+        </is>
+      </c>
+      <c r="C461" s="25" t="n">
+        <v>4216</v>
+      </c>
+      <c r="D461" s="25" t="n">
+        <v>3534</v>
+      </c>
+      <c r="E461" s="25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F461" s="25" t="n">
+        <v>3910</v>
+      </c>
+      <c r="G461" s="25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H461" s="25" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:44:09</t>
+        </is>
+      </c>
+      <c r="B462" s="25" t="inlineStr">
+        <is>
+          <t>Qrsn</t>
+        </is>
+      </c>
+      <c r="C462" s="25" t="n">
+        <v>17002</v>
+      </c>
+      <c r="D462" s="25" t="n">
+        <v>4428</v>
+      </c>
+      <c r="E462" s="25" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F462" s="25" t="n">
+        <v>8342</v>
+      </c>
+      <c r="G462" s="25" t="n">
+        <v>2890</v>
+      </c>
+      <c r="H462" s="25" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:44:20</t>
+        </is>
+      </c>
+      <c r="B463" s="25" t="inlineStr">
+        <is>
+          <t>Rickrollium</t>
+        </is>
+      </c>
+      <c r="C463" s="25" t="n">
+        <v>6963</v>
+      </c>
+      <c r="D463" s="25" t="n">
+        <v>4017</v>
+      </c>
+      <c r="E463" s="25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F463" s="25" t="n">
+        <v>4078</v>
+      </c>
+      <c r="G463" s="25" t="n">
+        <v>2806</v>
+      </c>
+      <c r="H463" s="25" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:44:25</t>
+        </is>
+      </c>
+      <c r="B464" s="25" t="inlineStr">
+        <is>
+          <t>xplod3d</t>
+        </is>
+      </c>
+      <c r="C464" s="25" t="n">
+        <v>26131</v>
+      </c>
+      <c r="D464" s="25" t="n">
+        <v>9186</v>
+      </c>
+      <c r="E464" s="25" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F464" s="25" t="n">
+        <v>15756</v>
+      </c>
+      <c r="G464" s="25" t="n">
+        <v>6791</v>
+      </c>
+      <c r="H464" s="25" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:44:41</t>
+        </is>
+      </c>
+      <c r="B465" s="25" t="inlineStr">
+        <is>
+          <t>Acentrion</t>
+        </is>
+      </c>
+      <c r="C465" s="25" t="n">
+        <v>3275</v>
+      </c>
+      <c r="D465" s="25" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E465" s="25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F465" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="G465" s="25" t="n">
+        <v>1307</v>
+      </c>
+      <c r="H465" s="25" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:44:51</t>
+        </is>
+      </c>
+      <c r="B466" s="25" t="inlineStr">
+        <is>
+          <t>YANNlC</t>
+        </is>
+      </c>
+      <c r="C466" s="25" t="n">
+        <v>6309</v>
+      </c>
+      <c r="D466" s="25" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E466" s="25" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F466" s="25" t="n">
+        <v>3953</v>
+      </c>
+      <c r="G466" s="25" t="n">
+        <v>1091</v>
+      </c>
+      <c r="H466" s="25" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:44:54</t>
+        </is>
+      </c>
+      <c r="B467" s="25" t="inlineStr">
+        <is>
+          <t>KabutoKat</t>
+        </is>
+      </c>
+      <c r="C467" s="25" t="n">
+        <v>10426</v>
+      </c>
+      <c r="D467" s="25" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E467" s="25" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F467" s="25" t="n">
+        <v>7455</v>
+      </c>
+      <c r="G467" s="25" t="n">
+        <v>2138</v>
+      </c>
+      <c r="H467" s="25" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:45:04</t>
+        </is>
+      </c>
+      <c r="B468" s="25" t="inlineStr">
+        <is>
+          <t>emiskittles</t>
+        </is>
+      </c>
+      <c r="C468" s="25" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D468" s="25" t="n">
+        <v>4240</v>
+      </c>
+      <c r="E468" s="25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F468" s="25" t="n">
+        <v>6999</v>
+      </c>
+      <c r="G468" s="25" t="n">
+        <v>2716</v>
+      </c>
+      <c r="H468" s="25" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:45:07</t>
+        </is>
+      </c>
+      <c r="B469" s="25" t="inlineStr">
+        <is>
+          <t>TNTcoins</t>
+        </is>
+      </c>
+      <c r="C469" s="25" t="n">
+        <v>49475</v>
+      </c>
+      <c r="D469" s="25" t="n">
+        <v>9943</v>
+      </c>
+      <c r="E469" s="25" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="F469" s="25" t="n">
+        <v>27371</v>
+      </c>
+      <c r="G469" s="25" t="n">
+        <v>6005</v>
+      </c>
+      <c r="H469" s="25" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:45:21</t>
+        </is>
+      </c>
+      <c r="B470" s="25" t="inlineStr">
+        <is>
+          <t>iSc0re</t>
+        </is>
+      </c>
+      <c r="C470" s="25" t="n">
+        <v>9394</v>
+      </c>
+      <c r="D470" s="25" t="n">
+        <v>2551</v>
+      </c>
+      <c r="E470" s="25" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F470" s="25" t="n">
+        <v>6741</v>
+      </c>
+      <c r="G470" s="25" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H470" s="25" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:46:17</t>
+        </is>
+      </c>
+      <c r="B471" s="25" t="inlineStr">
+        <is>
+          <t>skepticAB</t>
+        </is>
+      </c>
+      <c r="C471" s="25" t="n">
+        <v>221</v>
+      </c>
+      <c r="D471" s="25" t="n">
+        <v>437</v>
+      </c>
+      <c r="E471" s="25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F471" s="25" t="n">
+        <v>259</v>
+      </c>
+      <c r="G471" s="25" t="n">
+        <v>286</v>
+      </c>
+      <c r="H471" s="25" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:46:41</t>
+        </is>
+      </c>
+      <c r="B472" s="25" t="inlineStr">
+        <is>
+          <t>zkenly</t>
+        </is>
+      </c>
+      <c r="C472" s="25" t="n">
+        <v>314</v>
+      </c>
+      <c r="D472" s="25" t="n">
+        <v>159</v>
+      </c>
+      <c r="E472" s="25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F472" s="25" t="n">
+        <v>225</v>
+      </c>
+      <c r="G472" s="25" t="n">
+        <v>113</v>
+      </c>
+      <c r="H472" s="25" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:46:58</t>
+        </is>
+      </c>
+      <c r="B473" s="25" t="inlineStr">
+        <is>
+          <t>Chuckegg</t>
+        </is>
+      </c>
+      <c r="C473" s="25" t="n">
+        <v>35842</v>
+      </c>
+      <c r="D473" s="25" t="n">
+        <v>9910</v>
+      </c>
+      <c r="E473" s="25" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F473" s="25" t="n">
+        <v>18435</v>
+      </c>
+      <c r="G473" s="25" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H473" s="25" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:47:35</t>
+        </is>
+      </c>
+      <c r="B474" s="25" t="inlineStr">
+        <is>
+          <t>plataipus</t>
+        </is>
+      </c>
+      <c r="C474" s="25" t="n">
+        <v>17599</v>
+      </c>
+      <c r="D474" s="25" t="n">
+        <v>3238</v>
+      </c>
+      <c r="E474" s="25" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F474" s="25" t="n">
+        <v>7012</v>
+      </c>
+      <c r="G474" s="25" t="n">
+        <v>2472</v>
+      </c>
+      <c r="H474" s="25" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:49:21</t>
+        </is>
+      </c>
+      <c r="B475" s="25" t="inlineStr">
+        <is>
+          <t>Hamster318</t>
+        </is>
+      </c>
+      <c r="C475" s="25" t="n">
+        <v>5005</v>
+      </c>
+      <c r="D475" s="25" t="n">
+        <v>3106</v>
+      </c>
+      <c r="E475" s="25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F475" s="25" t="n">
+        <v>3099</v>
+      </c>
+      <c r="G475" s="25" t="n">
+        <v>2427</v>
+      </c>
+      <c r="H475" s="25" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="25" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:49:39</t>
+        </is>
+      </c>
+      <c r="B476" s="25" t="inlineStr">
+        <is>
+          <t>Hiiiii</t>
+        </is>
+      </c>
+      <c r="C476" s="25" t="n">
+        <v>2073</v>
+      </c>
+      <c r="D476" s="25" t="n">
+        <v>586</v>
+      </c>
+      <c r="E476" s="25" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F476" s="25" t="n">
+        <v>1974</v>
+      </c>
+      <c r="G476" s="25" t="n">
+        <v>325</v>
+      </c>
+      <c r="H476" s="25" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-12-25 11:50:12</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>niccotucks</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>2703</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E477" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F477" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G477" t="n">
+        <v>827</v>
+      </c>
+      <c r="H477" t="n">
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -13176,7 +15156,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>222</v>
+        <v>949</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -13194,7 +15174,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -13212,7 +15192,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>6.17</v>
+        <v>6.08</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -13230,7 +15210,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>151</v>
+        <v>679</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -13248,7 +15228,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -13266,7 +15246,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>10.07</v>
+        <v>10.45</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -13295,12 +15275,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -13313,15 +15293,15 @@
         </is>
       </c>
       <c r="B12" s="41" t="n">
-        <v>192</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>48556</v>
+      <c r="E12" s="56" t="n">
+        <v>49475</v>
       </c>
       <c r="G12" s="26" t="n"/>
       <c r="H12" s="26" t="n"/>
@@ -13337,15 +15317,15 @@
         </is>
       </c>
       <c r="B13" s="41" t="n">
-        <v>27</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
-        <v>9796</v>
+      <c r="E13" s="56" t="n">
+        <v>9943</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -13355,15 +15335,15 @@
         </is>
       </c>
       <c r="B14" s="41" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>4.96</v>
+      <c r="E14" s="56" t="n">
+        <v>4.98</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -13373,15 +15353,15 @@
         </is>
       </c>
       <c r="B15" s="41" t="n">
-        <v>115</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
-        <v>26728</v>
+      <c r="E15" s="56" t="n">
+        <v>27371</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -13391,15 +15371,15 @@
         </is>
       </c>
       <c r="B16" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
-        <v>5941</v>
+      <c r="E16" s="56" t="n">
+        <v>6005</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -13409,15 +15389,15 @@
         </is>
       </c>
       <c r="B17" s="41" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>4.5</v>
+      <c r="E17" s="56" t="n">
+        <v>4.56</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -13456,7 +15436,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>222</v>
+        <v>949</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -13474,7 +15454,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -13492,7 +15472,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>6.17</v>
+        <v>6.08</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -13510,7 +15490,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>151</v>
+        <v>679</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -13528,7 +15508,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -13546,7 +15526,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>10.07</v>
+        <v>10.45</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -13593,7 +15573,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>222</v>
+        <v>949</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -13611,7 +15591,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -13629,7 +15609,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>6.17</v>
+        <v>6.08</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -13647,7 +15627,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>151</v>
+        <v>679</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -13665,7 +15645,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -13683,7 +15663,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>10.07</v>
+        <v>10.45</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -13720,10 +15700,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>48748</v>
+        <v>49475</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>196416</v>
+        <v>203210</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -13733,10 +15713,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>9823</v>
+        <v>9943</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -13746,7 +15726,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>4.96</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -13756,7 +15736,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>26843</v>
+        <v>27371</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -13766,7 +15746,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>5955</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -13776,7 +15756,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
     </row>
   </sheetData>
@@ -13846,7 +15826,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -13864,7 +15844,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -13882,7 +15862,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -13900,7 +15880,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -13918,7 +15898,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -13936,7 +15916,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>13</v>
+        <v>3.72</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -13965,12 +15945,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -13983,15 +15963,15 @@
         </is>
       </c>
       <c r="B12" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>228</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="41" t="n">
-        <v>2302</v>
+      <c r="E12" s="54" t="n">
+        <v>2530</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -14001,15 +15981,15 @@
         </is>
       </c>
       <c r="B13" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>79</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="41" t="n">
-        <v>1723</v>
+      <c r="E13" s="54" t="n">
+        <v>1802</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -14019,15 +15999,15 @@
         </is>
       </c>
       <c r="B14" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>2.89</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="41" t="n">
-        <v>1.34</v>
+      <c r="E14" s="54" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -14037,15 +16017,15 @@
         </is>
       </c>
       <c r="B15" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>197</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="41" t="n">
-        <v>1583</v>
+      <c r="E15" s="54" t="n">
+        <v>1780</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -14055,15 +16035,15 @@
         </is>
       </c>
       <c r="B16" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>58</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="41" t="n">
-        <v>1392</v>
+      <c r="E16" s="54" t="n">
+        <v>1450</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -14073,15 +16053,15 @@
         </is>
       </c>
       <c r="B17" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>3.4</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="41" t="n">
-        <v>1.14</v>
+      <c r="E17" s="54" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -14120,7 +16100,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -14138,7 +16118,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -14156,7 +16136,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -14174,7 +16154,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -14192,7 +16172,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -14210,7 +16190,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>13</v>
+        <v>3.72</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -14257,7 +16237,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -14275,7 +16255,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -14293,7 +16273,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -14311,7 +16291,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -14329,7 +16309,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -14347,7 +16327,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>13</v>
+        <v>3.72</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -14384,10 +16364,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>2302</v>
+        <v>2530</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>240</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -14397,10 +16377,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>1723</v>
+        <v>1802</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -14410,7 +16390,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -14420,7 +16400,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>1583</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -14430,7 +16410,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>1392</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -14440,7 +16420,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -14510,7 +16490,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>124</v>
+        <v>443</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -14528,7 +16508,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -14546,7 +16526,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -14564,7 +16544,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>66</v>
+        <v>357</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -14582,7 +16562,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -14600,7 +16580,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>3.88</v>
+        <v>3.08</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -14629,12 +16609,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -14647,15 +16627,15 @@
         </is>
       </c>
       <c r="B12" s="41" t="n">
-        <v>124</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>26715</v>
+      <c r="E12" s="56" t="n">
+        <v>27158</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -14665,15 +16645,15 @@
         </is>
       </c>
       <c r="B13" s="41" t="n">
-        <v>31</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
-        <v>9079</v>
+      <c r="E13" s="56" t="n">
+        <v>9294</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -14683,15 +16663,15 @@
         </is>
       </c>
       <c r="B14" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>2.94</v>
+      <c r="E14" s="56" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -14701,15 +16681,15 @@
         </is>
       </c>
       <c r="B15" s="41" t="n">
-        <v>66</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
-        <v>15742</v>
+      <c r="E15" s="56" t="n">
+        <v>16099</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -14719,15 +16699,15 @@
         </is>
       </c>
       <c r="B16" s="41" t="n">
-        <v>17</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
-        <v>5937</v>
+      <c r="E16" s="56" t="n">
+        <v>6053</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -14737,15 +16717,15 @@
         </is>
       </c>
       <c r="B17" s="41" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>2.65</v>
+      <c r="E17" s="56" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -14784,7 +16764,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>124</v>
+        <v>443</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -14802,7 +16782,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -14820,7 +16800,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -14838,7 +16818,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>66</v>
+        <v>357</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -14856,7 +16836,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -14874,7 +16854,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>3.88</v>
+        <v>3.08</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -14921,7 +16901,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>124</v>
+        <v>443</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -14939,7 +16919,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -14957,7 +16937,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -14975,7 +16955,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>66</v>
+        <v>357</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -14993,7 +16973,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -15011,7 +16991,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>3.88</v>
+        <v>3.08</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -15048,10 +17028,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>26839</v>
+        <v>27158</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>71416</v>
+        <v>73384</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -15061,10 +17041,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>9110</v>
+        <v>9294</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -15074,7 +17054,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -15084,7 +17064,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>15808</v>
+        <v>16099</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -15094,7 +17074,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>5954</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -15174,7 +17154,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -15192,7 +17172,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -15210,7 +17190,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -15228,7 +17208,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -15246,7 +17226,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -15264,7 +17244,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -15293,12 +17273,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -15311,15 +17291,15 @@
         </is>
       </c>
       <c r="B12" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="41" t="n">
-        <v>2479</v>
+      <c r="E12" s="54" t="n">
+        <v>2703</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -15329,15 +17309,15 @@
         </is>
       </c>
       <c r="B13" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="41" t="n">
-        <v>1221</v>
+      <c r="E13" s="54" t="n">
+        <v>1360</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -15347,15 +17327,15 @@
         </is>
       </c>
       <c r="B14" s="41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="41" t="n">
-        <v>2.03</v>
+      <c r="E14" s="54" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -15367,13 +17347,13 @@
       <c r="B15" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="41" t="inlineStr">
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="41" t="n">
-        <v>1872</v>
+      <c r="E15" s="54" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -15383,15 +17363,15 @@
         </is>
       </c>
       <c r="B16" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="41" t="n">
-        <v>731</v>
+      <c r="E16" s="54" t="n">
+        <v>827</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -15403,13 +17383,13 @@
       <c r="B17" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="41" t="inlineStr">
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="41" t="n">
-        <v>2.56</v>
+      <c r="E17" s="54" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -15448,7 +17428,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -15466,7 +17446,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -15484,7 +17464,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -15502,7 +17482,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -15520,7 +17500,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -15538,7 +17518,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -15585,7 +17565,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -15603,7 +17583,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -15621,7 +17601,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -15639,7 +17619,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -15657,7 +17637,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -15675,7 +17655,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -15712,10 +17692,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>2482</v>
+        <v>2703</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>1285920</v>
+        <v>1291027</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -15725,10 +17705,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>1223</v>
+        <v>1360</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -15738,7 +17718,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -15748,7 +17728,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>1872</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -15758,7 +17738,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>733</v>
+        <v>827</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -15768,7 +17748,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -15838,7 +17818,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -15856,7 +17836,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -15874,7 +17854,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -15892,7 +17872,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -15910,7 +17890,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -15928,7 +17908,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>4.33</v>
+        <v>3.09</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -15957,12 +17937,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -15977,13 +17957,13 @@
       <c r="B12" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="41" t="inlineStr">
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="41" t="n">
-        <v>7983</v>
+      <c r="E12" s="54" t="n">
+        <v>8400</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -15995,13 +17975,13 @@
       <c r="B13" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="inlineStr">
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="41" t="n">
-        <v>4037</v>
+      <c r="E13" s="54" t="n">
+        <v>4240</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -16013,12 +17993,12 @@
       <c r="B14" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="41" t="inlineStr">
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="41" t="n">
+      <c r="E14" s="54" t="n">
         <v>1.98</v>
       </c>
     </row>
@@ -16031,13 +18011,13 @@
       <c r="B15" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="41" t="inlineStr">
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="41" t="n">
-        <v>6672</v>
+      <c r="E15" s="54" t="n">
+        <v>6999</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -16049,13 +18029,13 @@
       <c r="B16" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="41" t="inlineStr">
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="41" t="n">
-        <v>2609</v>
+      <c r="E16" s="54" t="n">
+        <v>2716</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -16067,13 +18047,13 @@
       <c r="B17" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="41" t="inlineStr">
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="41" t="n">
-        <v>2.56</v>
+      <c r="E17" s="54" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -16112,7 +18092,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -16130,7 +18110,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -16148,7 +18128,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -16166,7 +18146,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -16184,7 +18164,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -16202,7 +18182,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>4.33</v>
+        <v>3.09</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -16249,7 +18229,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -16267,7 +18247,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -16285,7 +18265,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -16303,7 +18283,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -16321,7 +18301,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -16339,7 +18319,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>4.33</v>
+        <v>3.09</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -16376,10 +18356,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>7983</v>
+        <v>8400</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>73495</v>
+        <v>77786</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -16389,10 +18369,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>4037</v>
+        <v>4240</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -16412,7 +18392,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>6672</v>
+        <v>6999</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -16422,7 +18402,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>2609</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -16432,7 +18412,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
     </row>
   </sheetData>
@@ -16502,7 +18482,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>5</v>
+        <v>376</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -16520,7 +18500,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -16538,7 +18518,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -16556,7 +18536,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>7</v>
+        <v>366</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -16574,7 +18554,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -16592,7 +18572,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>7</v>
+        <v>4.16</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -16621,12 +18601,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -16641,13 +18621,13 @@
       <c r="B12" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="41" t="inlineStr">
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="41" t="n">
-        <v>16423</v>
+      <c r="E12" s="54" t="n">
+        <v>16794</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -16659,13 +18639,13 @@
       <c r="B13" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="inlineStr">
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="41" t="n">
-        <v>6707</v>
+      <c r="E13" s="54" t="n">
+        <v>6904</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -16677,13 +18657,13 @@
       <c r="B14" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="41" t="inlineStr">
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="41" t="n">
-        <v>2.45</v>
+      <c r="E14" s="54" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -16695,13 +18675,13 @@
       <c r="B15" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="41" t="inlineStr">
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="41" t="n">
-        <v>12972</v>
+      <c r="E15" s="54" t="n">
+        <v>13331</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -16713,13 +18693,13 @@
       <c r="B16" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="41" t="inlineStr">
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="41" t="n">
-        <v>4072</v>
+      <c r="E16" s="54" t="n">
+        <v>4160</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -16731,13 +18711,13 @@
       <c r="B17" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="41" t="inlineStr">
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="41" t="n">
-        <v>3.19</v>
+      <c r="E17" s="54" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -16776,7 +18756,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>5</v>
+        <v>376</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -16794,7 +18774,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -16812,7 +18792,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -16830,7 +18810,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>7</v>
+        <v>366</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -16848,7 +18828,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -16866,7 +18846,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>7</v>
+        <v>4.16</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -16913,7 +18893,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>5</v>
+        <v>376</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -16931,7 +18911,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -16949,7 +18929,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -16967,7 +18947,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>7</v>
+        <v>366</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -16985,7 +18965,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -17003,7 +18983,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>7</v>
+        <v>4.16</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -17040,10 +19020,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>16423</v>
+        <v>16794</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>61334</v>
+        <v>67478</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -17053,10 +19033,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>6707</v>
+        <v>6904</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -17066,7 +19046,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -17076,7 +19056,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>12972</v>
+        <v>13331</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -17086,7 +19066,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>4072</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -17096,7 +19076,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -17166,7 +19146,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>119</v>
+        <v>629</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -17184,7 +19164,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -17202,7 +19182,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>3.72</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -17220,7 +19200,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -17238,7 +19218,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -17256,7 +19236,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -17285,12 +19265,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -17303,15 +19283,15 @@
         </is>
       </c>
       <c r="B12" s="41" t="n">
-        <v>119</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>1680</v>
+      <c r="E12" s="56" t="n">
+        <v>2309</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -17321,15 +19301,15 @@
         </is>
       </c>
       <c r="B13" s="41" t="n">
-        <v>32</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
-        <v>609</v>
+      <c r="E13" s="56" t="n">
+        <v>826</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -17339,15 +19319,15 @@
         </is>
       </c>
       <c r="B14" s="41" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>2.76</v>
+      <c r="E14" s="56" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -17357,15 +19337,15 @@
         </is>
       </c>
       <c r="B15" s="41" t="n">
-        <v>37</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
-        <v>775</v>
+      <c r="E15" s="56" t="n">
+        <v>1095</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -17375,15 +19355,15 @@
         </is>
       </c>
       <c r="B16" s="41" t="n">
-        <v>26</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
-        <v>475</v>
+      <c r="E16" s="56" t="n">
+        <v>640</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -17393,15 +19373,15 @@
         </is>
       </c>
       <c r="B17" s="41" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>1.63</v>
+      <c r="E17" s="56" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -17440,7 +19420,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>119</v>
+        <v>629</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -17458,7 +19438,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -17476,7 +19456,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>3.72</v>
+        <v>2.9</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -17494,7 +19474,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -17512,7 +19492,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -17530,7 +19510,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -17577,7 +19557,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>119</v>
+        <v>629</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -17595,7 +19575,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -17613,7 +19593,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>3.72</v>
+        <v>2.9</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -17631,7 +19611,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -17649,7 +19629,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -17667,7 +19647,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -17704,10 +19684,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>1799</v>
+        <v>2309</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>11340</v>
+        <v>11120</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -17717,10 +19697,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>641</v>
+        <v>826</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -17730,7 +19710,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -17740,7 +19720,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>812</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -17750,7 +19730,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>501</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -17760,7 +19740,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>
@@ -17830,7 +19810,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -17848,7 +19828,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -17866,7 +19846,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>20.83</v>
+        <v>25.36</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -17884,7 +19864,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -17902,7 +19882,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -17920,7 +19900,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>9.199999999999999</v>
+        <v>15.62</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -17949,12 +19929,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -17967,15 +19947,15 @@
         </is>
       </c>
       <c r="B12" s="41" t="n">
-        <v>125</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="41" t="n">
-        <v>52948</v>
+      <c r="E12" s="54" t="n">
+        <v>53227</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -17985,15 +19965,15 @@
         </is>
       </c>
       <c r="B13" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="41" t="n">
-        <v>3466</v>
+      <c r="E13" s="54" t="n">
+        <v>3477</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -18003,15 +19983,15 @@
         </is>
       </c>
       <c r="B14" s="41" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="41" t="n">
-        <v>15.28</v>
+      <c r="E14" s="54" t="n">
+        <v>15.31</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -18021,15 +20001,15 @@
         </is>
       </c>
       <c r="B15" s="41" t="n">
-        <v>46</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="41" t="n">
-        <v>23155</v>
+      <c r="E15" s="54" t="n">
+        <v>23280</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -18039,15 +20019,15 @@
         </is>
       </c>
       <c r="B16" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="41" t="n">
-        <v>2030</v>
+      <c r="E16" s="54" t="n">
+        <v>2038</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -18057,15 +20037,15 @@
         </is>
       </c>
       <c r="B17" s="41" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="41" t="n">
-        <v>11.41</v>
+      <c r="E17" s="54" t="n">
+        <v>11.42</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -18104,7 +20084,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -18122,7 +20102,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -18140,7 +20120,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>20.83</v>
+        <v>25.36</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -18158,7 +20138,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -18176,7 +20156,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -18194,7 +20174,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>9.199999999999999</v>
+        <v>15.62</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -18241,7 +20221,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -18259,7 +20239,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -18277,7 +20257,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>20.83</v>
+        <v>25.36</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -18295,7 +20275,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -18313,7 +20293,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -18331,7 +20311,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>9.199999999999999</v>
+        <v>15.62</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -18368,10 +20348,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>53073</v>
+        <v>53227</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>321679</v>
+        <v>322827</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -18381,10 +20361,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>3472</v>
+        <v>3477</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -18394,7 +20374,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>15.29</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -18404,7 +20384,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>23201</v>
+        <v>23280</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -18414,7 +20394,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>2035</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -18424,7 +20404,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>11.4</v>
+        <v>11.42</v>
       </c>
     </row>
   </sheetData>
@@ -18494,7 +20474,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>159</v>
+        <v>1329</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -18512,7 +20492,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -18530,7 +20510,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>9.94</v>
+        <v>10.8</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -18548,7 +20528,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>53</v>
+        <v>574</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -18566,7 +20546,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -18584,7 +20564,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>6.62</v>
+        <v>12.21</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -18613,12 +20593,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -18631,15 +20611,15 @@
         </is>
       </c>
       <c r="B12" s="41" t="n">
-        <v>159</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>1329</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="26" t="n">
-        <v>38998</v>
+      <c r="E12" s="55" t="n">
+        <v>40327</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -18649,15 +20629,15 @@
         </is>
       </c>
       <c r="B13" s="41" t="n">
-        <v>16</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>123</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="26" t="n">
-        <v>6090</v>
+      <c r="E13" s="55" t="n">
+        <v>6213</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -18667,15 +20647,15 @@
         </is>
       </c>
       <c r="B14" s="41" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>10.8</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="27" t="n">
-        <v>6.4</v>
+      <c r="E14" s="56" t="n">
+        <v>6.49</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -18685,15 +20665,15 @@
         </is>
       </c>
       <c r="B15" s="41" t="n">
-        <v>53</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>574</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="26" t="n">
-        <v>14705</v>
+      <c r="E15" s="55" t="n">
+        <v>15279</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -18703,15 +20683,15 @@
         </is>
       </c>
       <c r="B16" s="41" t="n">
-        <v>8</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>47</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="26" t="n">
-        <v>3122</v>
+      <c r="E16" s="55" t="n">
+        <v>3169</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -18721,15 +20701,15 @@
         </is>
       </c>
       <c r="B17" s="41" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>12.21</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="27" t="n">
-        <v>4.71</v>
+      <c r="E17" s="56" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -18768,7 +20748,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>159</v>
+        <v>1329</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -18786,7 +20766,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -18804,7 +20784,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>9.94</v>
+        <v>10.8</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -18822,7 +20802,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>53</v>
+        <v>574</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -18840,7 +20820,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -18858,7 +20838,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>6.62</v>
+        <v>12.21</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -18905,7 +20885,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>159</v>
+        <v>1329</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -18923,7 +20903,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -18941,7 +20921,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>9.94</v>
+        <v>10.8</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -18959,7 +20939,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>53</v>
+        <v>574</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -18977,7 +20957,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -18995,7 +20975,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>6.62</v>
+        <v>12.21</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -19032,10 +21012,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>39157</v>
+        <v>40327</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>677367</v>
+        <v>687732</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -19045,10 +21025,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>6106</v>
+        <v>6213</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>756</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -19058,7 +21038,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>6.41</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -19068,7 +21048,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>14758</v>
+        <v>15279</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -19078,7 +21058,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>3130</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -19088,7 +21068,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>4.72</v>
+        <v>4.82</v>
       </c>
     </row>
   </sheetData>
@@ -19158,7 +21138,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -19176,7 +21156,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -19194,7 +21174,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -19212,7 +21192,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -19230,7 +21210,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -19248,7 +21228,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -19277,12 +21257,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -19297,13 +21277,13 @@
       <c r="B12" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="41" t="inlineStr">
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>8547</v>
+      <c r="E12" s="56" t="n">
+        <v>9394</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="28">
@@ -19315,13 +21295,13 @@
       <c r="B13" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="inlineStr">
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
-        <v>2373</v>
+      <c r="E13" s="56" t="n">
+        <v>2551</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="28">
@@ -19333,13 +21313,13 @@
       <c r="B14" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="41" t="inlineStr">
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>3.6</v>
+      <c r="E14" s="56" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="28">
@@ -19351,13 +21331,13 @@
       <c r="B15" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="41" t="inlineStr">
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
-        <v>6141</v>
+      <c r="E15" s="56" t="n">
+        <v>6741</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="28">
@@ -19369,13 +21349,13 @@
       <c r="B16" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="41" t="inlineStr">
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
-        <v>941</v>
+      <c r="E16" s="56" t="n">
+        <v>1003</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="28">
@@ -19387,13 +21367,13 @@
       <c r="B17" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="41" t="inlineStr">
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>6.53</v>
+      <c r="E17" s="56" t="n">
+        <v>6.72</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="28">
@@ -19432,7 +21412,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -19450,7 +21430,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -19468,7 +21448,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -19486,7 +21466,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -19504,7 +21484,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -19522,7 +21502,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -19569,7 +21549,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -19587,7 +21567,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -19605,7 +21585,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -19623,7 +21603,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -19641,7 +21621,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -19659,7 +21639,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -19696,10 +21676,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>8547</v>
+        <v>9394</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>87049</v>
+        <v>98269</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" s="28">
@@ -19709,10 +21689,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>2373</v>
+        <v>2551</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="28">
@@ -19722,7 +21702,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" s="28">
@@ -19732,7 +21712,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>6141</v>
+        <v>6741</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" s="28">
@@ -19742,7 +21722,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>941</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" s="28">
@@ -19752,7 +21732,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>6.53</v>
+        <v>6.72</v>
       </c>
     </row>
   </sheetData>
@@ -19831,7 +21811,7 @@
         </is>
       </c>
       <c r="B3" s="40" t="n">
-        <v>4566</v>
+        <v>6381</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -19849,7 +21829,7 @@
         </is>
       </c>
       <c r="B4" s="40" t="n">
-        <v>713</v>
+        <v>918</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -19867,7 +21847,7 @@
         </is>
       </c>
       <c r="B5" s="40" t="n">
-        <v>6.4</v>
+        <v>6.95</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -19885,7 +21865,7 @@
         </is>
       </c>
       <c r="B6" s="40" t="n">
-        <v>2321</v>
+        <v>3296</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -19903,7 +21883,7 @@
         </is>
       </c>
       <c r="B7" s="40" t="n">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -19921,7 +21901,7 @@
         </is>
       </c>
       <c r="B8" s="40" t="n">
-        <v>6.24</v>
+        <v>6.95</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -19956,12 +21936,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="45" t="inlineStr">
+      <c r="E11" s="53" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -19976,13 +21956,13 @@
       <c r="B12" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="41" t="inlineStr">
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="42" t="n">
-        <v>5222</v>
+      <c r="E12" s="55" t="n">
+        <v>7037</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" s="28">
@@ -19994,13 +21974,13 @@
       <c r="B13" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="inlineStr">
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="42" t="n">
-        <v>817</v>
+      <c r="E13" s="55" t="n">
+        <v>1022</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" s="28">
@@ -20012,13 +21992,13 @@
       <c r="B14" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="41" t="inlineStr">
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>6.39</v>
+      <c r="E14" s="56" t="n">
+        <v>6.89</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" s="28">
@@ -20030,13 +22010,13 @@
       <c r="B15" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="41" t="inlineStr">
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="42" t="n">
-        <v>2616</v>
+      <c r="E15" s="55" t="n">
+        <v>3591</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="28">
@@ -20048,13 +22028,13 @@
       <c r="B16" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="41" t="inlineStr">
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="42" t="n">
-        <v>441</v>
+      <c r="E16" s="55" t="n">
+        <v>543</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" s="28">
@@ -20066,13 +22046,13 @@
       <c r="B17" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="41" t="inlineStr">
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>5.93</v>
+      <c r="E17" s="56" t="n">
+        <v>6.61</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" s="28"/>
@@ -20117,7 +22097,7 @@
         </is>
       </c>
       <c r="B21" s="46" t="n">
-        <v>329</v>
+        <v>2144</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -20135,7 +22115,7 @@
         </is>
       </c>
       <c r="B22" s="46" t="n">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -20153,7 +22133,7 @@
         </is>
       </c>
       <c r="B23" s="46" t="n">
-        <v>8.890000000000001</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -20171,7 +22151,7 @@
         </is>
       </c>
       <c r="B24" s="46" t="n">
-        <v>143</v>
+        <v>1118</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -20189,7 +22169,7 @@
         </is>
       </c>
       <c r="B25" s="46" t="n">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -20207,7 +22187,7 @@
         </is>
       </c>
       <c r="B26" s="46" t="n">
-        <v>5.3</v>
+        <v>8.67</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -20260,7 +22240,7 @@
         </is>
       </c>
       <c r="B30" s="40" t="n">
-        <v>329</v>
+        <v>2144</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -20278,7 +22258,7 @@
         </is>
       </c>
       <c r="B31" s="40" t="n">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -20296,7 +22276,7 @@
         </is>
       </c>
       <c r="B32" s="40" t="n">
-        <v>8.890000000000001</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -20314,7 +22294,7 @@
         </is>
       </c>
       <c r="B33" s="40" t="n">
-        <v>143</v>
+        <v>1118</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -20332,7 +22312,7 @@
         </is>
       </c>
       <c r="B34" s="40" t="n">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -20350,7 +22330,7 @@
         </is>
       </c>
       <c r="B35" s="40" t="n">
-        <v>5.3</v>
+        <v>8.67</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -20393,10 +22373,10 @@
         </is>
       </c>
       <c r="B39" s="46" t="n">
-        <v>5222</v>
+        <v>7037</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>51080</v>
+        <v>58830</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="28">
@@ -20406,10 +22386,10 @@
         </is>
       </c>
       <c r="B40" s="46" t="n">
-        <v>817</v>
+        <v>1022</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="28">
@@ -20419,7 +22399,7 @@
         </is>
       </c>
       <c r="B41" s="40" t="n">
-        <v>6.39</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" s="28">
@@ -20429,7 +22409,7 @@
         </is>
       </c>
       <c r="B42" s="46" t="n">
-        <v>2616</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="28">
@@ -20439,7 +22419,7 @@
         </is>
       </c>
       <c r="B43" s="46" t="n">
-        <v>441</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="28">
@@ -20449,7 +22429,7 @@
         </is>
       </c>
       <c r="B44" s="40" t="n">
-        <v>5.93</v>
+        <v>6.61</v>
       </c>
     </row>
   </sheetData>
@@ -20528,7 +22508,7 @@
         </is>
       </c>
       <c r="B3" s="46" t="n">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
@@ -20546,7 +22526,7 @@
         </is>
       </c>
       <c r="B4" s="46" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D4" s="39" t="inlineStr">
         <is>
@@ -20564,7 +22544,7 @@
         </is>
       </c>
       <c r="B5" s="46" t="n">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="D5" s="39" t="inlineStr">
         <is>
@@ -20582,7 +22562,7 @@
         </is>
       </c>
       <c r="B6" s="46" t="n">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="D6" s="39" t="inlineStr">
         <is>
@@ -20600,7 +22580,7 @@
         </is>
       </c>
       <c r="B7" s="46" t="n">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D7" s="39" t="inlineStr">
         <is>
@@ -20618,7 +22598,7 @@
         </is>
       </c>
       <c r="B8" s="46" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="D8" s="39" t="inlineStr">
         <is>
@@ -20653,12 +22633,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="45" t="inlineStr">
+      <c r="E11" s="53" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -20671,15 +22651,15 @@
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>4789</v>
+      <c r="E12" s="56" t="n">
+        <v>5005</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" s="28">
@@ -20689,15 +22669,15 @@
         </is>
       </c>
       <c r="B13" s="40" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
-        <v>2982</v>
+      <c r="E13" s="56" t="n">
+        <v>3106</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" s="28">
@@ -20707,14 +22687,14 @@
         </is>
       </c>
       <c r="B14" s="40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
+      <c r="E14" s="56" t="n">
         <v>1.61</v>
       </c>
     </row>
@@ -20725,15 +22705,15 @@
         </is>
       </c>
       <c r="B15" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
-        <v>2947</v>
+      <c r="E15" s="56" t="n">
+        <v>3099</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="28">
@@ -20743,15 +22723,15 @@
         </is>
       </c>
       <c r="B16" s="40" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
-        <v>2332</v>
+      <c r="E16" s="56" t="n">
+        <v>2427</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" s="28">
@@ -20761,15 +22741,15 @@
         </is>
       </c>
       <c r="B17" s="40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>1.26</v>
+      <c r="E17" s="56" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" s="28"/>
@@ -20814,7 +22794,7 @@
         </is>
       </c>
       <c r="B21" s="40" t="n">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -20832,7 +22812,7 @@
         </is>
       </c>
       <c r="B22" s="40" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -20850,7 +22830,7 @@
         </is>
       </c>
       <c r="B23" s="40" t="n">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -20868,7 +22848,7 @@
         </is>
       </c>
       <c r="B24" s="40" t="n">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -20886,7 +22866,7 @@
         </is>
       </c>
       <c r="B25" s="40" t="n">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -20904,7 +22884,7 @@
         </is>
       </c>
       <c r="B26" s="40" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -20957,7 +22937,7 @@
         </is>
       </c>
       <c r="B30" s="40" t="n">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -20975,7 +22955,7 @@
         </is>
       </c>
       <c r="B31" s="40" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -20993,7 +22973,7 @@
         </is>
       </c>
       <c r="B32" s="40" t="n">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -21011,7 +22991,7 @@
         </is>
       </c>
       <c r="B33" s="40" t="n">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -21029,7 +23009,7 @@
         </is>
       </c>
       <c r="B34" s="40" t="n">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -21047,7 +23027,7 @@
         </is>
       </c>
       <c r="B35" s="40" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -21090,10 +23070,10 @@
         </is>
       </c>
       <c r="B39" s="46" t="n">
-        <v>4794</v>
+        <v>5005</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>39470</v>
+        <v>43030</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="28">
@@ -21103,10 +23083,10 @@
         </is>
       </c>
       <c r="B40" s="46" t="n">
-        <v>2985</v>
+        <v>3106</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="28">
@@ -21126,7 +23106,7 @@
         </is>
       </c>
       <c r="B42" s="46" t="n">
-        <v>2951</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="28">
@@ -21136,7 +23116,7 @@
         </is>
       </c>
       <c r="B43" s="46" t="n">
-        <v>2335</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="28">
@@ -21146,7 +23126,7 @@
         </is>
       </c>
       <c r="B44" s="40" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>
@@ -21350,12 +23330,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="45" t="inlineStr">
+      <c r="E11" s="53" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -21370,12 +23350,12 @@
       <c r="B12" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="41" t="inlineStr">
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
+      <c r="E12" s="56" t="n">
         <v>35842</v>
       </c>
     </row>
@@ -21388,12 +23368,12 @@
       <c r="B13" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="inlineStr">
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
+      <c r="E13" s="56" t="n">
         <v>9910</v>
       </c>
     </row>
@@ -21406,12 +23386,12 @@
       <c r="B14" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="41" t="inlineStr">
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
+      <c r="E14" s="56" t="n">
         <v>3.62</v>
       </c>
     </row>
@@ -21424,12 +23404,12 @@
       <c r="B15" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="41" t="inlineStr">
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
+      <c r="E15" s="56" t="n">
         <v>18435</v>
       </c>
     </row>
@@ -21442,12 +23422,12 @@
       <c r="B16" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="41" t="inlineStr">
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
+      <c r="E16" s="56" t="n">
         <v>6127</v>
       </c>
     </row>
@@ -21460,12 +23440,12 @@
       <c r="B17" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="41" t="inlineStr">
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
+      <c r="E17" s="56" t="n">
         <v>3.01</v>
       </c>
     </row>
@@ -21919,7 +23899,7 @@
         </is>
       </c>
       <c r="B3" s="39" t="n">
-        <v>164</v>
+        <v>452</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -21937,7 +23917,7 @@
         </is>
       </c>
       <c r="B4" s="39" t="n">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -21955,7 +23935,7 @@
         </is>
       </c>
       <c r="B5" s="39" t="n">
-        <v>3.09</v>
+        <v>3.37</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -21973,7 +23953,7 @@
         </is>
       </c>
       <c r="B6" s="39" t="n">
-        <v>180</v>
+        <v>529</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -21991,7 +23971,7 @@
         </is>
       </c>
       <c r="B7" s="39" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -22009,7 +23989,7 @@
         </is>
       </c>
       <c r="B8" s="39" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -22044,12 +24024,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -22062,15 +24042,15 @@
         </is>
       </c>
       <c r="B12" s="39" t="n">
-        <v>126</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>414</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>13982</v>
+      <c r="E12" s="56" t="n">
+        <v>14396</v>
       </c>
       <c r="F12" s="26" t="n"/>
       <c r="G12" s="26" t="n"/>
@@ -22086,15 +24066,15 @@
         </is>
       </c>
       <c r="B13" s="39" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>121</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
-        <v>4838</v>
+      <c r="E13" s="56" t="n">
+        <v>4959</v>
       </c>
       <c r="G13" s="26" t="n"/>
     </row>
@@ -22105,15 +24085,15 @@
         </is>
       </c>
       <c r="B14" s="39" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>2.89</v>
+      <c r="E14" s="56" t="n">
+        <v>2.9</v>
       </c>
       <c r="G14" s="26" t="n"/>
     </row>
@@ -22124,15 +24104,15 @@
         </is>
       </c>
       <c r="B15" s="39" t="n">
-        <v>144</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>493</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
-        <v>10167</v>
+      <c r="E15" s="56" t="n">
+        <v>10660</v>
       </c>
       <c r="G15" s="27" t="n"/>
     </row>
@@ -22143,15 +24123,15 @@
         </is>
       </c>
       <c r="B16" s="39" t="n">
-        <v>11</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>42</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
-        <v>2639</v>
+      <c r="E16" s="56" t="n">
+        <v>2681</v>
       </c>
       <c r="G16" s="26" t="n"/>
     </row>
@@ -22162,15 +24142,15 @@
         </is>
       </c>
       <c r="B17" s="39" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>11.74</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>3.85</v>
+      <c r="E17" s="56" t="n">
+        <v>3.98</v>
       </c>
       <c r="G17" s="26" t="n"/>
     </row>
@@ -22218,7 +24198,7 @@
         </is>
       </c>
       <c r="B21" s="39" t="n">
-        <v>164</v>
+        <v>452</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -22236,7 +24216,7 @@
         </is>
       </c>
       <c r="B22" s="39" t="n">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -22254,7 +24234,7 @@
         </is>
       </c>
       <c r="B23" s="39" t="n">
-        <v>3.09</v>
+        <v>3.37</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -22272,7 +24252,7 @@
         </is>
       </c>
       <c r="B24" s="39" t="n">
-        <v>180</v>
+        <v>529</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -22290,7 +24270,7 @@
         </is>
       </c>
       <c r="B25" s="39" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -22308,7 +24288,7 @@
         </is>
       </c>
       <c r="B26" s="39" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -22361,7 +24341,7 @@
         </is>
       </c>
       <c r="B30" s="39" t="n">
-        <v>164</v>
+        <v>452</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -22379,7 +24359,7 @@
         </is>
       </c>
       <c r="B31" s="39" t="n">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -22397,7 +24377,7 @@
         </is>
       </c>
       <c r="B32" s="39" t="n">
-        <v>3.09</v>
+        <v>3.37</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -22415,7 +24395,7 @@
         </is>
       </c>
       <c r="B33" s="39" t="n">
-        <v>180</v>
+        <v>529</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -22433,7 +24413,7 @@
         </is>
       </c>
       <c r="B34" s="39" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -22451,7 +24431,7 @@
         </is>
       </c>
       <c r="B35" s="39" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -22494,10 +24474,10 @@
         </is>
       </c>
       <c r="B39" s="39" t="n">
-        <v>14108</v>
+        <v>14396</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>1372080</v>
+        <v>1391780</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="28">
@@ -22507,10 +24487,10 @@
         </is>
       </c>
       <c r="B40" s="39" t="n">
-        <v>4878</v>
+        <v>4959</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>1077</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="28">
@@ -22520,7 +24500,7 @@
         </is>
       </c>
       <c r="B41" s="39" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" s="28">
@@ -22530,7 +24510,7 @@
         </is>
       </c>
       <c r="B42" s="39" t="n">
-        <v>10311</v>
+        <v>10660</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="28">
@@ -22540,7 +24520,7 @@
         </is>
       </c>
       <c r="B43" s="39" t="n">
-        <v>2650</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="28">
@@ -22550,7 +24530,7 @@
         </is>
       </c>
       <c r="B44" s="39" t="n">
-        <v>3.89</v>
+        <v>3.98</v>
       </c>
     </row>
   </sheetData>
@@ -22627,7 +24607,7 @@
         </is>
       </c>
       <c r="B3" s="40" t="n">
-        <v>100</v>
+        <v>702</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -22645,7 +24625,7 @@
         </is>
       </c>
       <c r="B4" s="40" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -22663,7 +24643,7 @@
         </is>
       </c>
       <c r="B5" s="40" t="n">
-        <v>7.69</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -22681,7 +24661,7 @@
         </is>
       </c>
       <c r="B6" s="40" t="n">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -22699,7 +24679,7 @@
         </is>
       </c>
       <c r="B7" s="40" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -22717,7 +24697,7 @@
         </is>
       </c>
       <c r="B8" s="40" t="n">
-        <v>14.8</v>
+        <v>9.19</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -22752,12 +24732,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -22770,15 +24750,15 @@
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>73</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>16327</v>
+      <c r="E12" s="56" t="n">
+        <v>17002</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" s="28">
@@ -22788,15 +24768,15 @@
         </is>
       </c>
       <c r="B13" s="40" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
-        <v>4354</v>
+      <c r="E13" s="56" t="n">
+        <v>4428</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" s="28">
@@ -22806,15 +24786,15 @@
         </is>
       </c>
       <c r="B14" s="40" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>3.75</v>
+      <c r="E14" s="56" t="n">
+        <v>3.84</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" s="28">
@@ -22824,15 +24804,15 @@
         </is>
       </c>
       <c r="B15" s="40" t="n">
-        <v>55</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
-        <v>7966</v>
+      <c r="E15" s="56" t="n">
+        <v>8342</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="28">
@@ -22842,15 +24822,15 @@
         </is>
       </c>
       <c r="B16" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
-        <v>2850</v>
+      <c r="E16" s="56" t="n">
+        <v>2890</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" s="28">
@@ -22860,15 +24840,15 @@
         </is>
       </c>
       <c r="B17" s="40" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>2.8</v>
+      <c r="E17" s="56" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" s="28"/>
@@ -22913,7 +24893,7 @@
         </is>
       </c>
       <c r="B21" s="40" t="n">
-        <v>100</v>
+        <v>702</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -22931,7 +24911,7 @@
         </is>
       </c>
       <c r="B22" s="40" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -22949,7 +24929,7 @@
         </is>
       </c>
       <c r="B23" s="40" t="n">
-        <v>7.69</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -22967,7 +24947,7 @@
         </is>
       </c>
       <c r="B24" s="40" t="n">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -22985,7 +24965,7 @@
         </is>
       </c>
       <c r="B25" s="40" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -23003,7 +24983,7 @@
         </is>
       </c>
       <c r="B26" s="40" t="n">
-        <v>14.8</v>
+        <v>9.19</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -23056,7 +25036,7 @@
         </is>
       </c>
       <c r="B30" s="40" t="n">
-        <v>100</v>
+        <v>702</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -23074,7 +25054,7 @@
         </is>
       </c>
       <c r="B31" s="40" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -23092,7 +25072,7 @@
         </is>
       </c>
       <c r="B32" s="40" t="n">
-        <v>7.69</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -23110,7 +25090,7 @@
         </is>
       </c>
       <c r="B33" s="40" t="n">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -23128,7 +25108,7 @@
         </is>
       </c>
       <c r="B34" s="40" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -23146,7 +25126,7 @@
         </is>
       </c>
       <c r="B35" s="40" t="n">
-        <v>14.8</v>
+        <v>9.19</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -23189,10 +25169,10 @@
         </is>
       </c>
       <c r="B39" s="46" t="n">
-        <v>16400</v>
+        <v>17002</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>69937</v>
+        <v>75809</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="28">
@@ -23202,10 +25182,10 @@
         </is>
       </c>
       <c r="B40" s="46" t="n">
-        <v>4362</v>
+        <v>4428</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="28">
@@ -23215,7 +25195,7 @@
         </is>
       </c>
       <c r="B41" s="40" t="n">
-        <v>3.76</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" s="28">
@@ -23225,7 +25205,7 @@
         </is>
       </c>
       <c r="B42" s="46" t="n">
-        <v>8021</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="28">
@@ -23235,7 +25215,7 @@
         </is>
       </c>
       <c r="B43" s="46" t="n">
-        <v>2852</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="28">
@@ -23245,7 +25225,7 @@
         </is>
       </c>
       <c r="B44" s="40" t="n">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
     </row>
   </sheetData>
@@ -23324,7 +25304,7 @@
         </is>
       </c>
       <c r="B3" s="40" t="n">
-        <v>816</v>
+        <v>2654</v>
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
@@ -23342,7 +25322,7 @@
         </is>
       </c>
       <c r="B4" s="40" t="n">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="D4" s="39" t="inlineStr">
         <is>
@@ -23360,7 +25340,7 @@
         </is>
       </c>
       <c r="B5" s="40" t="n">
-        <v>7.63</v>
+        <v>7.58</v>
       </c>
       <c r="D5" s="39" t="inlineStr">
         <is>
@@ -23378,7 +25358,7 @@
         </is>
       </c>
       <c r="B6" s="40" t="n">
-        <v>469</v>
+        <v>1424</v>
       </c>
       <c r="D6" s="39" t="inlineStr">
         <is>
@@ -23396,7 +25376,7 @@
         </is>
       </c>
       <c r="B7" s="40" t="n">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="D7" s="39" t="inlineStr">
         <is>
@@ -23414,7 +25394,7 @@
         </is>
       </c>
       <c r="B8" s="40" t="n">
-        <v>7.33</v>
+        <v>6.98</v>
       </c>
       <c r="D8" s="39" t="inlineStr">
         <is>
@@ -23449,12 +25429,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="45" t="inlineStr">
+      <c r="E11" s="53" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -23467,15 +25447,15 @@
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>257</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="43" t="n">
-        <v>25529</v>
+      <c r="E12" s="56" t="n">
+        <v>27624</v>
       </c>
       <c r="G12" s="26" t="n"/>
       <c r="H12" s="26" t="n"/>
@@ -23491,15 +25471,15 @@
         </is>
       </c>
       <c r="B13" s="40" t="n">
-        <v>42</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="43" t="n">
-        <v>8474</v>
+      <c r="E13" s="56" t="n">
+        <v>8759</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" s="28">
@@ -23509,15 +25489,15 @@
         </is>
       </c>
       <c r="B14" s="40" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="43" t="n">
-        <v>3.01</v>
+      <c r="E14" s="56" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" s="28">
@@ -23527,15 +25507,15 @@
         </is>
       </c>
       <c r="B15" s="40" t="n">
-        <v>140</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="43" t="n">
-        <v>11256</v>
+      <c r="E15" s="56" t="n">
+        <v>12351</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="28">
@@ -23545,15 +25525,15 @@
         </is>
       </c>
       <c r="B16" s="40" t="n">
-        <v>26</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="43" t="n">
-        <v>5951</v>
+      <c r="E16" s="56" t="n">
+        <v>6117</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" s="28">
@@ -23563,15 +25543,15 @@
         </is>
       </c>
       <c r="B17" s="40" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="43" t="n">
-        <v>1.89</v>
+      <c r="E17" s="56" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" s="28"/>
@@ -23616,7 +25596,7 @@
         </is>
       </c>
       <c r="B21" s="40" t="n">
-        <v>441</v>
+        <v>2279</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -23634,7 +25614,7 @@
         </is>
       </c>
       <c r="B22" s="40" t="n">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -23652,7 +25632,7 @@
         </is>
       </c>
       <c r="B23" s="40" t="n">
-        <v>6.12</v>
+        <v>7.23</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -23670,7 +25650,7 @@
         </is>
       </c>
       <c r="B24" s="40" t="n">
-        <v>232</v>
+        <v>1187</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -23688,7 +25668,7 @@
         </is>
       </c>
       <c r="B25" s="40" t="n">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -23706,7 +25686,7 @@
         </is>
       </c>
       <c r="B26" s="40" t="n">
-        <v>4.73</v>
+        <v>6.28</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -23759,7 +25739,7 @@
         </is>
       </c>
       <c r="B30" s="40" t="n">
-        <v>441</v>
+        <v>2279</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -23777,7 +25757,7 @@
         </is>
       </c>
       <c r="B31" s="40" t="n">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -23795,7 +25775,7 @@
         </is>
       </c>
       <c r="B32" s="40" t="n">
-        <v>6.12</v>
+        <v>7.23</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -23813,7 +25793,7 @@
         </is>
       </c>
       <c r="B33" s="40" t="n">
-        <v>232</v>
+        <v>1187</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -23831,7 +25811,7 @@
         </is>
       </c>
       <c r="B34" s="40" t="n">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -23849,7 +25829,7 @@
         </is>
       </c>
       <c r="B35" s="40" t="n">
-        <v>4.73</v>
+        <v>6.28</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -23892,10 +25872,10 @@
         </is>
       </c>
       <c r="B39" s="46" t="n">
-        <v>25786</v>
+        <v>27624</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>152490</v>
+        <v>168512</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1" s="28">
@@ -23905,10 +25885,10 @@
         </is>
       </c>
       <c r="B40" s="46" t="n">
-        <v>8516</v>
+        <v>8759</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1" s="28">
@@ -23918,7 +25898,7 @@
         </is>
       </c>
       <c r="B41" s="46" t="n">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1" s="28">
@@ -23928,7 +25908,7 @@
         </is>
       </c>
       <c r="B42" s="46" t="n">
-        <v>11396</v>
+        <v>12351</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1" s="28">
@@ -23938,7 +25918,7 @@
         </is>
       </c>
       <c r="B43" s="46" t="n">
-        <v>5977</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1" s="28">
@@ -23948,7 +25928,7 @@
         </is>
       </c>
       <c r="B44" s="40" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
@@ -24018,7 +25998,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>313</v>
+        <v>463</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -24036,7 +26016,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>218</v>
+        <v>351</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -24054,7 +26034,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -24072,7 +26052,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>306</v>
+        <v>479</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -24090,7 +26070,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -24108,7 +26088,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -24137,12 +26117,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -24157,13 +26137,13 @@
       <c r="B12" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="41" t="inlineStr">
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="41" t="n">
-        <v>4066</v>
+      <c r="E12" s="54" t="n">
+        <v>4216</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" s="28">
@@ -24175,13 +26155,13 @@
       <c r="B13" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="inlineStr">
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="41" t="n">
-        <v>3401</v>
+      <c r="E13" s="54" t="n">
+        <v>3534</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" s="28">
@@ -24193,13 +26173,13 @@
       <c r="B14" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="41" t="inlineStr">
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="41" t="n">
-        <v>1.2</v>
+      <c r="E14" s="54" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" s="28">
@@ -24211,13 +26191,13 @@
       <c r="B15" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="41" t="inlineStr">
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="41" t="n">
-        <v>3737</v>
+      <c r="E15" s="54" t="n">
+        <v>3910</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" s="28">
@@ -24229,13 +26209,13 @@
       <c r="B16" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="41" t="inlineStr">
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="41" t="n">
-        <v>1977</v>
+      <c r="E16" s="54" t="n">
+        <v>2024</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" s="28">
@@ -24247,13 +26227,13 @@
       <c r="B17" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="41" t="inlineStr">
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="41" t="n">
-        <v>1.89</v>
+      <c r="E17" s="54" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" s="28">
@@ -24292,7 +26272,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -24310,7 +26290,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -24328,7 +26308,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -24346,7 +26326,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -24364,7 +26344,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -24382,7 +26362,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>14</v>
+        <v>3.9</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -24429,7 +26409,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -24447,7 +26427,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -24465,7 +26445,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -24483,7 +26463,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -24501,7 +26481,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -24519,7 +26499,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>14</v>
+        <v>3.9</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -24556,10 +26536,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>4066</v>
+        <v>4216</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>138284</v>
+        <v>141312</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1" s="28">
@@ -24569,10 +26549,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>3401</v>
+        <v>3534</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1" s="28">
@@ -24582,7 +26562,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1" s="28">
@@ -24592,7 +26572,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>3737</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" s="28">
@@ -24602,7 +26582,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>1977</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" s="28">
@@ -24612,7 +26592,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
     </row>
   </sheetData>
@@ -24682,7 +26662,7 @@
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="D3" s="41" t="inlineStr">
         <is>
@@ -24700,7 +26680,7 @@
         </is>
       </c>
       <c r="B4" s="41" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
@@ -24718,7 +26698,7 @@
         </is>
       </c>
       <c r="B5" s="41" t="n">
-        <v>2.26</v>
+        <v>3.54</v>
       </c>
       <c r="D5" s="41" t="inlineStr">
         <is>
@@ -24736,7 +26716,7 @@
         </is>
       </c>
       <c r="B6" s="41" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
@@ -24754,7 +26734,7 @@
         </is>
       </c>
       <c r="B7" s="41" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" s="41" t="inlineStr">
         <is>
@@ -24772,7 +26752,7 @@
         </is>
       </c>
       <c r="B8" s="41" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
@@ -24801,12 +26781,12 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="D11" s="44" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>Snapshot</t>
         </is>
       </c>
-      <c r="E11" s="44" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -24819,15 +26799,15 @@
         </is>
       </c>
       <c r="B12" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+        <v>95</v>
+      </c>
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>Kills</t>
         </is>
       </c>
-      <c r="E12" s="41" t="n">
-        <v>5858</v>
+      <c r="E12" s="54" t="n">
+        <v>5953</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" s="28">
@@ -24837,15 +26817,15 @@
         </is>
       </c>
       <c r="B13" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="D13" s="54" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
       </c>
-      <c r="E13" s="41" t="n">
-        <v>1980</v>
+      <c r="E13" s="54" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" s="28">
@@ -24855,15 +26835,15 @@
         </is>
       </c>
       <c r="B14" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+        <v>4.75</v>
+      </c>
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>K/D</t>
         </is>
       </c>
-      <c r="E14" s="41" t="n">
-        <v>2.96</v>
+      <c r="E14" s="54" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" s="28">
@@ -24873,15 +26853,15 @@
         </is>
       </c>
       <c r="B15" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="41" t="inlineStr">
+        <v>52</v>
+      </c>
+      <c r="D15" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="E15" s="41" t="n">
-        <v>3259</v>
+      <c r="E15" s="54" t="n">
+        <v>3311</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" s="28">
@@ -24891,15 +26871,15 @@
         </is>
       </c>
       <c r="B16" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="E16" s="41" t="n">
-        <v>1295</v>
+      <c r="E16" s="54" t="n">
+        <v>1302</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" s="28">
@@ -24909,15 +26889,15 @@
         </is>
       </c>
       <c r="B17" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="41" t="inlineStr">
+        <v>7.43</v>
+      </c>
+      <c r="D17" s="54" t="inlineStr">
         <is>
           <t>W/L</t>
         </is>
       </c>
-      <c r="E17" s="41" t="n">
-        <v>2.52</v>
+      <c r="E17" s="54" t="n">
+        <v>2.54</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" s="28">
@@ -24956,7 +26936,7 @@
         </is>
       </c>
       <c r="B21" s="41" t="n">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="D21" s="41" t="inlineStr">
         <is>
@@ -24974,7 +26954,7 @@
         </is>
       </c>
       <c r="B22" s="41" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D22" s="41" t="inlineStr">
         <is>
@@ -24992,7 +26972,7 @@
         </is>
       </c>
       <c r="B23" s="41" t="n">
-        <v>2.26</v>
+        <v>3.54</v>
       </c>
       <c r="D23" s="41" t="inlineStr">
         <is>
@@ -25010,7 +26990,7 @@
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D24" s="41" t="inlineStr">
         <is>
@@ -25028,7 +27008,7 @@
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D25" s="41" t="inlineStr">
         <is>
@@ -25046,7 +27026,7 @@
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="41" t="inlineStr">
         <is>
@@ -25093,7 +27073,7 @@
         </is>
       </c>
       <c r="B30" s="41" t="n">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="D30" s="41" t="inlineStr">
         <is>
@@ -25111,7 +27091,7 @@
         </is>
       </c>
       <c r="B31" s="41" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D31" s="41" t="inlineStr">
         <is>
@@ -25129,7 +27109,7 @@
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>2.26</v>
+        <v>3.54</v>
       </c>
       <c r="D32" s="41" t="inlineStr">
         <is>
@@ -25147,7 +27127,7 @@
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D33" s="41" t="inlineStr">
         <is>
@@ -25165,7 +27145,7 @@
         </is>
       </c>
       <c r="B34" s="41" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D34" s="41" t="inlineStr">
         <is>
@@ -25183,7 +27163,7 @@
         </is>
       </c>
       <c r="B35" s="41" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="41" t="inlineStr">
         <is>
@@ -25220,10 +27200,10 @@
         </is>
       </c>
       <c r="B39" s="41" t="n">
-        <v>5858</v>
+        <v>5953</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>141301</v>
+        <v>144905</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1" s="28">
@@ -25233,10 +27213,10 @@
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1" s="28">
@@ -25246,7 +27226,7 @@
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1" s="28">
@@ -25256,7 +27236,7 @@
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>3259</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" s="28">
@@ -25266,7 +27246,7 @@
         </is>
       </c>
       <c r="B43" s="41" t="n">
-        <v>1295</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" s="28">
@@ -25276,7 +27256,7 @@
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
     </row>
   </sheetData>
